--- a/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9480" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9480" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -577,15 +577,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="195" formatCode="0.000%"/>
-    <numFmt numFmtId="196" formatCode="0.0000%"/>
-    <numFmt numFmtId="197" formatCode="ddd\,\ d\-mmm\-yy"/>
-    <numFmt numFmtId="201" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="204" formatCode="0.000000000"/>
-    <numFmt numFmtId="205" formatCode="0.00000%"/>
-    <numFmt numFmtId="210" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="211" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="212" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yy"/>
+    <numFmt numFmtId="167" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000%"/>
+    <numFmt numFmtId="170" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="172" formatCode="ddd\,\ d\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1144,7 +1144,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="204" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1166,20 +1166,20 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="211" fontId="4" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="210" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="197" fontId="4" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1188,7 +1188,7 @@
     <xf numFmtId="1" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="197" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,16 +1203,16 @@
     <xf numFmtId="11" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="212" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="212" fontId="4" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,16 +1224,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="212" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="204" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="212" fontId="4" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="201" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,18 +1242,18 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="196" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="196" fontId="4" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="212" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="212" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="212" fontId="4" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="212" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="4" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="4" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,31 +1268,31 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="196" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="201" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="201" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="196" fontId="9" fillId="7" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="201" fontId="9" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="201" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,26 +1313,26 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="196" fontId="9" fillId="7" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="201" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="201" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="196" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="205" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,9 +1670,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2028,7 +2026,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="32">
-        <v>40948.459282407406</v>
+        <v>41614.519004629627</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
@@ -9003,7 +9001,7 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
@@ -8,34 +8,57 @@
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
-    <sheet name="RateHelpers" sheetId="2" r:id="rId2"/>
-    <sheet name="Selected" sheetId="4" r:id="rId3"/>
+    <sheet name="ON" sheetId="6" r:id="rId2"/>
+    <sheet name="General Settings (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="RateHelpers" sheetId="2" r:id="rId4"/>
+    <sheet name="Selected" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$23</definedName>
+    <definedName name="BondBasisDayCounter">'General Settings (2)'!$D$16</definedName>
+    <definedName name="Calendar" localSheetId="2">'General Settings (2)'!$D$18</definedName>
+    <definedName name="Calendar" localSheetId="1">'General Settings (2)'!$D$18</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
+    <definedName name="Currency" localSheetId="2">'General Settings (2)'!$D$14</definedName>
+    <definedName name="Currency" localSheetId="1">'General Settings (2)'!$D$14</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DayCounter">'General Settings'!$D$19</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
+    <definedName name="Discounting">'General Settings (2)'!$D$20</definedName>
+    <definedName name="Discounting2">'General Settings (2)'!$D$21</definedName>
+    <definedName name="DiscountingCurve" localSheetId="1">ON!$L$2</definedName>
+    <definedName name="FamilyName">'General Settings (2)'!$D$15</definedName>
+    <definedName name="FileOverwrite">'General Settings (2)'!$D$9</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
+    <definedName name="GENERAL_SETTINGS">'General Settings (2)'!$B$12</definedName>
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$25</definedName>
     <definedName name="MinDistance">RateHelpers!$J$2:$J$122</definedName>
+    <definedName name="MoneyMarketDayCounter">'General Settings (2)'!$D$17</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
     <definedName name="nIMMFutures">Selected!$B$2</definedName>
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
+    <definedName name="ObjectOverwrite" localSheetId="2">'General Settings (2)'!$D$6</definedName>
+    <definedName name="ObjectOverwrite" localSheetId="1">'General Settings (2)'!$D$6</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
+    <definedName name="Permanent" localSheetId="2">'General Settings (2)'!$D$5</definedName>
+    <definedName name="Permanent" localSheetId="1">'General Settings (2)'!$D$5</definedName>
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Selected!$D$1:$J$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Selected!$D$1:$J$50</definedName>
+    <definedName name="QuoteSuffix">'General Settings (2)'!$D$19</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
     <definedName name="RateHelpers">RateHelpers!$E$2:$E$122</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$122</definedName>
     <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$122</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
+    <definedName name="SerializationPath">'General Settings (2)'!$D$8</definedName>
+    <definedName name="Serialize">'General Settings (2)'!$D$7</definedName>
     <definedName name="SwapFixedFreq">'General Settings'!$D$8</definedName>
     <definedName name="TraitsID">'General Settings'!$D$24</definedName>
+    <definedName name="Trigger" localSheetId="2">'General Settings (2)'!$D$4</definedName>
+    <definedName name="Trigger" localSheetId="1">'General Settings (2)'!$D$4</definedName>
     <definedName name="Trigger">'General Settings'!$D$11</definedName>
     <definedName name="YieldCurve">'General Settings'!$D$14</definedName>
   </definedNames>
@@ -204,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="166">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -571,12 +594,144 @@
   <si>
     <t>UnitedKingdom::Exchange</t>
   </si>
+  <si>
+    <t>GBP_YCONRH_SWOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_2WOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_1MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_2MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_3MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_4MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_5MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_6MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_7MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_8MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_9MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_10MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_11MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_1YOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_15MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_18MOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_2YOIS</t>
+  </si>
+  <si>
+    <t>GBP_YCONRH_3YOIS</t>
+  </si>
+  <si>
+    <t>Discounting2</t>
+  </si>
+  <si>
+    <t>Discounting</t>
+  </si>
+  <si>
+    <t>_Quote</t>
+  </si>
+  <si>
+    <t>QuoteSuffix</t>
+  </si>
+  <si>
+    <t>Actual/365 (Fixed)</t>
+  </si>
+  <si>
+    <t>MoneyMarketDayCounter</t>
+  </si>
+  <si>
+    <t>BondBasisDayCounter</t>
+  </si>
+  <si>
+    <t>Libor</t>
+  </si>
+  <si>
+    <t>FamilyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ADDITIONAL SETTINGS</t>
+  </si>
+  <si>
+    <t>FileOverwrite</t>
+  </si>
+  <si>
+    <t>SerializationPath</t>
+  </si>
+  <si>
+    <t>Serialize</t>
+  </si>
+  <si>
+    <t>GENERAL SETTINGS</t>
+  </si>
+  <si>
+    <t>Following</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Modified Following</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>Quote Object ID</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Day Count Convention</t>
+  </si>
+  <si>
+    <t>Business Day Convention</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Fwd start</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yy"/>
@@ -586,8 +741,12 @@
     <numFmt numFmtId="170" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="172" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="173" formatCode="General_)"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0;#,##0.0"/>
+    <numFmt numFmtId="175" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -645,8 +804,67 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="16"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,8 +913,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="22"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1101,13 +1325,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="40" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="18" fillId="9" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,6 +1620,97 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="13" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="13" fillId="5" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="13" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="13" fillId="5" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="20" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,6 +1718,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1365,10 +1743,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
+    <cellStyle name="Migliaia (0)_AZIONI" xfId="3"/>
+    <cellStyle name="Migliaia_AZIONI" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_SwaptionATMVols" xfId="1"/>
+    <cellStyle name="Normale_AZIONI" xfId="5"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="result" xfId="6"/>
+    <cellStyle name="Valuta (0)_AZIONI" xfId="7"/>
+    <cellStyle name="Valuta_AZIONI" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1670,7 +2054,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1690,13 +2076,13 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="159"/>
     </row>
     <row r="3" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -2026,7 +2412,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="32">
-        <v>41614.519004629627</v>
+        <v>41614.558923611112</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
@@ -2138,9 +2524,9 @@
       <c r="C14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="37" t="e">
+      <c r="D14" s="37" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>_GBPYCON#0002</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
@@ -2179,7 +2565,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="39" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve)</f>
+        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
       <c r="E15" s="18"/>
@@ -2652,13 +3038,13 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="52" t="e">
+      <c r="C27" s="52">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>#VALUE!</v>
+        <v>41614</v>
       </c>
       <c r="D27" s="53" t="e">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C27)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="19"/>
@@ -2693,13 +3079,13 @@
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="54" t="e">
+      <c r="C28" s="54">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>#VALUE!</v>
+        <v>42710</v>
       </c>
       <c r="D28" s="26" t="e">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C28)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
@@ -2739,7 +3125,7 @@
       </c>
       <c r="D29" s="56" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v/>
+        <v>qlPiecewiseYieldCurveData - 1st instrument (maturity: December 13th, 2013) has an invalid quote</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
@@ -4166,6 +4552,4073 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="71" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="71" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" style="71" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="71" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="71" customWidth="1"/>
+    <col min="16" max="17" width="17.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="156"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="153"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="141"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="77" t="str">
+        <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
+        <v>GBP_YCONRH</v>
+      </c>
+      <c r="L2" s="152" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M2" s="144"/>
+      <c r="N2" s="131"/>
+    </row>
+    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="141"/>
+      <c r="B3" s="151" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="151" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="151" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="150" t="str">
+        <f>K2&amp;"_Swaps.xml"</f>
+        <v>GBP_YCONRH_Swaps.xml</v>
+      </c>
+      <c r="L3" s="149">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L74),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>57</v>
+      </c>
+      <c r="M3" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <v/>
+      </c>
+      <c r="N3" s="131"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="145"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="148" t="str">
+        <f>$K$2&amp;"_"&amp;"_"&amp;FamilyName&amp;$J$2</f>
+        <v>GBP_YCONRH__LiborON</v>
+      </c>
+      <c r="L4" s="147" t="str">
+        <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>GBP_YCONRH__LiborON#0001</v>
+      </c>
+      <c r="M4" s="146" t="str">
+        <f>_xll.ohRangeRetrieveError(L4)</f>
+        <v/>
+      </c>
+      <c r="N4" s="131"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="145"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="131"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="141"/>
+      <c r="B6" s="139">
+        <v>0</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="137" t="str">
+        <f t="shared" ref="H6:H38" si="0">MoneyMarketDayCounter</f>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I6" s="136">
+        <v>0</v>
+      </c>
+      <c r="J6" s="135" t="str">
+        <f t="shared" ref="J6:J38" si="1">Currency&amp;$D6&amp;E6&amp;QuoteSuffix</f>
+        <v>GBPSWOIS_Quote</v>
+      </c>
+      <c r="K6" s="135" t="str">
+        <f t="shared" ref="K6:K38" si="2">$K$2&amp;"_"&amp;$D6&amp;E6</f>
+        <v>GBP_YCONRH_SWOIS</v>
+      </c>
+      <c r="L6" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K6,B6,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_SWOIS#0001</v>
+      </c>
+      <c r="M6" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L6)</f>
+        <v/>
+      </c>
+      <c r="N6" s="131"/>
+      <c r="P6" s="126">
+        <f>_xll.qlRateHelperEarliestDate($L6)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q6" s="126">
+        <f>_xll.qlRateHelperLatestDate($L6)</f>
+        <v>41621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="141"/>
+      <c r="B7" s="139">
+        <v>0</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="138" t="str">
+        <f t="shared" ref="D7:D38" si="3">C7</f>
+        <v>2W</v>
+      </c>
+      <c r="E7" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I7" s="136">
+        <v>0</v>
+      </c>
+      <c r="J7" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP2WOIS_Quote</v>
+      </c>
+      <c r="K7" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_2WOIS</v>
+      </c>
+      <c r="L7" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K7,B7,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_2WOIS#0001</v>
+      </c>
+      <c r="M7" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L7)</f>
+        <v/>
+      </c>
+      <c r="N7" s="131"/>
+      <c r="P7" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L7)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q7" s="126">
+        <f>_xll.qlRateHelperLatestDate($L7)</f>
+        <v>41628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="141"/>
+      <c r="B8" s="139">
+        <v>0</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>3W</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I8" s="136">
+        <v>0</v>
+      </c>
+      <c r="J8" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP3WOIS_Quote</v>
+      </c>
+      <c r="K8" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_3WOIS</v>
+      </c>
+      <c r="L8" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K8,B8,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_3WOIS#0001</v>
+      </c>
+      <c r="M8" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L8)</f>
+        <v/>
+      </c>
+      <c r="N8" s="131"/>
+      <c r="P8" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L8)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q8" s="126">
+        <f>_xll.qlRateHelperLatestDate($L8)</f>
+        <v>41635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="141"/>
+      <c r="B9" s="139">
+        <v>0</v>
+      </c>
+      <c r="C9" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>1M</v>
+      </c>
+      <c r="E9" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I9" s="136">
+        <v>0</v>
+      </c>
+      <c r="J9" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP1MOIS_Quote</v>
+      </c>
+      <c r="K9" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_1MOIS</v>
+      </c>
+      <c r="L9" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K9,B9,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_1MOIS#0001</v>
+      </c>
+      <c r="M9" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L9)</f>
+        <v/>
+      </c>
+      <c r="N9" s="131"/>
+      <c r="P9" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L9)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q9" s="126">
+        <f>_xll.qlRateHelperLatestDate($L9)</f>
+        <v>41645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="141"/>
+      <c r="B10" s="139">
+        <v>0</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>2M</v>
+      </c>
+      <c r="E10" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I10" s="136">
+        <v>0</v>
+      </c>
+      <c r="J10" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP2MOIS_Quote</v>
+      </c>
+      <c r="K10" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_2MOIS</v>
+      </c>
+      <c r="L10" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K10,B10,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_2MOIS#0001</v>
+      </c>
+      <c r="M10" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L10)</f>
+        <v/>
+      </c>
+      <c r="N10" s="131"/>
+      <c r="P10" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L10)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q10" s="126">
+        <f>_xll.qlRateHelperLatestDate($L10)</f>
+        <v>41676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="141"/>
+      <c r="B11" s="139">
+        <v>0</v>
+      </c>
+      <c r="C11" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>3M</v>
+      </c>
+      <c r="E11" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I11" s="136">
+        <v>0</v>
+      </c>
+      <c r="J11" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP3MOIS_Quote</v>
+      </c>
+      <c r="K11" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_3MOIS</v>
+      </c>
+      <c r="L11" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K11,B11,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_3MOIS#0001</v>
+      </c>
+      <c r="M11" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L11)</f>
+        <v/>
+      </c>
+      <c r="N11" s="131"/>
+      <c r="P11" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L11)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q11" s="126">
+        <f>_xll.qlRateHelperLatestDate($L11)</f>
+        <v>41704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="141"/>
+      <c r="B12" s="139">
+        <v>0</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>4M</v>
+      </c>
+      <c r="E12" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I12" s="136">
+        <v>0</v>
+      </c>
+      <c r="J12" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP4MOIS_Quote</v>
+      </c>
+      <c r="K12" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_4MOIS</v>
+      </c>
+      <c r="L12" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K12,B12,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_4MOIS#0001</v>
+      </c>
+      <c r="M12" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L12)</f>
+        <v/>
+      </c>
+      <c r="N12" s="131"/>
+      <c r="P12" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L12)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q12" s="126">
+        <f>_xll.qlRateHelperLatestDate($L12)</f>
+        <v>41736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="141"/>
+      <c r="B13" s="139">
+        <v>0</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>5M</v>
+      </c>
+      <c r="E13" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I13" s="136">
+        <v>0</v>
+      </c>
+      <c r="J13" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP5MOIS_Quote</v>
+      </c>
+      <c r="K13" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_5MOIS</v>
+      </c>
+      <c r="L13" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K13,B13,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_5MOIS#0001</v>
+      </c>
+      <c r="M13" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L13)</f>
+        <v/>
+      </c>
+      <c r="N13" s="131"/>
+      <c r="P13" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L13)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q13" s="126">
+        <f>_xll.qlRateHelperLatestDate($L13)</f>
+        <v>41765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="141"/>
+      <c r="B14" s="139">
+        <v>0</v>
+      </c>
+      <c r="C14" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>6M</v>
+      </c>
+      <c r="E14" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I14" s="136">
+        <v>0</v>
+      </c>
+      <c r="J14" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP6MOIS_Quote</v>
+      </c>
+      <c r="K14" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_6MOIS</v>
+      </c>
+      <c r="L14" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K14,B14,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_6MOIS#0001</v>
+      </c>
+      <c r="M14" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L14)</f>
+        <v/>
+      </c>
+      <c r="N14" s="131"/>
+      <c r="P14" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L14)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q14" s="126">
+        <f>_xll.qlRateHelperLatestDate($L14)</f>
+        <v>41796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="141"/>
+      <c r="B15" s="139">
+        <v>0</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>7M</v>
+      </c>
+      <c r="E15" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I15" s="136">
+        <v>0</v>
+      </c>
+      <c r="J15" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP7MOIS_Quote</v>
+      </c>
+      <c r="K15" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_7MOIS</v>
+      </c>
+      <c r="L15" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K15,B15,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_7MOIS#0001</v>
+      </c>
+      <c r="M15" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L15)</f>
+        <v/>
+      </c>
+      <c r="N15" s="131"/>
+      <c r="P15" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L15)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q15" s="126">
+        <f>_xll.qlRateHelperLatestDate($L15)</f>
+        <v>41827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="141"/>
+      <c r="B16" s="139">
+        <v>0</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>8M</v>
+      </c>
+      <c r="E16" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I16" s="136">
+        <v>0</v>
+      </c>
+      <c r="J16" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP8MOIS_Quote</v>
+      </c>
+      <c r="K16" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_8MOIS</v>
+      </c>
+      <c r="L16" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K16,B16,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_8MOIS#0001</v>
+      </c>
+      <c r="M16" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L16)</f>
+        <v/>
+      </c>
+      <c r="N16" s="131"/>
+      <c r="P16" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L16)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q16" s="126">
+        <f>_xll.qlRateHelperLatestDate($L16)</f>
+        <v>41857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="141"/>
+      <c r="B17" s="139">
+        <v>0</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>9M</v>
+      </c>
+      <c r="E17" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I17" s="136">
+        <v>0</v>
+      </c>
+      <c r="J17" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP9MOIS_Quote</v>
+      </c>
+      <c r="K17" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_9MOIS</v>
+      </c>
+      <c r="L17" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K17,B17,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_9MOIS#0001</v>
+      </c>
+      <c r="M17" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L17)</f>
+        <v/>
+      </c>
+      <c r="N17" s="131"/>
+      <c r="P17" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L17)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q17" s="126">
+        <f>_xll.qlRateHelperLatestDate($L17)</f>
+        <v>41890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="141"/>
+      <c r="B18" s="139">
+        <v>0</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>10M</v>
+      </c>
+      <c r="E18" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I18" s="136">
+        <v>0</v>
+      </c>
+      <c r="J18" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP10MOIS_Quote</v>
+      </c>
+      <c r="K18" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_10MOIS</v>
+      </c>
+      <c r="L18" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K18,B18,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_10MOIS#0001</v>
+      </c>
+      <c r="M18" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L18)</f>
+        <v/>
+      </c>
+      <c r="N18" s="131"/>
+      <c r="P18" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L18)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q18" s="126">
+        <f>_xll.qlRateHelperLatestDate($L18)</f>
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="141"/>
+      <c r="B19" s="139">
+        <v>0</v>
+      </c>
+      <c r="C19" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>11M</v>
+      </c>
+      <c r="E19" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I19" s="136">
+        <v>0</v>
+      </c>
+      <c r="J19" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP11MOIS_Quote</v>
+      </c>
+      <c r="K19" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_11MOIS</v>
+      </c>
+      <c r="L19" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K19,B19,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_11MOIS#0001</v>
+      </c>
+      <c r="M19" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L19)</f>
+        <v/>
+      </c>
+      <c r="N19" s="131"/>
+      <c r="P19" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L19)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q19" s="126">
+        <f>_xll.qlRateHelperLatestDate($L19)</f>
+        <v>41949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="141"/>
+      <c r="B20" s="139">
+        <v>0</v>
+      </c>
+      <c r="C20" s="138" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>1Y</v>
+      </c>
+      <c r="E20" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I20" s="136">
+        <v>0</v>
+      </c>
+      <c r="J20" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP1YOIS_Quote</v>
+      </c>
+      <c r="K20" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_1YOIS</v>
+      </c>
+      <c r="L20" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K20,B20,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_1YOIS#0001</v>
+      </c>
+      <c r="M20" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L20)</f>
+        <v/>
+      </c>
+      <c r="N20" s="131"/>
+      <c r="P20" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L20)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q20" s="126">
+        <f>_xll.qlRateHelperLatestDate($L20)</f>
+        <v>41981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="141"/>
+      <c r="B21" s="139">
+        <v>0</v>
+      </c>
+      <c r="C21" s="138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>15M</v>
+      </c>
+      <c r="E21" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I21" s="136">
+        <v>0</v>
+      </c>
+      <c r="J21" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP15MOIS_Quote</v>
+      </c>
+      <c r="K21" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_15MOIS</v>
+      </c>
+      <c r="L21" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K21,B21,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_15MOIS#0001</v>
+      </c>
+      <c r="M21" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L21)</f>
+        <v/>
+      </c>
+      <c r="N21" s="131"/>
+      <c r="P21" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L21)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q21" s="126">
+        <f>_xll.qlRateHelperLatestDate($L21)</f>
+        <v>42069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="141"/>
+      <c r="B22" s="139">
+        <v>0</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>18M</v>
+      </c>
+      <c r="E22" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I22" s="136">
+        <v>0</v>
+      </c>
+      <c r="J22" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP18MOIS_Quote</v>
+      </c>
+      <c r="K22" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_18MOIS</v>
+      </c>
+      <c r="L22" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K22,B22,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_18MOIS#0001</v>
+      </c>
+      <c r="M22" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L22)</f>
+        <v/>
+      </c>
+      <c r="N22" s="131"/>
+      <c r="P22" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L22)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q22" s="126">
+        <f>_xll.qlRateHelperLatestDate($L22)</f>
+        <v>42163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="141"/>
+      <c r="B23" s="139">
+        <v>0</v>
+      </c>
+      <c r="C23" s="138" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>21M</v>
+      </c>
+      <c r="E23" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I23" s="136">
+        <v>0</v>
+      </c>
+      <c r="J23" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP21MOIS_Quote</v>
+      </c>
+      <c r="K23" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_21MOIS</v>
+      </c>
+      <c r="L23" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K23,B23,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_21MOIS#0001</v>
+      </c>
+      <c r="M23" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L23)</f>
+        <v/>
+      </c>
+      <c r="N23" s="131"/>
+      <c r="P23" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L23)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q23" s="126">
+        <f>_xll.qlRateHelperLatestDate($L23)</f>
+        <v>42254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="141"/>
+      <c r="B24" s="139">
+        <v>0</v>
+      </c>
+      <c r="C24" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>2Y</v>
+      </c>
+      <c r="E24" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I24" s="136">
+        <v>0</v>
+      </c>
+      <c r="J24" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP2YOIS_Quote</v>
+      </c>
+      <c r="K24" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_2YOIS</v>
+      </c>
+      <c r="L24" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K24,B24,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_2YOIS#0001</v>
+      </c>
+      <c r="M24" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L24)</f>
+        <v/>
+      </c>
+      <c r="N24" s="131"/>
+      <c r="P24" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L24)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q24" s="126">
+        <f>_xll.qlRateHelperLatestDate($L24)</f>
+        <v>42345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="141"/>
+      <c r="B25" s="139">
+        <v>0</v>
+      </c>
+      <c r="C25" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>3Y</v>
+      </c>
+      <c r="E25" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I25" s="136">
+        <v>0</v>
+      </c>
+      <c r="J25" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP3YOIS_Quote</v>
+      </c>
+      <c r="K25" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_3YOIS</v>
+      </c>
+      <c r="L25" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K25,B25,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_3YOIS#0001</v>
+      </c>
+      <c r="M25" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L25)</f>
+        <v/>
+      </c>
+      <c r="N25" s="131"/>
+      <c r="P25" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L25)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q25" s="126">
+        <f>_xll.qlRateHelperLatestDate($L25)</f>
+        <v>42710</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="141"/>
+      <c r="B26" s="139">
+        <v>0</v>
+      </c>
+      <c r="C26" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>4Y</v>
+      </c>
+      <c r="E26" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I26" s="136">
+        <v>0</v>
+      </c>
+      <c r="J26" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP4YOIS_Quote</v>
+      </c>
+      <c r="K26" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_4YOIS</v>
+      </c>
+      <c r="L26" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K26,B26,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_4YOIS#0001</v>
+      </c>
+      <c r="M26" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L26)</f>
+        <v/>
+      </c>
+      <c r="N26" s="131"/>
+      <c r="P26" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L26)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q26" s="126">
+        <f>_xll.qlRateHelperLatestDate($L26)</f>
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="141"/>
+      <c r="B27" s="139">
+        <v>0</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>5Y</v>
+      </c>
+      <c r="E27" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I27" s="136">
+        <v>0</v>
+      </c>
+      <c r="J27" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP5YOIS_Quote</v>
+      </c>
+      <c r="K27" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_5YOIS</v>
+      </c>
+      <c r="L27" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K27,B27,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_5YOIS#0001</v>
+      </c>
+      <c r="M27" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L27)</f>
+        <v/>
+      </c>
+      <c r="N27" s="131"/>
+      <c r="P27" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L27)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q27" s="126">
+        <f>_xll.qlRateHelperLatestDate($L27)</f>
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="141"/>
+      <c r="B28" s="139">
+        <v>0</v>
+      </c>
+      <c r="C28" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>6Y</v>
+      </c>
+      <c r="E28" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I28" s="136">
+        <v>0</v>
+      </c>
+      <c r="J28" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP6YOIS_Quote</v>
+      </c>
+      <c r="K28" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_6YOIS</v>
+      </c>
+      <c r="L28" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K28,B28,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_6YOIS#0001</v>
+      </c>
+      <c r="M28" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L28)</f>
+        <v/>
+      </c>
+      <c r="N28" s="131"/>
+      <c r="P28" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L28)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q28" s="126">
+        <f>_xll.qlRateHelperLatestDate($L28)</f>
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="141"/>
+      <c r="B29" s="139">
+        <v>0</v>
+      </c>
+      <c r="C29" s="138" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>7Y</v>
+      </c>
+      <c r="E29" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I29" s="136">
+        <v>0</v>
+      </c>
+      <c r="J29" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP7YOIS_Quote</v>
+      </c>
+      <c r="K29" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_7YOIS</v>
+      </c>
+      <c r="L29" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K29,B29,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_7YOIS#0001</v>
+      </c>
+      <c r="M29" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L29)</f>
+        <v/>
+      </c>
+      <c r="N29" s="131"/>
+      <c r="P29" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L29)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q29" s="126">
+        <f>_xll.qlRateHelperLatestDate($L29)</f>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="141"/>
+      <c r="B30" s="139">
+        <v>0</v>
+      </c>
+      <c r="C30" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>8Y</v>
+      </c>
+      <c r="E30" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I30" s="136">
+        <v>0</v>
+      </c>
+      <c r="J30" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP8YOIS_Quote</v>
+      </c>
+      <c r="K30" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_8YOIS</v>
+      </c>
+      <c r="L30" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K30,B30,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_8YOIS#0001</v>
+      </c>
+      <c r="M30" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L30)</f>
+        <v/>
+      </c>
+      <c r="N30" s="131"/>
+      <c r="P30" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L30)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q30" s="126">
+        <f>_xll.qlRateHelperLatestDate($L30)</f>
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="141"/>
+      <c r="B31" s="139">
+        <v>0</v>
+      </c>
+      <c r="C31" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>9Y</v>
+      </c>
+      <c r="E31" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I31" s="136">
+        <v>0</v>
+      </c>
+      <c r="J31" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP9YOIS_Quote</v>
+      </c>
+      <c r="K31" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_9YOIS</v>
+      </c>
+      <c r="L31" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K31,B31,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_9YOIS#0001</v>
+      </c>
+      <c r="M31" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L31)</f>
+        <v/>
+      </c>
+      <c r="N31" s="131"/>
+      <c r="P31" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L31)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q31" s="126">
+        <f>_xll.qlRateHelperLatestDate($L31)</f>
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="141"/>
+      <c r="B32" s="139">
+        <v>0</v>
+      </c>
+      <c r="C32" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>10Y</v>
+      </c>
+      <c r="E32" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I32" s="136">
+        <v>0</v>
+      </c>
+      <c r="J32" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP10YOIS_Quote</v>
+      </c>
+      <c r="K32" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_10YOIS</v>
+      </c>
+      <c r="L32" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K32,B32,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_10YOIS#0001</v>
+      </c>
+      <c r="M32" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L32)</f>
+        <v/>
+      </c>
+      <c r="N32" s="131"/>
+      <c r="P32" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L32)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q32" s="126">
+        <f>_xll.qlRateHelperLatestDate($L32)</f>
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="141"/>
+      <c r="B33" s="139">
+        <v>0</v>
+      </c>
+      <c r="C33" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>11Y</v>
+      </c>
+      <c r="E33" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I33" s="136">
+        <v>0</v>
+      </c>
+      <c r="J33" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP11YOIS_Quote</v>
+      </c>
+      <c r="K33" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_11YOIS</v>
+      </c>
+      <c r="L33" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K33,B33,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_11YOIS#0001</v>
+      </c>
+      <c r="M33" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L33)</f>
+        <v/>
+      </c>
+      <c r="N33" s="131"/>
+      <c r="P33" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L33)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q33" s="126">
+        <f>_xll.qlRateHelperLatestDate($L33)</f>
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="141"/>
+      <c r="B34" s="139">
+        <v>0</v>
+      </c>
+      <c r="C34" s="138" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>12Y</v>
+      </c>
+      <c r="E34" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I34" s="136">
+        <v>0</v>
+      </c>
+      <c r="J34" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP12YOIS_Quote</v>
+      </c>
+      <c r="K34" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_12YOIS</v>
+      </c>
+      <c r="L34" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K34,B34,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_12YOIS#0001</v>
+      </c>
+      <c r="M34" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L34)</f>
+        <v/>
+      </c>
+      <c r="N34" s="131"/>
+      <c r="P34" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L34)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q34" s="126">
+        <f>_xll.qlRateHelperLatestDate($L34)</f>
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="141"/>
+      <c r="B35" s="139">
+        <v>0</v>
+      </c>
+      <c r="C35" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>15Y</v>
+      </c>
+      <c r="E35" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I35" s="136">
+        <v>0</v>
+      </c>
+      <c r="J35" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP15YOIS_Quote</v>
+      </c>
+      <c r="K35" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_15YOIS</v>
+      </c>
+      <c r="L35" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K35,B35,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_15YOIS#0001</v>
+      </c>
+      <c r="M35" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L35)</f>
+        <v/>
+      </c>
+      <c r="N35" s="131"/>
+      <c r="P35" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L35)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q35" s="126">
+        <f>_xll.qlRateHelperLatestDate($L35)</f>
+        <v>47093</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="141"/>
+      <c r="B36" s="139">
+        <v>0</v>
+      </c>
+      <c r="C36" s="138" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>20Y</v>
+      </c>
+      <c r="E36" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I36" s="136">
+        <v>0</v>
+      </c>
+      <c r="J36" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP20YOIS_Quote</v>
+      </c>
+      <c r="K36" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_20YOIS</v>
+      </c>
+      <c r="L36" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K36,B36,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_20YOIS#0001</v>
+      </c>
+      <c r="M36" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L36)</f>
+        <v/>
+      </c>
+      <c r="N36" s="131"/>
+      <c r="P36" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L36)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q36" s="126">
+        <f>_xll.qlRateHelperLatestDate($L36)</f>
+        <v>48919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="141"/>
+      <c r="B37" s="139">
+        <v>0</v>
+      </c>
+      <c r="C37" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>25Y</v>
+      </c>
+      <c r="E37" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I37" s="136">
+        <v>0</v>
+      </c>
+      <c r="J37" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP25YOIS_Quote</v>
+      </c>
+      <c r="K37" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_25YOIS</v>
+      </c>
+      <c r="L37" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K37,B37,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_25YOIS#0001</v>
+      </c>
+      <c r="M37" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L37)</f>
+        <v/>
+      </c>
+      <c r="N37" s="131"/>
+      <c r="P37" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L37)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q37" s="126">
+        <f>_xll.qlRateHelperLatestDate($L37)</f>
+        <v>50745</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="141"/>
+      <c r="B38" s="139">
+        <v>0</v>
+      </c>
+      <c r="C38" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>30Y</v>
+      </c>
+      <c r="E38" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="H38" s="137" t="str">
+        <f t="shared" si="0"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I38" s="136">
+        <v>0</v>
+      </c>
+      <c r="J38" s="135" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP30YOIS_Quote</v>
+      </c>
+      <c r="K38" s="135" t="str">
+        <f t="shared" si="2"/>
+        <v>GBP_YCONRH_30YOIS</v>
+      </c>
+      <c r="L38" s="133" t="str">
+        <f>_xll.qlOISRateHelper(K38,B38,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_30YOIS#0001</v>
+      </c>
+      <c r="M38" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L38)</f>
+        <v/>
+      </c>
+      <c r="N38" s="131"/>
+      <c r="P38" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L38)</f>
+        <v>41614</v>
+      </c>
+      <c r="Q38" s="126">
+        <f>_xll.qlRateHelperLatestDate($L38)</f>
+        <v>52572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="141"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="142"/>
+      <c r="N39" s="131"/>
+      <c r="P39" s="126"/>
+      <c r="Q39" s="126"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="141"/>
+      <c r="B40" s="140">
+        <v>40556</v>
+      </c>
+      <c r="C40" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="138" t="str">
+        <f t="shared" ref="D40:D63" si="4">UPPER(TEXT(B40,"MMMYY"))</f>
+        <v>JAN11</v>
+      </c>
+      <c r="E40" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" s="137" t="str">
+        <f t="shared" ref="H40:H74" si="5">MoneyMarketDayCounter</f>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I40" s="136">
+        <v>0</v>
+      </c>
+      <c r="J40" s="135" t="str">
+        <f t="shared" ref="J40:J74" si="6">Currency&amp;$C40&amp;$D40&amp;E40&amp;QuoteSuffix</f>
+        <v>GBPMPCJAN11OIS_Quote</v>
+      </c>
+      <c r="K40" s="134" t="str">
+        <f t="shared" ref="K40:K74" si="7">$K$2&amp;"_"&amp;$C40&amp;$D40&amp;E40</f>
+        <v>GBP_YCONRH_MPCJAN11OIS</v>
+      </c>
+      <c r="L40" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K40,B40,B41,J40,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCJAN11OIS#0001</v>
+      </c>
+      <c r="M40" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L40)</f>
+        <v/>
+      </c>
+      <c r="N40" s="131"/>
+      <c r="P40" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L40)</f>
+        <v>40556</v>
+      </c>
+      <c r="Q40" s="126">
+        <f>_xll.qlRateHelperLatestDate($L40)</f>
+        <v>40584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="141"/>
+      <c r="B41" s="140">
+        <v>40584</v>
+      </c>
+      <c r="C41" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>FEB11</v>
+      </c>
+      <c r="E41" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I41" s="136">
+        <v>0</v>
+      </c>
+      <c r="J41" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCFEB11OIS_Quote</v>
+      </c>
+      <c r="K41" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCFEB11OIS</v>
+      </c>
+      <c r="L41" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K41,B41,B42,J41,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCFEB11OIS#0001</v>
+      </c>
+      <c r="M41" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L41)</f>
+        <v/>
+      </c>
+      <c r="N41" s="131"/>
+      <c r="P41" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L41)</f>
+        <v>40584</v>
+      </c>
+      <c r="Q41" s="126">
+        <f>_xll.qlRateHelperLatestDate($L41)</f>
+        <v>40612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="141"/>
+      <c r="B42" s="140">
+        <v>40612</v>
+      </c>
+      <c r="C42" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>MAR11</v>
+      </c>
+      <c r="E42" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I42" s="136">
+        <v>0</v>
+      </c>
+      <c r="J42" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCMAR11OIS_Quote</v>
+      </c>
+      <c r="K42" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCMAR11OIS</v>
+      </c>
+      <c r="L42" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K42,B42,B43,J42,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCMAR11OIS#0001</v>
+      </c>
+      <c r="M42" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L42)</f>
+        <v/>
+      </c>
+      <c r="N42" s="131"/>
+      <c r="P42" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L42)</f>
+        <v>40612</v>
+      </c>
+      <c r="Q42" s="126">
+        <f>_xll.qlRateHelperLatestDate($L42)</f>
+        <v>40640</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="141"/>
+      <c r="B43" s="140">
+        <v>40640</v>
+      </c>
+      <c r="C43" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>APR11</v>
+      </c>
+      <c r="E43" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I43" s="136">
+        <v>0</v>
+      </c>
+      <c r="J43" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCAPR11OIS_Quote</v>
+      </c>
+      <c r="K43" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCAPR11OIS</v>
+      </c>
+      <c r="L43" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K43,B43,B44,J43,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCAPR11OIS#0001</v>
+      </c>
+      <c r="M43" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L43)</f>
+        <v/>
+      </c>
+      <c r="N43" s="131"/>
+      <c r="P43" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L43)</f>
+        <v>40640</v>
+      </c>
+      <c r="Q43" s="126">
+        <f>_xll.qlRateHelperLatestDate($L43)</f>
+        <v>40668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="141"/>
+      <c r="B44" s="140">
+        <v>40668</v>
+      </c>
+      <c r="C44" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>MAY11</v>
+      </c>
+      <c r="E44" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I44" s="136">
+        <v>0</v>
+      </c>
+      <c r="J44" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCMAY11OIS_Quote</v>
+      </c>
+      <c r="K44" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCMAY11OIS</v>
+      </c>
+      <c r="L44" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K44,B44,B45,J44,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCMAY11OIS#0001</v>
+      </c>
+      <c r="M44" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L44)</f>
+        <v/>
+      </c>
+      <c r="N44" s="131"/>
+      <c r="P44" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L44)</f>
+        <v>40668</v>
+      </c>
+      <c r="Q44" s="126">
+        <f>_xll.qlRateHelperLatestDate($L44)</f>
+        <v>40703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="141"/>
+      <c r="B45" s="140">
+        <v>40703</v>
+      </c>
+      <c r="C45" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>JUN11</v>
+      </c>
+      <c r="E45" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I45" s="136">
+        <v>0</v>
+      </c>
+      <c r="J45" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCJUN11OIS_Quote</v>
+      </c>
+      <c r="K45" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCJUN11OIS</v>
+      </c>
+      <c r="L45" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K45,B45,B46,J45,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCJUN11OIS#0001</v>
+      </c>
+      <c r="M45" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L45)</f>
+        <v/>
+      </c>
+      <c r="N45" s="131"/>
+      <c r="P45" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L45)</f>
+        <v>40703</v>
+      </c>
+      <c r="Q45" s="126">
+        <f>_xll.qlRateHelperLatestDate($L45)</f>
+        <v>40731</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="141"/>
+      <c r="B46" s="140">
+        <v>40731</v>
+      </c>
+      <c r="C46" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>JUL11</v>
+      </c>
+      <c r="E46" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I46" s="136">
+        <v>0</v>
+      </c>
+      <c r="J46" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCJUL11OIS_Quote</v>
+      </c>
+      <c r="K46" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCJUL11OIS</v>
+      </c>
+      <c r="L46" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K46,B46,B47,J46,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCJUL11OIS#0001</v>
+      </c>
+      <c r="M46" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L46)</f>
+        <v/>
+      </c>
+      <c r="N46" s="131"/>
+      <c r="P46" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L46)</f>
+        <v>40731</v>
+      </c>
+      <c r="Q46" s="126">
+        <f>_xll.qlRateHelperLatestDate($L46)</f>
+        <v>40759</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="141"/>
+      <c r="B47" s="140">
+        <v>40759</v>
+      </c>
+      <c r="C47" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>AUG11</v>
+      </c>
+      <c r="E47" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I47" s="136">
+        <v>0</v>
+      </c>
+      <c r="J47" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCAUG11OIS_Quote</v>
+      </c>
+      <c r="K47" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCAUG11OIS</v>
+      </c>
+      <c r="L47" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K47,B47,B48,J47,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCAUG11OIS#0001</v>
+      </c>
+      <c r="M47" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L47)</f>
+        <v/>
+      </c>
+      <c r="N47" s="131"/>
+      <c r="P47" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L47)</f>
+        <v>40759</v>
+      </c>
+      <c r="Q47" s="126">
+        <f>_xll.qlRateHelperLatestDate($L47)</f>
+        <v>40794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="141"/>
+      <c r="B48" s="140">
+        <v>40794</v>
+      </c>
+      <c r="C48" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>SEP11</v>
+      </c>
+      <c r="E48" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I48" s="136">
+        <v>0</v>
+      </c>
+      <c r="J48" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCSEP11OIS_Quote</v>
+      </c>
+      <c r="K48" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCSEP11OIS</v>
+      </c>
+      <c r="L48" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K48,B48,B49,J48,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCSEP11OIS#0001</v>
+      </c>
+      <c r="M48" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L48)</f>
+        <v/>
+      </c>
+      <c r="N48" s="131"/>
+      <c r="P48" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L48)</f>
+        <v>40794</v>
+      </c>
+      <c r="Q48" s="126">
+        <f>_xll.qlRateHelperLatestDate($L48)</f>
+        <v>40822</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="141"/>
+      <c r="B49" s="140">
+        <v>40822</v>
+      </c>
+      <c r="C49" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>OCT11</v>
+      </c>
+      <c r="E49" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I49" s="136">
+        <v>0</v>
+      </c>
+      <c r="J49" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOCT11OIS_Quote</v>
+      </c>
+      <c r="K49" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOCT11OIS</v>
+      </c>
+      <c r="L49" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K49,B49,B50,J49,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCOCT11OIS#0001</v>
+      </c>
+      <c r="M49" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L49)</f>
+        <v/>
+      </c>
+      <c r="N49" s="131"/>
+      <c r="P49" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L49)</f>
+        <v>40822</v>
+      </c>
+      <c r="Q49" s="126">
+        <f>_xll.qlRateHelperLatestDate($L49)</f>
+        <v>40857</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="141"/>
+      <c r="B50" s="140">
+        <v>40857</v>
+      </c>
+      <c r="C50" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>NOV11</v>
+      </c>
+      <c r="E50" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I50" s="136">
+        <v>0</v>
+      </c>
+      <c r="J50" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCNOV11OIS_Quote</v>
+      </c>
+      <c r="K50" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCNOV11OIS</v>
+      </c>
+      <c r="L50" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K50,B50,B51,J50,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCNOV11OIS#0001</v>
+      </c>
+      <c r="M50" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L50)</f>
+        <v/>
+      </c>
+      <c r="N50" s="131"/>
+      <c r="P50" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L50)</f>
+        <v>40857</v>
+      </c>
+      <c r="Q50" s="126">
+        <f>_xll.qlRateHelperLatestDate($L50)</f>
+        <v>40885</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="141"/>
+      <c r="B51" s="140">
+        <v>40885</v>
+      </c>
+      <c r="C51" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>DEC11</v>
+      </c>
+      <c r="E51" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H51" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I51" s="136">
+        <v>0</v>
+      </c>
+      <c r="J51" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCDEC11OIS_Quote</v>
+      </c>
+      <c r="K51" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCDEC11OIS</v>
+      </c>
+      <c r="L51" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K51,B51,B52,J51,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCDEC11OIS#0001</v>
+      </c>
+      <c r="M51" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L51)</f>
+        <v/>
+      </c>
+      <c r="N51" s="131"/>
+      <c r="P51" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L51)</f>
+        <v>40885</v>
+      </c>
+      <c r="Q51" s="126">
+        <f>_xll.qlRateHelperLatestDate($L51)</f>
+        <v>40913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="141"/>
+      <c r="B52" s="140">
+        <v>40913</v>
+      </c>
+      <c r="C52" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>JAN12</v>
+      </c>
+      <c r="E52" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I52" s="136">
+        <v>0</v>
+      </c>
+      <c r="J52" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCJAN12OIS_Quote</v>
+      </c>
+      <c r="K52" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCJAN12OIS</v>
+      </c>
+      <c r="L52" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K52,B52,B53,J52,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCJAN12OIS#0001</v>
+      </c>
+      <c r="M52" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L52)</f>
+        <v/>
+      </c>
+      <c r="N52" s="131"/>
+      <c r="P52" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L52)</f>
+        <v>40913</v>
+      </c>
+      <c r="Q52" s="126">
+        <f>_xll.qlRateHelperLatestDate($L52)</f>
+        <v>40948</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="141"/>
+      <c r="B53" s="140">
+        <v>40948</v>
+      </c>
+      <c r="C53" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>FEB12</v>
+      </c>
+      <c r="E53" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I53" s="136">
+        <v>0</v>
+      </c>
+      <c r="J53" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCFEB12OIS_Quote</v>
+      </c>
+      <c r="K53" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCFEB12OIS</v>
+      </c>
+      <c r="L53" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K53,B53,B54,J53,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCFEB12OIS#0001</v>
+      </c>
+      <c r="M53" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L53)</f>
+        <v/>
+      </c>
+      <c r="N53" s="131"/>
+      <c r="P53" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L53)</f>
+        <v>40948</v>
+      </c>
+      <c r="Q53" s="126">
+        <f>_xll.qlRateHelperLatestDate($L53)</f>
+        <v>40976</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="141"/>
+      <c r="B54" s="140">
+        <v>40976</v>
+      </c>
+      <c r="C54" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>MAR12</v>
+      </c>
+      <c r="E54" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I54" s="136">
+        <v>0</v>
+      </c>
+      <c r="J54" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCMAR12OIS_Quote</v>
+      </c>
+      <c r="K54" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCMAR12OIS</v>
+      </c>
+      <c r="L54" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K54,B54,B55,J54,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCMAR12OIS#0001</v>
+      </c>
+      <c r="M54" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L54)</f>
+        <v/>
+      </c>
+      <c r="N54" s="131"/>
+      <c r="P54" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L54)</f>
+        <v>40976</v>
+      </c>
+      <c r="Q54" s="126">
+        <f>_xll.qlRateHelperLatestDate($L54)</f>
+        <v>41004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="141"/>
+      <c r="B55" s="140">
+        <v>41004</v>
+      </c>
+      <c r="C55" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>APR12</v>
+      </c>
+      <c r="E55" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I55" s="136">
+        <v>0</v>
+      </c>
+      <c r="J55" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCAPR12OIS_Quote</v>
+      </c>
+      <c r="K55" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCAPR12OIS</v>
+      </c>
+      <c r="L55" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K55,B55,B56,J55,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCAPR12OIS#0001</v>
+      </c>
+      <c r="M55" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L55)</f>
+        <v/>
+      </c>
+      <c r="N55" s="131"/>
+      <c r="P55" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L55)</f>
+        <v>41004</v>
+      </c>
+      <c r="Q55" s="126">
+        <f>_xll.qlRateHelperLatestDate($L55)</f>
+        <v>41039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="141"/>
+      <c r="B56" s="140">
+        <v>41039</v>
+      </c>
+      <c r="C56" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>MAY12</v>
+      </c>
+      <c r="E56" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I56" s="136">
+        <v>0</v>
+      </c>
+      <c r="J56" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCMAY12OIS_Quote</v>
+      </c>
+      <c r="K56" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCMAY12OIS</v>
+      </c>
+      <c r="L56" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K56,B56,B57,J56,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCMAY12OIS#0001</v>
+      </c>
+      <c r="M56" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L56)</f>
+        <v/>
+      </c>
+      <c r="N56" s="131"/>
+      <c r="P56" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L56)</f>
+        <v>41039</v>
+      </c>
+      <c r="Q56" s="126">
+        <f>_xll.qlRateHelperLatestDate($L56)</f>
+        <v>41067</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="141"/>
+      <c r="B57" s="140">
+        <v>41067</v>
+      </c>
+      <c r="C57" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>JUN12</v>
+      </c>
+      <c r="E57" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I57" s="136">
+        <v>0</v>
+      </c>
+      <c r="J57" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCJUN12OIS_Quote</v>
+      </c>
+      <c r="K57" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCJUN12OIS</v>
+      </c>
+      <c r="L57" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K57,B57,B58,J57,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCJUN12OIS#0001</v>
+      </c>
+      <c r="M57" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L57)</f>
+        <v/>
+      </c>
+      <c r="N57" s="131"/>
+      <c r="P57" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L57)</f>
+        <v>41067</v>
+      </c>
+      <c r="Q57" s="126">
+        <f>_xll.qlRateHelperLatestDate($L57)</f>
+        <v>41095</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="141"/>
+      <c r="B58" s="140">
+        <v>41095</v>
+      </c>
+      <c r="C58" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>JUL12</v>
+      </c>
+      <c r="E58" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I58" s="136">
+        <v>0</v>
+      </c>
+      <c r="J58" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCJUL12OIS_Quote</v>
+      </c>
+      <c r="K58" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCJUL12OIS</v>
+      </c>
+      <c r="L58" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K58,B58,B59,J58,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCJUL12OIS#0001</v>
+      </c>
+      <c r="M58" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L58)</f>
+        <v/>
+      </c>
+      <c r="N58" s="131"/>
+      <c r="P58" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L58)</f>
+        <v>41095</v>
+      </c>
+      <c r="Q58" s="126">
+        <f>_xll.qlRateHelperLatestDate($L58)</f>
+        <v>41123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="141"/>
+      <c r="B59" s="140">
+        <v>41123</v>
+      </c>
+      <c r="C59" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>AUG12</v>
+      </c>
+      <c r="E59" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I59" s="136">
+        <v>0</v>
+      </c>
+      <c r="J59" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCAUG12OIS_Quote</v>
+      </c>
+      <c r="K59" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCAUG12OIS</v>
+      </c>
+      <c r="L59" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K59,B59,B60,J59,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCAUG12OIS#0001</v>
+      </c>
+      <c r="M59" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L59)</f>
+        <v/>
+      </c>
+      <c r="N59" s="131"/>
+      <c r="P59" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L59)</f>
+        <v>41123</v>
+      </c>
+      <c r="Q59" s="126">
+        <f>_xll.qlRateHelperLatestDate($L59)</f>
+        <v>41158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="141"/>
+      <c r="B60" s="140">
+        <v>41158</v>
+      </c>
+      <c r="C60" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>SEP12</v>
+      </c>
+      <c r="E60" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I60" s="136">
+        <v>0</v>
+      </c>
+      <c r="J60" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCSEP12OIS_Quote</v>
+      </c>
+      <c r="K60" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCSEP12OIS</v>
+      </c>
+      <c r="L60" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K60,B60,B61,J60,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCSEP12OIS#0001</v>
+      </c>
+      <c r="M60" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L60)</f>
+        <v/>
+      </c>
+      <c r="N60" s="131"/>
+      <c r="P60" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L60)</f>
+        <v>41158</v>
+      </c>
+      <c r="Q60" s="126">
+        <f>_xll.qlRateHelperLatestDate($L60)</f>
+        <v>41186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="141"/>
+      <c r="B61" s="140">
+        <v>41186</v>
+      </c>
+      <c r="C61" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>OCT12</v>
+      </c>
+      <c r="E61" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I61" s="136">
+        <v>0</v>
+      </c>
+      <c r="J61" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOCT12OIS_Quote</v>
+      </c>
+      <c r="K61" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOCT12OIS</v>
+      </c>
+      <c r="L61" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCOCT12OIS#0001</v>
+      </c>
+      <c r="M61" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L61)</f>
+        <v/>
+      </c>
+      <c r="N61" s="131"/>
+      <c r="P61" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L61)</f>
+        <v>41186</v>
+      </c>
+      <c r="Q61" s="126">
+        <f>_xll.qlRateHelperLatestDate($L61)</f>
+        <v>41221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="141"/>
+      <c r="B62" s="140">
+        <v>41221</v>
+      </c>
+      <c r="C62" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>NOV12</v>
+      </c>
+      <c r="E62" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I62" s="136">
+        <v>0</v>
+      </c>
+      <c r="J62" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCNOV12OIS_Quote</v>
+      </c>
+      <c r="K62" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCNOV12OIS</v>
+      </c>
+      <c r="L62" s="133" t="str">
+        <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_MPCNOV12OIS#0001</v>
+      </c>
+      <c r="M62" s="132" t="str">
+        <f>_xll.ohRangeRetrieveError(L62)</f>
+        <v/>
+      </c>
+      <c r="N62" s="131"/>
+      <c r="P62" s="126">
+        <f>_xll.qlRateHelperEarliestDate(L62)</f>
+        <v>41221</v>
+      </c>
+      <c r="Q62" s="126">
+        <f>_xll.qlRateHelperLatestDate($L62)</f>
+        <v>41249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="141"/>
+      <c r="B63" s="140">
+        <v>41249</v>
+      </c>
+      <c r="C63" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>DEC12</v>
+      </c>
+      <c r="E63" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I63" s="136">
+        <v>0</v>
+      </c>
+      <c r="J63" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCDEC12OIS_Quote</v>
+      </c>
+      <c r="K63" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCDEC12OIS</v>
+      </c>
+      <c r="L63" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M63" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N63" s="131"/>
+      <c r="P63" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L63)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q63" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L63)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="141"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="138"/>
+      <c r="E64" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I64" s="136">
+        <v>0</v>
+      </c>
+      <c r="J64" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K64" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L64" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M64" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N64" s="131"/>
+      <c r="P64" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q64" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L64)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="141"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="138"/>
+      <c r="E65" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H65" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I65" s="136">
+        <v>0</v>
+      </c>
+      <c r="J65" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K65" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L65" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M65" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N65" s="131"/>
+      <c r="P65" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q65" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L65)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="141"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="138"/>
+      <c r="E66" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H66" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I66" s="136">
+        <v>0</v>
+      </c>
+      <c r="J66" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K66" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L66" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M66" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N66" s="131"/>
+      <c r="P66" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q66" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L66)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="141"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="138"/>
+      <c r="E67" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H67" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I67" s="136">
+        <v>0</v>
+      </c>
+      <c r="J67" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K67" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L67" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M67" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N67" s="131"/>
+      <c r="P67" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q67" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L67)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="141"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="138"/>
+      <c r="E68" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I68" s="136">
+        <v>0</v>
+      </c>
+      <c r="J68" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K68" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L68" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M68" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N68" s="131"/>
+      <c r="P68" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L68)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q68" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L68)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="141"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="138"/>
+      <c r="E69" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I69" s="136">
+        <v>0</v>
+      </c>
+      <c r="J69" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K69" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L69" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M69" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N69" s="131"/>
+      <c r="P69" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q69" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L69)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="141"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="138"/>
+      <c r="E70" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I70" s="136">
+        <v>0</v>
+      </c>
+      <c r="J70" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K70" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L70" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M70" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N70" s="131"/>
+      <c r="P70" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q70" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L70)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="141"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="138"/>
+      <c r="E71" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G71" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I71" s="136">
+        <v>0</v>
+      </c>
+      <c r="J71" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K71" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L71" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M71" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N71" s="131"/>
+      <c r="P71" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q71" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L71)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="141"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="138"/>
+      <c r="E72" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I72" s="136">
+        <v>0</v>
+      </c>
+      <c r="J72" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K72" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L72" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M72" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N72" s="131"/>
+      <c r="P72" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L72)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q72" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L72)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="141"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="138"/>
+      <c r="E73" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I73" s="136">
+        <v>0</v>
+      </c>
+      <c r="J73" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K73" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L73" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M73" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N73" s="131"/>
+      <c r="P73" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L73)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q73" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L73)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="141"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="138"/>
+      <c r="E74" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H74" s="137" t="str">
+        <f t="shared" si="5"/>
+        <v>Actual/365 (Fixed)</v>
+      </c>
+      <c r="I74" s="136">
+        <v>0</v>
+      </c>
+      <c r="J74" s="135" t="str">
+        <f t="shared" si="6"/>
+        <v>GBPMPCOIS_Quote</v>
+      </c>
+      <c r="K74" s="134" t="str">
+        <f t="shared" si="7"/>
+        <v>GBP_YCONRH_MPCOIS</v>
+      </c>
+      <c r="L74" s="133" t="e">
+        <f>_xll.qlDatedOISRateHelper(K74,B74,#REF!,J74,$L$4,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M74" s="132" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
+        <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+      </c>
+      <c r="N74" s="131"/>
+      <c r="P74" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L74)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q74" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L74)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="130"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="129"/>
+      <c r="I75" s="129"/>
+      <c r="J75" s="129"/>
+      <c r="K75" s="129"/>
+      <c r="L75" s="128"/>
+      <c r="M75" s="128"/>
+      <c r="N75" s="127"/>
+      <c r="P75" s="126" t="e">
+        <f>_xll.qlRateHelperEarliestDate(L75)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q75" s="126" t="e">
+        <f>_xll.qlRateHelperLatestDate($L75)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G74">
+      <formula1>"Following,Modified Following,Preceding,Modified Preceding,Month End Reference,Unadjusted Month End,Unadjusted"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F74">
+      <formula1>"Once,Annual,Semiannual,EveryFourthMonth,Quarterly,Bimonthly,Monthly"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="103" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="103" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="103" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="103" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="103" customWidth="1"/>
+    <col min="7" max="16384" width="8" style="103"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="125" t="str">
+        <f>_xll.qlxlVersion(TRUE,Trigger)</f>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="114" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="160" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="162"/>
+    </row>
+    <row r="3" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="118"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="123"/>
+    </row>
+    <row r="4" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="118"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="108"/>
+      <c r="E4" s="119"/>
+    </row>
+    <row r="5" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="118"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="119"/>
+    </row>
+    <row r="6" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="118"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="119"/>
+    </row>
+    <row r="7" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="118"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="119"/>
+    </row>
+    <row r="8" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="118"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="122" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+      </c>
+      <c r="E8" s="119"/>
+    </row>
+    <row r="9" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="118"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="119"/>
+    </row>
+    <row r="10" spans="1:22" s="114" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="118"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="115"/>
+    </row>
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="162"/>
+      <c r="V12" s="103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="110"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="107"/>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="110"/>
+      <c r="C14" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="107"/>
+      <c r="V14" s="103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="110"/>
+      <c r="C15" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="107"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="110"/>
+      <c r="C16" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="110"/>
+      <c r="C17" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="110"/>
+      <c r="C18" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="107"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="110"/>
+      <c r="C19" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="107"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="111"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="108" t="str">
+        <f>PROPER(Currency)&amp;"YC"</f>
+        <v>GbpYC</v>
+      </c>
+      <c r="E20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="110"/>
+      <c r="C21" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="108" t="str">
+        <f>PROPER(Currency)&amp;"YCSTD"</f>
+        <v>GbpYCSTD</v>
+      </c>
+      <c r="E21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="106"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D15">
+      <formula1>"Libor,ibor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17">
+      <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
+      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
+      <formula1>"EUR,USD,GBP,JPY,CHF"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M122"/>
@@ -4192,11 +8645,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
       <c r="E1" s="72" t="s">
         <v>34</v>
       </c>
@@ -5521,13 +9974,13 @@
       <c r="J35" s="92">
         <v>1</v>
       </c>
-      <c r="K35" s="93" t="e">
+      <c r="K35" s="93">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L35" s="94" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L35" s="94">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41621</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -5559,13 +10012,13 @@
       <c r="J36" s="77">
         <v>1</v>
       </c>
-      <c r="K36" s="78" t="e">
+      <c r="K36" s="78">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L36" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L36" s="79">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41628</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -5597,13 +10050,13 @@
       <c r="J37" s="77">
         <v>1</v>
       </c>
-      <c r="K37" s="78" t="e">
+      <c r="K37" s="78">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L37" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L37" s="79">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41635</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -5635,13 +10088,13 @@
       <c r="J38" s="77">
         <v>1</v>
       </c>
-      <c r="K38" s="78" t="e">
+      <c r="K38" s="78">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L38" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L38" s="79">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41645</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -5673,13 +10126,13 @@
       <c r="J39" s="77">
         <v>1</v>
       </c>
-      <c r="K39" s="78" t="e">
+      <c r="K39" s="78">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L39" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L39" s="79">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41676</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -5711,13 +10164,13 @@
       <c r="J40" s="77">
         <v>1</v>
       </c>
-      <c r="K40" s="78" t="e">
+      <c r="K40" s="78">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L40" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L40" s="79">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41704</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -5749,13 +10202,13 @@
       <c r="J41" s="77">
         <v>1</v>
       </c>
-      <c r="K41" s="78" t="e">
+      <c r="K41" s="78">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L41" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L41" s="79">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41736</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -5787,13 +10240,13 @@
       <c r="J42" s="77">
         <v>1</v>
       </c>
-      <c r="K42" s="78" t="e">
+      <c r="K42" s="78">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L42" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L42" s="79">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41765</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -5825,13 +10278,13 @@
       <c r="J43" s="77">
         <v>1</v>
       </c>
-      <c r="K43" s="78" t="e">
+      <c r="K43" s="78">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L43" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L43" s="79">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -5863,13 +10316,13 @@
       <c r="J44" s="77">
         <v>1</v>
       </c>
-      <c r="K44" s="78" t="e">
+      <c r="K44" s="78">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L44" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L44" s="79">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -5901,13 +10354,13 @@
       <c r="J45" s="77">
         <v>1</v>
       </c>
-      <c r="K45" s="78" t="e">
+      <c r="K45" s="78">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L45" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L45" s="79">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41857</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -5939,13 +10392,13 @@
       <c r="J46" s="77">
         <v>1</v>
       </c>
-      <c r="K46" s="78" t="e">
+      <c r="K46" s="78">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L46" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L46" s="79">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41890</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -5977,13 +10430,13 @@
       <c r="J47" s="77">
         <v>1</v>
       </c>
-      <c r="K47" s="78" t="e">
+      <c r="K47" s="78">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L47" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L47" s="79">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41918</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -6015,13 +10468,13 @@
       <c r="J48" s="77">
         <v>1</v>
       </c>
-      <c r="K48" s="78" t="e">
+      <c r="K48" s="78">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L48" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L48" s="79">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41949</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -6053,13 +10506,13 @@
       <c r="J49" s="77">
         <v>1</v>
       </c>
-      <c r="K49" s="78" t="e">
+      <c r="K49" s="78">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L49" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L49" s="79">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41981</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -6091,13 +10544,13 @@
       <c r="J50" s="77">
         <v>1</v>
       </c>
-      <c r="K50" s="78" t="e">
+      <c r="K50" s="78">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L50" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L50" s="79">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42069</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -6129,13 +10582,13 @@
       <c r="J51" s="77">
         <v>1</v>
       </c>
-      <c r="K51" s="78" t="e">
+      <c r="K51" s="78">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L51" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L51" s="79">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -6167,13 +10620,13 @@
       <c r="J52" s="77">
         <v>1</v>
       </c>
-      <c r="K52" s="78" t="e">
+      <c r="K52" s="78">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L52" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L52" s="79">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42254</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -6205,13 +10658,13 @@
       <c r="J53" s="77">
         <v>1</v>
       </c>
-      <c r="K53" s="78" t="e">
+      <c r="K53" s="78">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L53" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L53" s="79">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42345</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -6243,13 +10696,13 @@
       <c r="J54" s="77">
         <v>1</v>
       </c>
-      <c r="K54" s="78" t="e">
+      <c r="K54" s="78">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L54" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L54" s="79">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42710</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -6281,13 +10734,13 @@
       <c r="J55" s="77">
         <v>1</v>
       </c>
-      <c r="K55" s="78" t="e">
+      <c r="K55" s="78">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L55" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L55" s="79">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>#NUM!</v>
+        <v>43075</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -6319,13 +10772,13 @@
       <c r="J56" s="77">
         <v>1</v>
       </c>
-      <c r="K56" s="78" t="e">
+      <c r="K56" s="78">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L56" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L56" s="79">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>#NUM!</v>
+        <v>43440</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -6357,13 +10810,13 @@
       <c r="J57" s="77">
         <v>1</v>
       </c>
-      <c r="K57" s="78" t="e">
+      <c r="K57" s="78">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L57" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L57" s="79">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>#NUM!</v>
+        <v>43805</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -6395,13 +10848,13 @@
       <c r="J58" s="77">
         <v>1</v>
       </c>
-      <c r="K58" s="78" t="e">
+      <c r="K58" s="78">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L58" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L58" s="79">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>#NUM!</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -6433,13 +10886,13 @@
       <c r="J59" s="77">
         <v>1</v>
       </c>
-      <c r="K59" s="78" t="e">
+      <c r="K59" s="78">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L59" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L59" s="79">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>#NUM!</v>
+        <v>44536</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -6471,13 +10924,13 @@
       <c r="J60" s="77">
         <v>1</v>
       </c>
-      <c r="K60" s="78" t="e">
+      <c r="K60" s="78">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L60" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L60" s="79">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>#NUM!</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -6509,13 +10962,13 @@
       <c r="J61" s="77">
         <v>1</v>
       </c>
-      <c r="K61" s="78" t="e">
+      <c r="K61" s="78">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L61" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L61" s="79">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>#NUM!</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -6547,13 +11000,13 @@
       <c r="J62" s="77">
         <v>1</v>
       </c>
-      <c r="K62" s="78" t="e">
+      <c r="K62" s="78">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L62" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L62" s="79">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>#NUM!</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -6585,13 +11038,13 @@
       <c r="J63" s="77">
         <v>1</v>
       </c>
-      <c r="K63" s="78" t="e">
+      <c r="K63" s="78">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L63" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L63" s="79">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>#NUM!</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -6699,13 +11152,13 @@
       <c r="J66" s="77">
         <v>1</v>
       </c>
-      <c r="K66" s="78" t="e">
+      <c r="K66" s="78">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L66" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L66" s="79">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>#NUM!</v>
+        <v>47093</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -6889,13 +11342,13 @@
       <c r="J71" s="77">
         <v>1</v>
       </c>
-      <c r="K71" s="78" t="e">
+      <c r="K71" s="78">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L71" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L71" s="79">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>#NUM!</v>
+        <v>48919</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -7079,13 +11532,13 @@
       <c r="J76" s="77">
         <v>1</v>
       </c>
-      <c r="K76" s="78" t="e">
+      <c r="K76" s="78">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L76" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L76" s="79">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>#NUM!</v>
+        <v>50745</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -7269,13 +11722,13 @@
       <c r="J81" s="77">
         <v>1</v>
       </c>
-      <c r="K81" s="78" t="e">
+      <c r="K81" s="78">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L81" s="79" t="e">
+        <v>41614</v>
+      </c>
+      <c r="L81" s="79">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>#NUM!</v>
+        <v>52572</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -8996,20 +13449,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" bestFit="1" customWidth="1"/>
@@ -9022,10 +13475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="109"/>
+      <c r="B1" s="167"/>
       <c r="D1" s="13" t="s">
         <v>35</v>
       </c>
@@ -9041,7 +13494,7 @@
       </c>
       <c r="I1" s="69" t="e">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -9051,28 +13504,31 @@
       <c r="B2" s="12">
         <v>8</v>
       </c>
-      <c r="D2" s="62" t="e">
+      <c r="C2" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="62" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCONRH_SWOIS</v>
       </c>
       <c r="E2" s="60" t="e">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F2" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
         <v>--</v>
       </c>
-      <c r="G2" s="63" t="e">
+      <c r="G2" s="63">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H2" s="64">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>#VALUE!</v>
+        <v>41621</v>
       </c>
       <c r="I2" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -9082,31 +13538,34 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C3" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="62" t="str">
+        <v>GBP_YCONRH_2WOIS</v>
       </c>
       <c r="E3" s="60" t="e">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
         <v>--</v>
       </c>
-      <c r="G3" s="63" t="e">
+      <c r="G3" s="63">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H3" s="64">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>#VALUE!</v>
+        <v>41628</v>
       </c>
       <c r="I3" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J3" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" s="1">
         <f>H3-H2</f>
-        <v>#VALUE!</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -9116,31 +13575,34 @@
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C4" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="62" t="str">
+        <v>GBP_YCONRH_1MOIS</v>
       </c>
       <c r="E4" s="60" t="e">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
         <v>--</v>
       </c>
-      <c r="G4" s="63" t="e">
+      <c r="G4" s="63">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H4" s="64">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>#VALUE!</v>
+        <v>41645</v>
       </c>
       <c r="I4" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J4" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" s="1">
         <f>H4-H3</f>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -9150,31 +13612,34 @@
       <c r="B5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C5" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="62" t="str">
+        <v>GBP_YCONRH_2MOIS</v>
       </c>
       <c r="E5" s="60" t="e">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F5" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
         <v>--</v>
       </c>
-      <c r="G5" s="63" t="e">
+      <c r="G5" s="63">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H5" s="64">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>#VALUE!</v>
+        <v>41676</v>
       </c>
       <c r="I5" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" s="1">
         <f>H5-H4</f>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -9182,411 +13647,453 @@
         <v>30</v>
       </c>
       <c r="B6" s="8" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!D2)</f>
+        <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
         <v/>
       </c>
-      <c r="D6" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C6" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="62" t="str">
+        <v>GBP_YCONRH_3MOIS</v>
       </c>
       <c r="E6" s="60" t="e">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F6" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
         <v>--</v>
       </c>
-      <c r="G6" s="63" t="e">
+      <c r="G6" s="63">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H6" s="64">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>#VALUE!</v>
+        <v>41704</v>
       </c>
       <c r="I6" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" s="1">
         <f>H6-H5</f>
-        <v>#VALUE!</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="e">
+      <c r="A7" s="9" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCONRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="10" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
+        <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
-      <c r="D7" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C7" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="62" t="str">
+        <v>GBP_YCONRH_4MOIS</v>
       </c>
       <c r="E7" s="60" t="e">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F7" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
         <v>--</v>
       </c>
-      <c r="G7" s="63" t="e">
+      <c r="G7" s="63">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H7" s="64">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>#VALUE!</v>
+        <v>41736</v>
       </c>
       <c r="I7" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" s="1">
         <f>H7-H6</f>
-        <v>#VALUE!</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C8" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="62" t="str">
+        <v>GBP_YCONRH_5MOIS</v>
       </c>
       <c r="E8" s="60" t="e">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F8" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
         <v>--</v>
       </c>
-      <c r="G8" s="63" t="e">
+      <c r="G8" s="63">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H8" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H8" s="64">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>#VALUE!</v>
+        <v>41765</v>
       </c>
       <c r="I8" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" ref="J8:J36" si="0">H8-H7</f>
-        <v>#VALUE!</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C9" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="62" t="str">
+        <v>GBP_YCONRH_6MOIS</v>
       </c>
       <c r="E9" s="60" t="e">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F9" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
         <v>--</v>
       </c>
-      <c r="G9" s="63" t="e">
+      <c r="G9" s="63">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H9" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H9" s="64">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>#VALUE!</v>
+        <v>41796</v>
       </c>
       <c r="I9" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C10" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="62" t="str">
+        <v>GBP_YCONRH_7MOIS</v>
       </c>
       <c r="E10" s="60" t="e">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F10" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
         <v>--</v>
       </c>
-      <c r="G10" s="63" t="e">
+      <c r="G10" s="63">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H10" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H10" s="64">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>#VALUE!</v>
+        <v>41827</v>
       </c>
       <c r="I10" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C11" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="62" t="str">
+        <v>GBP_YCONRH_8MOIS</v>
       </c>
       <c r="E11" s="60" t="e">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F11" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>--</v>
       </c>
-      <c r="G11" s="63" t="e">
+      <c r="G11" s="63">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H11" s="64">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>#VALUE!</v>
+        <v>41857</v>
       </c>
       <c r="I11" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C12" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="62" t="str">
+        <v>GBP_YCONRH_9MOIS</v>
       </c>
       <c r="E12" s="60" t="e">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F12" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>--</v>
       </c>
-      <c r="G12" s="63" t="e">
+      <c r="G12" s="63">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H12" s="64">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>#VALUE!</v>
+        <v>41890</v>
       </c>
       <c r="I12" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C13" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="62" t="str">
+        <v>GBP_YCONRH_10MOIS</v>
       </c>
       <c r="E13" s="60" t="e">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F13" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>--</v>
       </c>
-      <c r="G13" s="63" t="e">
+      <c r="G13" s="63">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H13" s="64">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>#VALUE!</v>
+        <v>41918</v>
       </c>
       <c r="I13" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D14" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C14" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="62" t="str">
+        <v>GBP_YCONRH_11MOIS</v>
       </c>
       <c r="E14" s="60" t="e">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F14" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
         <v>--</v>
       </c>
-      <c r="G14" s="63" t="e">
+      <c r="G14" s="63">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H14" s="64">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>#VALUE!</v>
+        <v>41949</v>
       </c>
       <c r="I14" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C15" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="62" t="str">
+        <v>GBP_YCONRH_1YOIS</v>
       </c>
       <c r="E15" s="60" t="e">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F15" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
         <v>--</v>
       </c>
-      <c r="G15" s="63" t="e">
+      <c r="G15" s="63">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H15" s="64">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>#VALUE!</v>
+        <v>41981</v>
       </c>
       <c r="I15" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D16" s="62" t="e">
-        <v>#NUM!</v>
+      <c r="C16" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="62" t="str">
+        <v>GBP_YCONRH_15MOIS</v>
       </c>
       <c r="E16" s="60" t="e">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F16" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
         <v>--</v>
       </c>
-      <c r="G16" s="63" t="e">
+      <c r="G16" s="63">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H16" s="64">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>#VALUE!</v>
+        <v>42069</v>
       </c>
       <c r="I16" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="62" t="e">
-        <v>#NUM!</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="62" t="str">
+        <v>GBP_YCONRH_18MOIS</v>
       </c>
       <c r="E17" s="60" t="e">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F17" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
         <v>--</v>
       </c>
-      <c r="G17" s="63" t="e">
+      <c r="G17" s="63">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H17" s="64">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>#VALUE!</v>
+        <v>42163</v>
       </c>
       <c r="I17" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="62" t="e">
-        <v>#NUM!</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="62" t="str">
+        <v>GBP_YCONRH_2YOIS</v>
       </c>
       <c r="E18" s="60" t="e">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F18" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
         <v>--</v>
       </c>
-      <c r="G18" s="63" t="e">
+      <c r="G18" s="63">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H18" s="64">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>#VALUE!</v>
+        <v>42345</v>
       </c>
       <c r="I18" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D19" s="62" t="e">
-        <v>#NUM!</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="62" t="str">
+        <v>GBP_YCONRH_3YOIS</v>
       </c>
       <c r="E19" s="60" t="e">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F19" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
         <v>--</v>
       </c>
-      <c r="G19" s="63" t="e">
+      <c r="G19" s="63">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" s="64" t="e">
+        <v>41614</v>
+      </c>
+      <c r="H19" s="64">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>#VALUE!</v>
+        <v>42710</v>
       </c>
       <c r="I19" s="69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D20" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E20" s="60" t="e">
         <f>_xll.qlRateHelperRate($D20)</f>
@@ -9605,16 +14112,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I20" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J20" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D21" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E21" s="60" t="e">
         <f>_xll.qlRateHelperRate($D21)</f>
@@ -9633,16 +14140,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I21" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J21" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D22" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E22" s="60" t="e">
         <f>_xll.qlRateHelperRate($D22)</f>
@@ -9661,16 +14168,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I22" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J22" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D23" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E23" s="60" t="e">
         <f>_xll.qlRateHelperRate($D23)</f>
@@ -9689,16 +14196,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I23" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J23" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D24" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E24" s="60" t="e">
         <f>_xll.qlRateHelperRate($D24)</f>
@@ -9717,16 +14224,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I24" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J24" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D25" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E25" s="60" t="e">
         <f>_xll.qlRateHelperRate($D25)</f>
@@ -9745,16 +14252,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I25" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J25" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D26" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E26" s="60" t="e">
         <f>_xll.qlRateHelperRate($D26)</f>
@@ -9773,16 +14280,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I26" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J26" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D27" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E27" s="60" t="e">
         <f>_xll.qlRateHelperRate($D27)</f>
@@ -9801,16 +14308,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I27" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J27" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D28" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E28" s="60" t="e">
         <f>_xll.qlRateHelperRate($D28)</f>
@@ -9829,16 +14336,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I28" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J28" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D29" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E29" s="60" t="e">
         <f>_xll.qlRateHelperRate($D29)</f>
@@ -9857,16 +14364,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J29" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D30" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E30" s="60" t="e">
         <f>_xll.qlRateHelperRate($D30)</f>
@@ -9885,16 +14392,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J30" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D31" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E31" s="60" t="e">
         <f>_xll.qlRateHelperRate($D31)</f>
@@ -9913,16 +14420,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J31" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D32" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E32" s="60" t="e">
         <f>_xll.qlRateHelperRate($D32)</f>
@@ -9941,7 +14448,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J32" s="1" t="e">
         <f t="shared" si="0"/>
@@ -9950,7 +14457,7 @@
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E33" s="60" t="e">
         <f>_xll.qlRateHelperRate($D33)</f>
@@ -9969,7 +14476,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J33" s="1" t="e">
         <f t="shared" si="0"/>
@@ -9978,7 +14485,7 @@
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E34" s="60" t="e">
         <f>_xll.qlRateHelperRate($D34)</f>
@@ -9997,7 +14504,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J34" s="1" t="e">
         <f t="shared" si="0"/>
@@ -10006,7 +14513,7 @@
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E35" s="60" t="e">
         <f>_xll.qlRateHelperRate($D35)</f>
@@ -10025,7 +14532,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J35" s="1" t="e">
         <f t="shared" si="0"/>
@@ -10034,7 +14541,7 @@
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" s="60" t="e">
         <f>_xll.qlRateHelperRate($D36)</f>
@@ -10053,7 +14560,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J36" s="1" t="e">
         <f t="shared" si="0"/>
@@ -10062,7 +14569,7 @@
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E37" s="60" t="e">
         <f>_xll.qlRateHelperRate($D37)</f>
@@ -10081,12 +14588,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E38" s="60" t="e">
         <f>_xll.qlRateHelperRate($D38)</f>
@@ -10105,12 +14612,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E39" s="60" t="e">
         <f>_xll.qlRateHelperRate($D39)</f>
@@ -10129,12 +14636,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E40" s="60" t="e">
         <f>_xll.qlRateHelperRate($D40)</f>
@@ -10153,12 +14660,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I40" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E41" s="60" t="e">
         <f>_xll.qlRateHelperRate($D41)</f>
@@ -10177,12 +14684,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I41" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E42" s="60" t="e">
         <f>_xll.qlRateHelperRate($D42)</f>
@@ -10201,12 +14708,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I42" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E43" s="60" t="e">
         <f>_xll.qlRateHelperRate($D43)</f>
@@ -10225,12 +14732,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" s="69" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E44" s="60" t="e">
         <f>_xll.qlRateHelperRate($D44)</f>
@@ -10249,12 +14756,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D45" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E45" s="60" t="e">
         <f>_xll.qlRateHelperRate($D45)</f>
@@ -10273,12 +14780,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I45" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E46" s="60" t="e">
         <f>_xll.qlRateHelperRate($D46)</f>
@@ -10297,12 +14804,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I46" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E47" s="60" t="e">
         <f>_xll.qlRateHelperRate($D47)</f>
@@ -10321,12 +14828,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I47" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D48" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" s="60" t="e">
         <f>_xll.qlRateHelperRate($D48)</f>
@@ -10345,12 +14852,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D49" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E49" s="60" t="e">
         <f>_xll.qlRateHelperRate($D49)</f>
@@ -10369,12 +14876,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D50" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E50" s="60" t="e">
         <f>_xll.qlRateHelperRate($D50)</f>
@@ -10393,12 +14900,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D51" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E51" s="60" t="e">
         <f>_xll.qlRateHelperRate($D51)</f>
@@ -10417,12 +14924,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I51" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D52" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E52" s="60" t="e">
         <f>_xll.qlRateHelperRate($D52)</f>
@@ -10441,12 +14948,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I52" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D53" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E53" s="60" t="e">
         <f>_xll.qlRateHelperRate($D53)</f>
@@ -10465,12 +14972,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D54" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E54" s="60" t="e">
         <f>_xll.qlRateHelperRate($D54)</f>
@@ -10489,12 +14996,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D55" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E55" s="60" t="e">
         <f>_xll.qlRateHelperRate($D55)</f>
@@ -10513,12 +15020,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D56" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E56" s="60" t="e">
         <f>_xll.qlRateHelperRate($D56)</f>
@@ -10537,12 +15044,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D57" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E57" s="60" t="e">
         <f>_xll.qlRateHelperRate($D57)</f>
@@ -10561,12 +15068,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D58" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E58" s="60" t="e">
         <f>_xll.qlRateHelperRate($D58)</f>
@@ -10585,12 +15092,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D59" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E59" s="60" t="e">
         <f>_xll.qlRateHelperRate($D59)</f>
@@ -10609,12 +15116,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D60" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E60" s="60" t="e">
         <f>_xll.qlRateHelperRate($D60)</f>
@@ -10633,12 +15140,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D61" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E61" s="60" t="e">
         <f>_xll.qlRateHelperRate($D61)</f>
@@ -10657,12 +15164,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D62" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E62" s="60" t="e">
         <f>_xll.qlRateHelperRate($D62)</f>
@@ -10681,12 +15188,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D63" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E63" s="60" t="e">
         <f>_xll.qlRateHelperRate($D63)</f>
@@ -10705,12 +15212,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D64" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E64" s="60" t="e">
         <f>_xll.qlRateHelperRate($D64)</f>
@@ -10729,12 +15236,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D65" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E65" s="60" t="e">
         <f>_xll.qlRateHelperRate($D65)</f>
@@ -10753,12 +15260,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D66" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E66" s="60" t="e">
         <f>_xll.qlRateHelperRate($D66)</f>
@@ -10777,12 +15284,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D67" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E67" s="60" t="e">
         <f>_xll.qlRateHelperRate($D67)</f>
@@ -10801,12 +15308,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D68" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E68" s="60" t="e">
         <f>_xll.qlRateHelperRate($D68)</f>
@@ -10825,12 +15332,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D69" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E69" s="60" t="e">
         <f>_xll.qlRateHelperRate($D69)</f>
@@ -10849,12 +15356,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D70" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E70" s="60" t="e">
         <f>_xll.qlRateHelperRate($D70)</f>
@@ -10873,12 +15380,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D71" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E71" s="60" t="e">
         <f>_xll.qlRateHelperRate($D71)</f>
@@ -10897,12 +15404,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D72" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E72" s="60" t="e">
         <f>_xll.qlRateHelperRate($D72)</f>
@@ -10921,12 +15428,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D73" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E73" s="60" t="e">
         <f>_xll.qlRateHelperRate($D73)</f>
@@ -10945,12 +15452,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D74" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E74" s="60" t="e">
         <f>_xll.qlRateHelperRate($D74)</f>
@@ -10969,12 +15476,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D75" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E75" s="60" t="e">
         <f>_xll.qlRateHelperRate($D75)</f>
@@ -10993,12 +15500,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D76" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E76" s="60" t="e">
         <f>_xll.qlRateHelperRate($D76)</f>
@@ -11017,12 +15524,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D77" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E77" s="60" t="e">
         <f>_xll.qlRateHelperRate($D77)</f>
@@ -11041,12 +15548,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D78" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E78" s="60" t="e">
         <f>_xll.qlRateHelperRate($D78)</f>
@@ -11065,12 +15572,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D79" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E79" s="60" t="e">
         <f>_xll.qlRateHelperRate($D79)</f>
@@ -11089,12 +15596,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D80" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E80" s="60" t="e">
         <f>_xll.qlRateHelperRate($D80)</f>
@@ -11113,12 +15620,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D81" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E81" s="60" t="e">
         <f>_xll.qlRateHelperRate($D81)</f>
@@ -11137,12 +15644,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D82" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E82" s="60" t="e">
         <f>_xll.qlRateHelperRate($D82)</f>
@@ -11161,12 +15668,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D83" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E83" s="60" t="e">
         <f>_xll.qlRateHelperRate($D83)</f>
@@ -11185,12 +15692,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D84" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E84" s="60" t="e">
         <f>_xll.qlRateHelperRate($D84)</f>
@@ -11209,12 +15716,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D85" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E85" s="60" t="e">
         <f>_xll.qlRateHelperRate($D85)</f>
@@ -11233,12 +15740,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D86" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E86" s="60" t="e">
         <f>_xll.qlRateHelperRate($D86)</f>
@@ -11257,12 +15764,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D87" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E87" s="60" t="e">
         <f>_xll.qlRateHelperRate($D87)</f>
@@ -11281,12 +15788,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D88" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E88" s="60" t="e">
         <f>_xll.qlRateHelperRate($D88)</f>
@@ -11305,12 +15812,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D89" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E89" s="60" t="e">
         <f>_xll.qlRateHelperRate($D89)</f>
@@ -11329,12 +15836,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D90" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E90" s="60" t="e">
         <f>_xll.qlRateHelperRate($D90)</f>
@@ -11353,12 +15860,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D91" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E91" s="60" t="e">
         <f>_xll.qlRateHelperRate($D91)</f>
@@ -11377,12 +15884,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D92" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E92" s="60" t="e">
         <f>_xll.qlRateHelperRate($D92)</f>
@@ -11401,12 +15908,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D93" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E93" s="60" t="e">
         <f>_xll.qlRateHelperRate($D93)</f>
@@ -11425,12 +15932,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D94" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E94" s="60" t="e">
         <f>_xll.qlRateHelperRate($D94)</f>
@@ -11449,12 +15956,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D95" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E95" s="60" t="e">
         <f>_xll.qlRateHelperRate($D95)</f>
@@ -11473,12 +15980,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D96" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E96" s="60" t="e">
         <f>_xll.qlRateHelperRate($D96)</f>
@@ -11497,12 +16004,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D97" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E97" s="60" t="e">
         <f>_xll.qlRateHelperRate($D97)</f>
@@ -11521,12 +16028,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D98" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E98" s="60" t="e">
         <f>_xll.qlRateHelperRate($D98)</f>
@@ -11545,12 +16052,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D99" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E99" s="60" t="e">
         <f>_xll.qlRateHelperRate($D99)</f>
@@ -11569,12 +16076,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D100" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E100" s="60" t="e">
         <f>_xll.qlRateHelperRate($D100)</f>
@@ -11593,12 +16100,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D101" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E101" s="60" t="e">
         <f>_xll.qlRateHelperRate($D101)</f>
@@ -11617,12 +16124,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D102" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E102" s="60" t="e">
         <f>_xll.qlRateHelperRate($D102)</f>
@@ -11641,12 +16148,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D103" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E103" s="60" t="e">
         <f>_xll.qlRateHelperRate($D103)</f>
@@ -11665,12 +16172,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D104" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E104" s="60" t="e">
         <f>_xll.qlRateHelperRate($D104)</f>
@@ -11689,12 +16196,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D105" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E105" s="60" t="e">
         <f>_xll.qlRateHelperRate($D105)</f>
@@ -11713,12 +16220,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D106" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E106" s="60" t="e">
         <f>_xll.qlRateHelperRate($D106)</f>
@@ -11737,12 +16244,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D107" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E107" s="60" t="e">
         <f>_xll.qlRateHelperRate($D107)</f>
@@ -11761,12 +16268,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D108" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E108" s="60" t="e">
         <f>_xll.qlRateHelperRate($D108)</f>
@@ -11785,12 +16292,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D109" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E109" s="60" t="e">
         <f>_xll.qlRateHelperRate($D109)</f>
@@ -11809,12 +16316,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D110" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E110" s="60" t="e">
         <f>_xll.qlRateHelperRate($D110)</f>
@@ -11833,12 +16340,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D111" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E111" s="60" t="e">
         <f>_xll.qlRateHelperRate($D111)</f>
@@ -11857,12 +16364,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D112" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E112" s="60" t="e">
         <f>_xll.qlRateHelperRate($D112)</f>
@@ -11881,12 +16388,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D113" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E113" s="60" t="e">
         <f>_xll.qlRateHelperRate($D113)</f>
@@ -11905,12 +16412,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D114" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E114" s="60" t="e">
         <f>_xll.qlRateHelperRate($D114)</f>
@@ -11929,12 +16436,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D115" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E115" s="60" t="e">
         <f>_xll.qlRateHelperRate($D115)</f>
@@ -11953,12 +16460,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D116" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E116" s="60" t="e">
         <f>_xll.qlRateHelperRate($D116)</f>
@@ -11977,12 +16484,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D117" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E117" s="60" t="e">
         <f>_xll.qlRateHelperRate($D117)</f>
@@ -12001,12 +16508,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D118" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E118" s="60" t="e">
         <f>_xll.qlRateHelperRate($D118)</f>
@@ -12025,12 +16532,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D119" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E119" s="60" t="e">
         <f>_xll.qlRateHelperRate($D119)</f>
@@ -12049,12 +16556,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D120" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E120" s="60" t="e">
         <f>_xll.qlRateHelperRate($D120)</f>
@@ -12073,12 +16580,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D121" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E121" s="60" t="e">
         <f>_xll.qlRateHelperRate($D121)</f>
@@ -12097,12 +16604,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D122" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E122" s="60" t="e">
         <f>_xll.qlRateHelperRate($D122)</f>
@@ -12121,12 +16628,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D123" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E123" s="60" t="e">
         <f>_xll.qlRateHelperRate($D123)</f>
@@ -12145,12 +16652,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D124" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E124" s="60" t="e">
         <f>_xll.qlRateHelperRate($D124)</f>
@@ -12169,12 +16676,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D125" s="62" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E125" s="60" t="e">
         <f>_xll.qlRateHelperRate($D125)</f>
@@ -12193,12 +16700,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D126" s="65" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E126" s="61" t="e">
         <f>_xll.qlRateHelperRate($D126)</f>
@@ -12217,7 +16724,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="14" t="e">
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9480" windowHeight="16440"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9480" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -1385,7 +1385,7 @@
     <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,6 +1742,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="3"/>
@@ -2054,8 +2055,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2412,7 +2413,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="32">
-        <v>41614.558923611112</v>
+        <v>41614.586180555554</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="D14" s="37" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCON#0002</v>
+        <v>_GBPYCON#0000</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
@@ -4673,7 +4674,7 @@
       </c>
       <c r="L4" s="147" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCONRH__LiborON#0001</v>
+        <v>GBP_YCONRH__LiborON#0000</v>
       </c>
       <c r="M4" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -4734,7 +4735,7 @@
       </c>
       <c r="L6" s="133" t="str">
         <f>_xll.qlOISRateHelper(K6,B6,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_SWOIS#0001</v>
+        <v>GBP_YCONRH_SWOIS#0000</v>
       </c>
       <c r="M6" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -4788,7 +4789,7 @@
       </c>
       <c r="L7" s="133" t="str">
         <f>_xll.qlOISRateHelper(K7,B7,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_2WOIS#0001</v>
+        <v>GBP_YCONRH_2WOIS#0000</v>
       </c>
       <c r="M7" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -4842,7 +4843,7 @@
       </c>
       <c r="L8" s="133" t="str">
         <f>_xll.qlOISRateHelper(K8,B8,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_3WOIS#0001</v>
+        <v>GBP_YCONRH_3WOIS#0000</v>
       </c>
       <c r="M8" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="L9" s="133" t="str">
         <f>_xll.qlOISRateHelper(K9,B9,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_1MOIS#0001</v>
+        <v>GBP_YCONRH_1MOIS#0000</v>
       </c>
       <c r="M9" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -4950,7 +4951,7 @@
       </c>
       <c r="L10" s="133" t="str">
         <f>_xll.qlOISRateHelper(K10,B10,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_2MOIS#0001</v>
+        <v>GBP_YCONRH_2MOIS#0000</v>
       </c>
       <c r="M10" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -5004,7 +5005,7 @@
       </c>
       <c r="L11" s="133" t="str">
         <f>_xll.qlOISRateHelper(K11,B11,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_3MOIS#0001</v>
+        <v>GBP_YCONRH_3MOIS#0000</v>
       </c>
       <c r="M11" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -5058,7 +5059,7 @@
       </c>
       <c r="L12" s="133" t="str">
         <f>_xll.qlOISRateHelper(K12,B12,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_4MOIS#0001</v>
+        <v>GBP_YCONRH_4MOIS#0000</v>
       </c>
       <c r="M12" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -5112,7 +5113,7 @@
       </c>
       <c r="L13" s="133" t="str">
         <f>_xll.qlOISRateHelper(K13,B13,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_5MOIS#0001</v>
+        <v>GBP_YCONRH_5MOIS#0000</v>
       </c>
       <c r="M13" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="L14" s="133" t="str">
         <f>_xll.qlOISRateHelper(K14,B14,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_6MOIS#0001</v>
+        <v>GBP_YCONRH_6MOIS#0000</v>
       </c>
       <c r="M14" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -5220,7 +5221,7 @@
       </c>
       <c r="L15" s="133" t="str">
         <f>_xll.qlOISRateHelper(K15,B15,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_7MOIS#0001</v>
+        <v>GBP_YCONRH_7MOIS#0000</v>
       </c>
       <c r="M15" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -5274,7 +5275,7 @@
       </c>
       <c r="L16" s="133" t="str">
         <f>_xll.qlOISRateHelper(K16,B16,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_8MOIS#0001</v>
+        <v>GBP_YCONRH_8MOIS#0000</v>
       </c>
       <c r="M16" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -5328,7 +5329,7 @@
       </c>
       <c r="L17" s="133" t="str">
         <f>_xll.qlOISRateHelper(K17,B17,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_9MOIS#0001</v>
+        <v>GBP_YCONRH_9MOIS#0000</v>
       </c>
       <c r="M17" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -5382,7 +5383,7 @@
       </c>
       <c r="L18" s="133" t="str">
         <f>_xll.qlOISRateHelper(K18,B18,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_10MOIS#0001</v>
+        <v>GBP_YCONRH_10MOIS#0000</v>
       </c>
       <c r="M18" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="L19" s="133" t="str">
         <f>_xll.qlOISRateHelper(K19,B19,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_11MOIS#0001</v>
+        <v>GBP_YCONRH_11MOIS#0000</v>
       </c>
       <c r="M19" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -5490,7 +5491,7 @@
       </c>
       <c r="L20" s="133" t="str">
         <f>_xll.qlOISRateHelper(K20,B20,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_1YOIS#0001</v>
+        <v>GBP_YCONRH_1YOIS#0000</v>
       </c>
       <c r="M20" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -5544,7 +5545,7 @@
       </c>
       <c r="L21" s="133" t="str">
         <f>_xll.qlOISRateHelper(K21,B21,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_15MOIS#0001</v>
+        <v>GBP_YCONRH_15MOIS#0000</v>
       </c>
       <c r="M21" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -5598,7 +5599,7 @@
       </c>
       <c r="L22" s="133" t="str">
         <f>_xll.qlOISRateHelper(K22,B22,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_18MOIS#0001</v>
+        <v>GBP_YCONRH_18MOIS#0000</v>
       </c>
       <c r="M22" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -5652,7 +5653,7 @@
       </c>
       <c r="L23" s="133" t="str">
         <f>_xll.qlOISRateHelper(K23,B23,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_21MOIS#0001</v>
+        <v>GBP_YCONRH_21MOIS#0000</v>
       </c>
       <c r="M23" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="L24" s="133" t="str">
         <f>_xll.qlOISRateHelper(K24,B24,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_2YOIS#0001</v>
+        <v>GBP_YCONRH_2YOIS#0000</v>
       </c>
       <c r="M24" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -5760,7 +5761,7 @@
       </c>
       <c r="L25" s="133" t="str">
         <f>_xll.qlOISRateHelper(K25,B25,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_3YOIS#0001</v>
+        <v>GBP_YCONRH_3YOIS#0000</v>
       </c>
       <c r="M25" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -5814,7 +5815,7 @@
       </c>
       <c r="L26" s="133" t="str">
         <f>_xll.qlOISRateHelper(K26,B26,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_4YOIS#0001</v>
+        <v>GBP_YCONRH_4YOIS#0000</v>
       </c>
       <c r="M26" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -5868,7 +5869,7 @@
       </c>
       <c r="L27" s="133" t="str">
         <f>_xll.qlOISRateHelper(K27,B27,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_5YOIS#0001</v>
+        <v>GBP_YCONRH_5YOIS#0000</v>
       </c>
       <c r="M27" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -5922,7 +5923,7 @@
       </c>
       <c r="L28" s="133" t="str">
         <f>_xll.qlOISRateHelper(K28,B28,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_6YOIS#0001</v>
+        <v>GBP_YCONRH_6YOIS#0000</v>
       </c>
       <c r="M28" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="L29" s="133" t="str">
         <f>_xll.qlOISRateHelper(K29,B29,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_7YOIS#0001</v>
+        <v>GBP_YCONRH_7YOIS#0000</v>
       </c>
       <c r="M29" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -6030,7 +6031,7 @@
       </c>
       <c r="L30" s="133" t="str">
         <f>_xll.qlOISRateHelper(K30,B30,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_8YOIS#0001</v>
+        <v>GBP_YCONRH_8YOIS#0000</v>
       </c>
       <c r="M30" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -6084,7 +6085,7 @@
       </c>
       <c r="L31" s="133" t="str">
         <f>_xll.qlOISRateHelper(K31,B31,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_9YOIS#0001</v>
+        <v>GBP_YCONRH_9YOIS#0000</v>
       </c>
       <c r="M31" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -6138,7 +6139,7 @@
       </c>
       <c r="L32" s="133" t="str">
         <f>_xll.qlOISRateHelper(K32,B32,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_10YOIS#0001</v>
+        <v>GBP_YCONRH_10YOIS#0000</v>
       </c>
       <c r="M32" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -6192,7 +6193,7 @@
       </c>
       <c r="L33" s="133" t="str">
         <f>_xll.qlOISRateHelper(K33,B33,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_11YOIS#0001</v>
+        <v>GBP_YCONRH_11YOIS#0000</v>
       </c>
       <c r="M33" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="L34" s="133" t="str">
         <f>_xll.qlOISRateHelper(K34,B34,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_12YOIS#0001</v>
+        <v>GBP_YCONRH_12YOIS#0000</v>
       </c>
       <c r="M34" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -6300,7 +6301,7 @@
       </c>
       <c r="L35" s="133" t="str">
         <f>_xll.qlOISRateHelper(K35,B35,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_15YOIS#0001</v>
+        <v>GBP_YCONRH_15YOIS#0000</v>
       </c>
       <c r="M35" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -6354,7 +6355,7 @@
       </c>
       <c r="L36" s="133" t="str">
         <f>_xll.qlOISRateHelper(K36,B36,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_20YOIS#0001</v>
+        <v>GBP_YCONRH_20YOIS#0000</v>
       </c>
       <c r="M36" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -6408,7 +6409,7 @@
       </c>
       <c r="L37" s="133" t="str">
         <f>_xll.qlOISRateHelper(K37,B37,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_25YOIS#0001</v>
+        <v>GBP_YCONRH_25YOIS#0000</v>
       </c>
       <c r="M37" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -6462,7 +6463,7 @@
       </c>
       <c r="L38" s="133" t="str">
         <f>_xll.qlOISRateHelper(K38,B38,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_30YOIS#0001</v>
+        <v>GBP_YCONRH_30YOIS#0000</v>
       </c>
       <c r="M38" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -6534,7 +6535,7 @@
       </c>
       <c r="L40" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K40,B40,B41,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJAN11OIS#0001</v>
+        <v>GBP_YCONRH_MPCJAN11OIS#0000</v>
       </c>
       <c r="M40" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -6588,7 +6589,7 @@
       </c>
       <c r="L41" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K41,B41,B42,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCFEB11OIS#0001</v>
+        <v>GBP_YCONRH_MPCFEB11OIS#0000</v>
       </c>
       <c r="M41" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -6642,7 +6643,7 @@
       </c>
       <c r="L42" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K42,B42,B43,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCMAR11OIS#0001</v>
+        <v>GBP_YCONRH_MPCMAR11OIS#0000</v>
       </c>
       <c r="M42" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="L43" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K43,B43,B44,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCAPR11OIS#0001</v>
+        <v>GBP_YCONRH_MPCAPR11OIS#0000</v>
       </c>
       <c r="M43" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -6750,7 +6751,7 @@
       </c>
       <c r="L44" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K44,B44,B45,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCMAY11OIS#0001</v>
+        <v>GBP_YCONRH_MPCMAY11OIS#0000</v>
       </c>
       <c r="M44" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -6804,7 +6805,7 @@
       </c>
       <c r="L45" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K45,B45,B46,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJUN11OIS#0001</v>
+        <v>GBP_YCONRH_MPCJUN11OIS#0000</v>
       </c>
       <c r="M45" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -6858,7 +6859,7 @@
       </c>
       <c r="L46" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K46,B46,B47,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJUL11OIS#0001</v>
+        <v>GBP_YCONRH_MPCJUL11OIS#0000</v>
       </c>
       <c r="M46" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -6912,7 +6913,7 @@
       </c>
       <c r="L47" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K47,B47,B48,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCAUG11OIS#0001</v>
+        <v>GBP_YCONRH_MPCAUG11OIS#0000</v>
       </c>
       <c r="M47" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="L48" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K48,B48,B49,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCSEP11OIS#0001</v>
+        <v>GBP_YCONRH_MPCSEP11OIS#0000</v>
       </c>
       <c r="M48" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -7020,7 +7021,7 @@
       </c>
       <c r="L49" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K49,B49,B50,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCOCT11OIS#0001</v>
+        <v>GBP_YCONRH_MPCOCT11OIS#0000</v>
       </c>
       <c r="M49" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -7074,7 +7075,7 @@
       </c>
       <c r="L50" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K50,B50,B51,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCNOV11OIS#0001</v>
+        <v>GBP_YCONRH_MPCNOV11OIS#0000</v>
       </c>
       <c r="M50" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -7128,7 +7129,7 @@
       </c>
       <c r="L51" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K51,B51,B52,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCDEC11OIS#0001</v>
+        <v>GBP_YCONRH_MPCDEC11OIS#0000</v>
       </c>
       <c r="M51" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -7182,7 +7183,7 @@
       </c>
       <c r="L52" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K52,B52,B53,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJAN12OIS#0001</v>
+        <v>GBP_YCONRH_MPCJAN12OIS#0000</v>
       </c>
       <c r="M52" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="L53" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K53,B53,B54,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCFEB12OIS#0001</v>
+        <v>GBP_YCONRH_MPCFEB12OIS#0000</v>
       </c>
       <c r="M53" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -7290,7 +7291,7 @@
       </c>
       <c r="L54" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K54,B54,B55,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCMAR12OIS#0001</v>
+        <v>GBP_YCONRH_MPCMAR12OIS#0000</v>
       </c>
       <c r="M54" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -7344,7 +7345,7 @@
       </c>
       <c r="L55" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K55,B55,B56,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCAPR12OIS#0001</v>
+        <v>GBP_YCONRH_MPCAPR12OIS#0000</v>
       </c>
       <c r="M55" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -7398,7 +7399,7 @@
       </c>
       <c r="L56" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K56,B56,B57,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCMAY12OIS#0001</v>
+        <v>GBP_YCONRH_MPCMAY12OIS#0000</v>
       </c>
       <c r="M56" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -7452,7 +7453,7 @@
       </c>
       <c r="L57" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K57,B57,B58,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJUN12OIS#0001</v>
+        <v>GBP_YCONRH_MPCJUN12OIS#0000</v>
       </c>
       <c r="M57" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="L58" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K58,B58,B59,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJUL12OIS#0001</v>
+        <v>GBP_YCONRH_MPCJUL12OIS#0000</v>
       </c>
       <c r="M58" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -7560,7 +7561,7 @@
       </c>
       <c r="L59" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K59,B59,B60,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCAUG12OIS#0001</v>
+        <v>GBP_YCONRH_MPCAUG12OIS#0000</v>
       </c>
       <c r="M59" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -7614,7 +7615,7 @@
       </c>
       <c r="L60" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K60,B60,B61,J60,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCSEP12OIS#0001</v>
+        <v>GBP_YCONRH_MPCSEP12OIS#0000</v>
       </c>
       <c r="M60" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L60)</f>
@@ -7668,7 +7669,7 @@
       </c>
       <c r="L61" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCOCT12OIS#0001</v>
+        <v>GBP_YCONRH_MPCOCT12OIS#0000</v>
       </c>
       <c r="M61" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L61)</f>
@@ -7722,7 +7723,7 @@
       </c>
       <c r="L62" s="133" t="str">
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCNOV12OIS#0001</v>
+        <v>GBP_YCONRH_MPCNOV12OIS#0000</v>
       </c>
       <c r="M62" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(L62)</f>
@@ -13452,9 +13453,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -13474,7 +13475,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="166" t="s">
         <v>36</v>
       </c>
@@ -13497,7 +13498,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>80</v>
       </c>
@@ -13530,8 +13531,11 @@
       <c r="I2" s="69" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" s="168">
+        <v>4.1749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
@@ -13567,8 +13571,11 @@
         <f>H3-H2</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" s="168">
+        <v>4.1749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -13604,8 +13611,11 @@
         <f>H4-H3</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="168">
+        <v>4.1749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -13641,8 +13651,11 @@
         <f>H5-H4</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="168">
+        <v>4.1250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -13679,11 +13692,14 @@
         <f>H6-H5</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="168">
+        <v>4.0749999999999996E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_RateHelpersSelected#0001</v>
+        <v>GBP_YCONRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -13718,8 +13734,11 @@
         <f>H7-H6</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" s="168">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="102" t="s">
         <v>128</v>
       </c>
@@ -13749,8 +13768,11 @@
         <f t="shared" ref="J8:J36" si="0">H8-H7</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="168">
+        <v>3.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="102" t="s">
         <v>129</v>
       </c>
@@ -13780,8 +13802,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="168">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="102" t="s">
         <v>130</v>
       </c>
@@ -13811,8 +13836,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" s="168">
+        <v>3.8249999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="102" t="s">
         <v>131</v>
       </c>
@@ -13842,8 +13870,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" s="168">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="102" t="s">
         <v>132</v>
       </c>
@@ -13873,8 +13904,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" s="168">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="102" t="s">
         <v>133</v>
       </c>
@@ -13904,8 +13938,11 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="168">
+        <v>3.65E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="102" t="s">
         <v>134</v>
       </c>
@@ -13935,8 +13972,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" s="168">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="102" t="s">
         <v>135</v>
       </c>
@@ -13966,8 +14006,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" s="168">
+        <v>3.5750000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="102" t="s">
         <v>136</v>
       </c>
@@ -13997,8 +14040,11 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="L16" s="168">
+        <v>3.4749999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="102" t="s">
         <v>137</v>
       </c>
@@ -14028,8 +14074,11 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="L17" s="168">
+        <v>3.4499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="102" t="s">
         <v>138</v>
       </c>
@@ -14059,8 +14108,11 @@
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="L18" s="168">
+        <v>3.4749999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="102" t="s">
         <v>139</v>
       </c>
@@ -14090,8 +14142,11 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="168">
+        <v>4.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D20" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14119,7 +14174,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D21" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14147,7 +14202,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D22" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14175,7 +14230,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D23" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14203,7 +14258,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D24" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14231,7 +14286,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D25" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14259,7 +14314,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D26" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14287,7 +14342,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D27" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14315,7 +14370,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D28" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14343,7 +14398,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D29" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14371,7 +14426,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D30" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14399,7 +14454,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D31" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -14427,7 +14482,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D32" s="62" t="e">
         <v>#N/A</v>
       </c>

--- a/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
@@ -4,61 +4,49 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9480" windowHeight="16440" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9480" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
     <sheet name="ON" sheetId="6" r:id="rId2"/>
-    <sheet name="General Settings (2)" sheetId="5" r:id="rId3"/>
-    <sheet name="RateHelpers" sheetId="2" r:id="rId4"/>
-    <sheet name="Selected" sheetId="4" r:id="rId5"/>
+    <sheet name="RateHelpers" sheetId="2" r:id="rId3"/>
+    <sheet name="Selected" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$23</definedName>
-    <definedName name="BondBasisDayCounter">'General Settings (2)'!$D$16</definedName>
-    <definedName name="Calendar" localSheetId="2">'General Settings (2)'!$D$18</definedName>
-    <definedName name="Calendar" localSheetId="1">'General Settings (2)'!$D$18</definedName>
+    <definedName name="BondBasisDayCounter">'General Settings'!$M$12</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
-    <definedName name="Currency" localSheetId="2">'General Settings (2)'!$D$14</definedName>
-    <definedName name="Currency" localSheetId="1">'General Settings (2)'!$D$14</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DayCounter">'General Settings'!$D$19</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
-    <definedName name="Discounting">'General Settings (2)'!$D$20</definedName>
-    <definedName name="Discounting2">'General Settings (2)'!$D$21</definedName>
+    <definedName name="Discounting">'General Settings'!$M$15</definedName>
+    <definedName name="Discounting2">'General Settings'!$M$16</definedName>
     <definedName name="DiscountingCurve" localSheetId="1">ON!$L$2</definedName>
-    <definedName name="FamilyName">'General Settings (2)'!$D$15</definedName>
-    <definedName name="FileOverwrite">'General Settings (2)'!$D$9</definedName>
+    <definedName name="FamilyName">'General Settings'!$M$11</definedName>
+    <definedName name="FileOverwrite">'General Settings'!$M$6</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
-    <definedName name="GENERAL_SETTINGS">'General Settings (2)'!$B$12</definedName>
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$25</definedName>
     <definedName name="MinDistance">RateHelpers!$J$2:$J$122</definedName>
-    <definedName name="MoneyMarketDayCounter">'General Settings (2)'!$D$17</definedName>
+    <definedName name="MoneyMarketDayCounter">'General Settings'!$M$13</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
     <definedName name="nIMMFutures">Selected!$B$2</definedName>
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
-    <definedName name="ObjectOverwrite" localSheetId="2">'General Settings (2)'!$D$6</definedName>
-    <definedName name="ObjectOverwrite" localSheetId="1">'General Settings (2)'!$D$6</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
-    <definedName name="Permanent" localSheetId="2">'General Settings (2)'!$D$5</definedName>
-    <definedName name="Permanent" localSheetId="1">'General Settings (2)'!$D$5</definedName>
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Selected!$D$1:$J$50</definedName>
-    <definedName name="QuoteSuffix">'General Settings (2)'!$D$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Selected!$D$1:$J$50</definedName>
+    <definedName name="QuoteSuffix">'General Settings'!$M$14</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
     <definedName name="RateHelpers">RateHelpers!$E$2:$E$122</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$122</definedName>
     <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$122</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
-    <definedName name="SerializationPath">'General Settings (2)'!$D$8</definedName>
-    <definedName name="Serialize">'General Settings (2)'!$D$7</definedName>
+    <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
+    <definedName name="Serialize">'General Settings'!$M$4</definedName>
     <definedName name="SwapFixedFreq">'General Settings'!$D$8</definedName>
     <definedName name="TraitsID">'General Settings'!$D$24</definedName>
-    <definedName name="Trigger" localSheetId="2">'General Settings (2)'!$D$4</definedName>
-    <definedName name="Trigger" localSheetId="1">'General Settings (2)'!$D$4</definedName>
     <definedName name="Trigger">'General Settings'!$D$11</definedName>
     <definedName name="YieldCurve">'General Settings'!$D$14</definedName>
   </definedNames>
@@ -227,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="165">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -674,9 +662,6 @@
   </si>
   <si>
     <t>FamilyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>ADDITIONAL SETTINGS</t>
@@ -1385,7 +1370,7 @@
     <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1621,7 +1606,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1631,16 +1615,13 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="13" fillId="5" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="13" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1649,7 +1630,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1711,6 +1691,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,7 +1723,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="3"/>
@@ -2055,35 +2035,43 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="20" customWidth="1"/>
+    <col min="1" max="2" width="2.7109375" style="20" customWidth="1"/>
     <col min="3" max="3" width="18" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="8" style="20"/>
+    <col min="6" max="7" width="2.7109375" style="20" customWidth="1"/>
+    <col min="8" max="9" width="8" style="20"/>
+    <col min="10" max="11" width="2.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="15" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="159"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="K2" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158"/>
     </row>
     <row r="3" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -2096,10 +2084,10 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="119"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -2137,10 +2125,14 @@
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="115"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -2178,10 +2170,15 @@
         <v>55</v>
       </c>
       <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="118" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+      </c>
+      <c r="N5" s="115"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -2219,10 +2216,14 @@
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="115"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -2243,7 +2244,7 @@
       <c r="AF6" s="15"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="25" t="s">
@@ -2260,10 +2261,10 @@
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -2327,7 +2328,7 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="25" t="s">
@@ -2343,10 +2344,12 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="K9" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="158"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -2367,7 +2370,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="31" t="s">
@@ -2382,10 +2385,10 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="106"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
@@ -2406,14 +2409,14 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="32">
-        <v>41614.586180555554</v>
+        <v>41617.485983796294</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
@@ -2421,10 +2424,14 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" s="106"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -2445,7 +2452,7 @@
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="33" t="s">
@@ -2460,10 +2467,14 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" s="106"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -2484,7 +2495,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="35"/>
@@ -2495,10 +2506,14 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="106"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -2519,7 +2534,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="36" t="s">
@@ -2527,7 +2542,7 @@
       </c>
       <c r="D14" s="37" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCON#0000</v>
+        <v>_GBPYCON#0008</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
@@ -2535,10 +2550,14 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="106"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -2559,7 +2578,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="38" t="s">
@@ -2575,10 +2594,15 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="107" t="str">
+        <f>PROPER(Currency)&amp;"YC"</f>
+        <v>GbpYC</v>
+      </c>
+      <c r="N15" s="106"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
@@ -2599,7 +2623,7 @@
       <c r="AF15" s="15"/>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="36" t="s">
@@ -2615,10 +2639,15 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" s="107" t="str">
+        <f>PROPER(Currency)&amp;"YCSTD"</f>
+        <v>GbpYCSTD</v>
+      </c>
+      <c r="N16" s="106"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -2639,7 +2668,7 @@
       <c r="AF16" s="15"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="41" t="s">
@@ -2654,10 +2683,10 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="103"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
@@ -3041,11 +3070,11 @@
       <c r="B27" s="16"/>
       <c r="C27" s="52">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41614</v>
-      </c>
-      <c r="D27" s="53" t="e">
+        <v>41617</v>
+      </c>
+      <c r="D27" s="53">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C27)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="19"/>
@@ -3082,11 +3111,11 @@
       <c r="B28" s="16"/>
       <c r="C28" s="54">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>42710</v>
-      </c>
-      <c r="D28" s="26" t="e">
+        <v>42713</v>
+      </c>
+      <c r="D28" s="26">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C28)</f>
-        <v>#NUM!</v>
+        <v>0.98540180421485701</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
@@ -3125,8 +3154,8 @@
         <v>30</v>
       </c>
       <c r="D29" s="56" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v>qlPiecewiseYieldCurveData - 1st instrument (maturity: December 13th, 2013) has an invalid quote</v>
+        <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
+        <v/>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
@@ -4359,10 +4388,6 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
@@ -4394,10 +4419,6 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
@@ -4429,10 +4450,6 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
@@ -4464,10 +4481,6 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
@@ -4499,10 +4512,6 @@
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
@@ -4524,11 +4533,13 @@
       <c r="AG68" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K9:N9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange"</formula1>
     </dataValidation>
@@ -4543,6 +4554,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M13">
+      <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M11">
+      <formula1>"Libor,ibor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4579,31 +4596,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="156"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="153"/>
+      <c r="A1" s="151"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="148"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="77" t="s">
         <v>101</v>
       </c>
@@ -4611,1876 +4628,1876 @@
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
         <v>GBP_YCONRH</v>
       </c>
-      <c r="L2" s="152" t="e">
+      <c r="L2" s="147" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="M2" s="144"/>
-      <c r="N2" s="131"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="126"/>
     </row>
     <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="141"/>
-      <c r="B3" s="151" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="151" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151" t="s">
+      <c r="C3" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="151" t="s">
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="G3" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="H3" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="I3" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="150" t="str">
+      <c r="J3" s="146" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="145" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YCONRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="149">
+      <c r="L3" s="144">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L74),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>57</v>
       </c>
-      <c r="M3" s="132" t="str">
+      <c r="M3" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="131"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="145"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="148" t="str">
+      <c r="A4" s="140"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="143" t="str">
         <f>$K$2&amp;"_"&amp;"_"&amp;FamilyName&amp;$J$2</f>
         <v>GBP_YCONRH__LiborON</v>
       </c>
-      <c r="L4" s="147" t="str">
+      <c r="L4" s="142" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCONRH__LiborON#0000</v>
-      </c>
-      <c r="M4" s="146" t="str">
+        <v>GBP_YCONRH__LiborON#0008</v>
+      </c>
+      <c r="M4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="131"/>
+      <c r="N4" s="126"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="145"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="131"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="126"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="141"/>
-      <c r="B6" s="139">
-        <v>0</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="138" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="134">
+        <v>0</v>
+      </c>
+      <c r="C6" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="137" t="s">
+      <c r="F6" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="137" t="str">
+      <c r="G6" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="132" t="str">
         <f t="shared" ref="H6:H38" si="0">MoneyMarketDayCounter</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I6" s="136">
-        <v>0</v>
-      </c>
-      <c r="J6" s="135" t="str">
-        <f t="shared" ref="J6:J38" si="1">Currency&amp;$D6&amp;E6&amp;QuoteSuffix</f>
+      <c r="I6" s="131">
+        <v>0</v>
+      </c>
+      <c r="J6" s="130" t="str">
+        <f>Currency&amp;$D6&amp;E6&amp;QuoteSuffix</f>
         <v>GBPSWOIS_Quote</v>
       </c>
-      <c r="K6" s="135" t="str">
-        <f t="shared" ref="K6:K38" si="2">$K$2&amp;"_"&amp;$D6&amp;E6</f>
+      <c r="K6" s="130" t="str">
+        <f t="shared" ref="K6:K38" si="1">$K$2&amp;"_"&amp;$D6&amp;E6</f>
         <v>GBP_YCONRH_SWOIS</v>
       </c>
-      <c r="L6" s="133" t="str">
+      <c r="L6" s="128" t="str">
         <f>_xll.qlOISRateHelper(K6,B6,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_SWOIS#0000</v>
-      </c>
-      <c r="M6" s="132" t="str">
+        <v>GBP_YCONRH_SWOIS#0009</v>
+      </c>
+      <c r="M6" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="131"/>
-      <c r="P6" s="126">
+      <c r="N6" s="126"/>
+      <c r="P6" s="121">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q6" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q6" s="121">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41621</v>
+        <v>41624</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="141"/>
-      <c r="B7" s="139">
-        <v>0</v>
-      </c>
-      <c r="C7" s="138" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="134">
+        <v>0</v>
+      </c>
+      <c r="C7" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="138" t="str">
-        <f t="shared" ref="D7:D38" si="3">C7</f>
+      <c r="D7" s="133" t="str">
+        <f t="shared" ref="D7:D38" si="2">C7</f>
         <v>2W</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="137" t="s">
+      <c r="F7" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="137" t="str">
+      <c r="G7" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I7" s="136">
-        <v>0</v>
-      </c>
-      <c r="J7" s="135" t="str">
+      <c r="I7" s="131">
+        <v>0</v>
+      </c>
+      <c r="J7" s="130" t="str">
+        <f t="shared" ref="J6:J38" si="3">Currency&amp;$D7&amp;E7&amp;QuoteSuffix</f>
+        <v>GBP2WOIS_Quote</v>
+      </c>
+      <c r="K7" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP2WOIS_Quote</v>
-      </c>
-      <c r="K7" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_2WOIS</v>
       </c>
-      <c r="L7" s="133" t="str">
+      <c r="L7" s="128" t="str">
         <f>_xll.qlOISRateHelper(K7,B7,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_2WOIS#0000</v>
-      </c>
-      <c r="M7" s="132" t="str">
+        <v>GBP_YCONRH_2WOIS#0008</v>
+      </c>
+      <c r="M7" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="131"/>
-      <c r="P7" s="126">
+      <c r="N7" s="126"/>
+      <c r="P7" s="121">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q7" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q7" s="121">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41628</v>
+        <v>41631</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="141"/>
-      <c r="B8" s="139">
-        <v>0</v>
-      </c>
-      <c r="C8" s="138" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="134">
+        <v>0</v>
+      </c>
+      <c r="C8" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D8" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>3W</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="137" t="s">
+      <c r="F8" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="137" t="str">
+      <c r="G8" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I8" s="136">
-        <v>0</v>
-      </c>
-      <c r="J8" s="135" t="str">
+      <c r="I8" s="131">
+        <v>0</v>
+      </c>
+      <c r="J8" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP3WOIS_Quote</v>
+      </c>
+      <c r="K8" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP3WOIS_Quote</v>
-      </c>
-      <c r="K8" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_3WOIS</v>
       </c>
-      <c r="L8" s="133" t="str">
+      <c r="L8" s="128" t="str">
         <f>_xll.qlOISRateHelper(K8,B8,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_3WOIS#0000</v>
-      </c>
-      <c r="M8" s="132" t="str">
+        <v>GBP_YCONRH_3WOIS#0008</v>
+      </c>
+      <c r="M8" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="131"/>
-      <c r="P8" s="126">
+      <c r="N8" s="126"/>
+      <c r="P8" s="121">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q8" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q8" s="121">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41635</v>
+        <v>41638</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="139">
-        <v>0</v>
-      </c>
-      <c r="C9" s="138" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="134">
+        <v>0</v>
+      </c>
+      <c r="C9" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D9" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>1M</v>
       </c>
-      <c r="E9" s="138" t="s">
+      <c r="E9" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="137" t="s">
+      <c r="F9" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="137" t="str">
+      <c r="H9" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I9" s="136">
-        <v>0</v>
-      </c>
-      <c r="J9" s="135" t="str">
+      <c r="I9" s="131">
+        <v>0</v>
+      </c>
+      <c r="J9" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP1MOIS_Quote</v>
+      </c>
+      <c r="K9" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP1MOIS_Quote</v>
-      </c>
-      <c r="K9" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_1MOIS</v>
       </c>
-      <c r="L9" s="133" t="str">
+      <c r="L9" s="128" t="str">
         <f>_xll.qlOISRateHelper(K9,B9,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_1MOIS#0000</v>
-      </c>
-      <c r="M9" s="132" t="str">
+        <v>GBP_YCONRH_1MOIS#0008</v>
+      </c>
+      <c r="M9" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="131"/>
-      <c r="P9" s="126">
+      <c r="N9" s="126"/>
+      <c r="P9" s="121">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q9" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q9" s="121">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41645</v>
+        <v>41648</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="141"/>
-      <c r="B10" s="139">
-        <v>0</v>
-      </c>
-      <c r="C10" s="138" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="134">
+        <v>0</v>
+      </c>
+      <c r="C10" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D10" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>2M</v>
       </c>
-      <c r="E10" s="138" t="s">
+      <c r="E10" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="137" t="s">
+      <c r="F10" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="137" t="str">
+      <c r="H10" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I10" s="136">
-        <v>0</v>
-      </c>
-      <c r="J10" s="135" t="str">
+      <c r="I10" s="131">
+        <v>0</v>
+      </c>
+      <c r="J10" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP2MOIS_Quote</v>
+      </c>
+      <c r="K10" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP2MOIS_Quote</v>
-      </c>
-      <c r="K10" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_2MOIS</v>
       </c>
-      <c r="L10" s="133" t="str">
+      <c r="L10" s="128" t="str">
         <f>_xll.qlOISRateHelper(K10,B10,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_2MOIS#0000</v>
-      </c>
-      <c r="M10" s="132" t="str">
+        <v>GBP_YCONRH_2MOIS#0008</v>
+      </c>
+      <c r="M10" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="131"/>
-      <c r="P10" s="126">
+      <c r="N10" s="126"/>
+      <c r="P10" s="121">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q10" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q10" s="121">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41676</v>
+        <v>41680</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="141"/>
-      <c r="B11" s="139">
-        <v>0</v>
-      </c>
-      <c r="C11" s="138" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="134">
+        <v>0</v>
+      </c>
+      <c r="C11" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D11" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>3M</v>
       </c>
-      <c r="E11" s="138" t="s">
+      <c r="E11" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="137" t="s">
+      <c r="F11" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="137" t="str">
+      <c r="H11" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I11" s="136">
-        <v>0</v>
-      </c>
-      <c r="J11" s="135" t="str">
+      <c r="I11" s="131">
+        <v>0</v>
+      </c>
+      <c r="J11" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP3MOIS_Quote</v>
+      </c>
+      <c r="K11" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP3MOIS_Quote</v>
-      </c>
-      <c r="K11" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_3MOIS</v>
       </c>
-      <c r="L11" s="133" t="str">
+      <c r="L11" s="128" t="str">
         <f>_xll.qlOISRateHelper(K11,B11,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_3MOIS#0000</v>
-      </c>
-      <c r="M11" s="132" t="str">
+        <v>GBP_YCONRH_3MOIS#0008</v>
+      </c>
+      <c r="M11" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="131"/>
-      <c r="P11" s="126">
+      <c r="N11" s="126"/>
+      <c r="P11" s="121">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q11" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q11" s="121">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41704</v>
+        <v>41708</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="141"/>
-      <c r="B12" s="139">
-        <v>0</v>
-      </c>
-      <c r="C12" s="138" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="134">
+        <v>0</v>
+      </c>
+      <c r="C12" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D12" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>4M</v>
       </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" s="137" t="str">
+      <c r="H12" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I12" s="136">
-        <v>0</v>
-      </c>
-      <c r="J12" s="135" t="str">
+      <c r="I12" s="131">
+        <v>0</v>
+      </c>
+      <c r="J12" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP4MOIS_Quote</v>
+      </c>
+      <c r="K12" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP4MOIS_Quote</v>
-      </c>
-      <c r="K12" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_4MOIS</v>
       </c>
-      <c r="L12" s="133" t="str">
+      <c r="L12" s="128" t="str">
         <f>_xll.qlOISRateHelper(K12,B12,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_4MOIS#0000</v>
-      </c>
-      <c r="M12" s="132" t="str">
+        <v>GBP_YCONRH_4MOIS#0008</v>
+      </c>
+      <c r="M12" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="131"/>
-      <c r="P12" s="126">
+      <c r="N12" s="126"/>
+      <c r="P12" s="121">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q12" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q12" s="121">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41736</v>
+        <v>41738</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="141"/>
-      <c r="B13" s="139">
-        <v>0</v>
-      </c>
-      <c r="C13" s="138" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="134">
+        <v>0</v>
+      </c>
+      <c r="C13" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D13" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>5M</v>
       </c>
-      <c r="E13" s="138" t="s">
+      <c r="E13" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="137" t="str">
+      <c r="H13" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I13" s="136">
-        <v>0</v>
-      </c>
-      <c r="J13" s="135" t="str">
+      <c r="I13" s="131">
+        <v>0</v>
+      </c>
+      <c r="J13" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP5MOIS_Quote</v>
+      </c>
+      <c r="K13" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP5MOIS_Quote</v>
-      </c>
-      <c r="K13" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_5MOIS</v>
       </c>
-      <c r="L13" s="133" t="str">
+      <c r="L13" s="128" t="str">
         <f>_xll.qlOISRateHelper(K13,B13,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_5MOIS#0000</v>
-      </c>
-      <c r="M13" s="132" t="str">
+        <v>GBP_YCONRH_5MOIS#0008</v>
+      </c>
+      <c r="M13" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="131"/>
-      <c r="P13" s="126">
+      <c r="N13" s="126"/>
+      <c r="P13" s="121">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q13" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q13" s="121">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41765</v>
+        <v>41768</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="141"/>
-      <c r="B14" s="139">
-        <v>0</v>
-      </c>
-      <c r="C14" s="138" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="134">
+        <v>0</v>
+      </c>
+      <c r="C14" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D14" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>6M</v>
       </c>
-      <c r="E14" s="138" t="s">
+      <c r="E14" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="137" t="str">
+      <c r="H14" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I14" s="136">
-        <v>0</v>
-      </c>
-      <c r="J14" s="135" t="str">
+      <c r="I14" s="131">
+        <v>0</v>
+      </c>
+      <c r="J14" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP6MOIS_Quote</v>
+      </c>
+      <c r="K14" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP6MOIS_Quote</v>
-      </c>
-      <c r="K14" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_6MOIS</v>
       </c>
-      <c r="L14" s="133" t="str">
+      <c r="L14" s="128" t="str">
         <f>_xll.qlOISRateHelper(K14,B14,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_6MOIS#0000</v>
-      </c>
-      <c r="M14" s="132" t="str">
+        <v>GBP_YCONRH_6MOIS#0008</v>
+      </c>
+      <c r="M14" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="131"/>
-      <c r="P14" s="126">
+      <c r="N14" s="126"/>
+      <c r="P14" s="121">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q14" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q14" s="121">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41796</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="141"/>
-      <c r="B15" s="139">
-        <v>0</v>
-      </c>
-      <c r="C15" s="138" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="134">
+        <v>0</v>
+      </c>
+      <c r="C15" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D15" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>7M</v>
       </c>
-      <c r="E15" s="138" t="s">
+      <c r="E15" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="137" t="s">
+      <c r="F15" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="137" t="str">
+      <c r="H15" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I15" s="136">
-        <v>0</v>
-      </c>
-      <c r="J15" s="135" t="str">
+      <c r="I15" s="131">
+        <v>0</v>
+      </c>
+      <c r="J15" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP7MOIS_Quote</v>
+      </c>
+      <c r="K15" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP7MOIS_Quote</v>
-      </c>
-      <c r="K15" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_7MOIS</v>
       </c>
-      <c r="L15" s="133" t="str">
+      <c r="L15" s="128" t="str">
         <f>_xll.qlOISRateHelper(K15,B15,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_7MOIS#0000</v>
-      </c>
-      <c r="M15" s="132" t="str">
+        <v>GBP_YCONRH_7MOIS#0008</v>
+      </c>
+      <c r="M15" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="131"/>
-      <c r="P15" s="126">
+      <c r="N15" s="126"/>
+      <c r="P15" s="121">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q15" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q15" s="121">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41827</v>
+        <v>41829</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="141"/>
-      <c r="B16" s="139">
-        <v>0</v>
-      </c>
-      <c r="C16" s="138" t="s">
+      <c r="A16" s="136"/>
+      <c r="B16" s="134">
+        <v>0</v>
+      </c>
+      <c r="C16" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D16" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>8M</v>
       </c>
-      <c r="E16" s="138" t="s">
+      <c r="E16" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="137" t="str">
+      <c r="H16" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I16" s="136">
-        <v>0</v>
-      </c>
-      <c r="J16" s="135" t="str">
+      <c r="I16" s="131">
+        <v>0</v>
+      </c>
+      <c r="J16" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP8MOIS_Quote</v>
+      </c>
+      <c r="K16" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP8MOIS_Quote</v>
-      </c>
-      <c r="K16" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_8MOIS</v>
       </c>
-      <c r="L16" s="133" t="str">
+      <c r="L16" s="128" t="str">
         <f>_xll.qlOISRateHelper(K16,B16,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_8MOIS#0000</v>
-      </c>
-      <c r="M16" s="132" t="str">
+        <v>GBP_YCONRH_8MOIS#0008</v>
+      </c>
+      <c r="M16" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="131"/>
-      <c r="P16" s="126">
+      <c r="N16" s="126"/>
+      <c r="P16" s="121">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q16" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q16" s="121">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41857</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="141"/>
-      <c r="B17" s="139">
-        <v>0</v>
-      </c>
-      <c r="C17" s="138" t="s">
+      <c r="A17" s="136"/>
+      <c r="B17" s="134">
+        <v>0</v>
+      </c>
+      <c r="C17" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D17" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>9M</v>
       </c>
-      <c r="E17" s="138" t="s">
+      <c r="E17" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="137" t="s">
+      <c r="F17" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="137" t="str">
+      <c r="H17" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I17" s="136">
-        <v>0</v>
-      </c>
-      <c r="J17" s="135" t="str">
+      <c r="I17" s="131">
+        <v>0</v>
+      </c>
+      <c r="J17" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP9MOIS_Quote</v>
+      </c>
+      <c r="K17" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP9MOIS_Quote</v>
-      </c>
-      <c r="K17" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_9MOIS</v>
       </c>
-      <c r="L17" s="133" t="str">
+      <c r="L17" s="128" t="str">
         <f>_xll.qlOISRateHelper(K17,B17,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_9MOIS#0000</v>
-      </c>
-      <c r="M17" s="132" t="str">
+        <v>GBP_YCONRH_9MOIS#0008</v>
+      </c>
+      <c r="M17" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="131"/>
-      <c r="P17" s="126">
+      <c r="N17" s="126"/>
+      <c r="P17" s="121">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q17" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q17" s="121">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41890</v>
+        <v>41891</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="141"/>
-      <c r="B18" s="139">
-        <v>0</v>
-      </c>
-      <c r="C18" s="138" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="134">
+        <v>0</v>
+      </c>
+      <c r="C18" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D18" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>10M</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="137" t="s">
+      <c r="F18" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="137" t="str">
+      <c r="H18" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I18" s="136">
-        <v>0</v>
-      </c>
-      <c r="J18" s="135" t="str">
+      <c r="I18" s="131">
+        <v>0</v>
+      </c>
+      <c r="J18" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP10MOIS_Quote</v>
+      </c>
+      <c r="K18" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP10MOIS_Quote</v>
-      </c>
-      <c r="K18" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_10MOIS</v>
       </c>
-      <c r="L18" s="133" t="str">
+      <c r="L18" s="128" t="str">
         <f>_xll.qlOISRateHelper(K18,B18,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_10MOIS#0000</v>
-      </c>
-      <c r="M18" s="132" t="str">
+        <v>GBP_YCONRH_10MOIS#0008</v>
+      </c>
+      <c r="M18" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="131"/>
-      <c r="P18" s="126">
+      <c r="N18" s="126"/>
+      <c r="P18" s="121">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q18" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q18" s="121">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41918</v>
+        <v>41921</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="141"/>
-      <c r="B19" s="139">
-        <v>0</v>
-      </c>
-      <c r="C19" s="138" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="134">
+        <v>0</v>
+      </c>
+      <c r="C19" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D19" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>11M</v>
       </c>
-      <c r="E19" s="138" t="s">
+      <c r="E19" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="137" t="s">
+      <c r="F19" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="137" t="str">
+      <c r="H19" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I19" s="136">
-        <v>0</v>
-      </c>
-      <c r="J19" s="135" t="str">
+      <c r="I19" s="131">
+        <v>0</v>
+      </c>
+      <c r="J19" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP11MOIS_Quote</v>
+      </c>
+      <c r="K19" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP11MOIS_Quote</v>
-      </c>
-      <c r="K19" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_11MOIS</v>
       </c>
-      <c r="L19" s="133" t="str">
+      <c r="L19" s="128" t="str">
         <f>_xll.qlOISRateHelper(K19,B19,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_11MOIS#0000</v>
-      </c>
-      <c r="M19" s="132" t="str">
+        <v>GBP_YCONRH_11MOIS#0008</v>
+      </c>
+      <c r="M19" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="131"/>
-      <c r="P19" s="126">
+      <c r="N19" s="126"/>
+      <c r="P19" s="121">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q19" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q19" s="121">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41949</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="141"/>
-      <c r="B20" s="139">
-        <v>0</v>
-      </c>
-      <c r="C20" s="138" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="134">
+        <v>0</v>
+      </c>
+      <c r="C20" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D20" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>1Y</v>
       </c>
-      <c r="E20" s="138" t="s">
+      <c r="E20" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="137" t="s">
+      <c r="F20" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="137" t="str">
+      <c r="H20" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I20" s="136">
-        <v>0</v>
-      </c>
-      <c r="J20" s="135" t="str">
+      <c r="I20" s="131">
+        <v>0</v>
+      </c>
+      <c r="J20" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP1YOIS_Quote</v>
+      </c>
+      <c r="K20" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP1YOIS_Quote</v>
-      </c>
-      <c r="K20" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_1YOIS</v>
       </c>
-      <c r="L20" s="133" t="str">
+      <c r="L20" s="128" t="str">
         <f>_xll.qlOISRateHelper(K20,B20,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_1YOIS#0000</v>
-      </c>
-      <c r="M20" s="132" t="str">
+        <v>GBP_YCONRH_1YOIS#0008</v>
+      </c>
+      <c r="M20" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="131"/>
-      <c r="P20" s="126">
+      <c r="N20" s="126"/>
+      <c r="P20" s="121">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q20" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q20" s="121">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>41981</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="141"/>
-      <c r="B21" s="139">
-        <v>0</v>
-      </c>
-      <c r="C21" s="138" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="134">
+        <v>0</v>
+      </c>
+      <c r="C21" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D21" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>15M</v>
       </c>
-      <c r="E21" s="138" t="s">
+      <c r="E21" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="F21" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="137" t="str">
+      <c r="H21" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I21" s="136">
-        <v>0</v>
-      </c>
-      <c r="J21" s="135" t="str">
+      <c r="I21" s="131">
+        <v>0</v>
+      </c>
+      <c r="J21" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP15MOIS_Quote</v>
+      </c>
+      <c r="K21" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP15MOIS_Quote</v>
-      </c>
-      <c r="K21" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_15MOIS</v>
       </c>
-      <c r="L21" s="133" t="str">
+      <c r="L21" s="128" t="str">
         <f>_xll.qlOISRateHelper(K21,B21,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_15MOIS#0000</v>
-      </c>
-      <c r="M21" s="132" t="str">
+        <v>GBP_YCONRH_15MOIS#0008</v>
+      </c>
+      <c r="M21" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="131"/>
-      <c r="P21" s="126">
+      <c r="N21" s="126"/>
+      <c r="P21" s="121">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q21" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q21" s="121">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42069</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="141"/>
-      <c r="B22" s="139">
-        <v>0</v>
-      </c>
-      <c r="C22" s="138" t="s">
+      <c r="A22" s="136"/>
+      <c r="B22" s="134">
+        <v>0</v>
+      </c>
+      <c r="C22" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D22" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>18M</v>
       </c>
-      <c r="E22" s="138" t="s">
+      <c r="E22" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="137" t="s">
+      <c r="F22" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="137" t="str">
+      <c r="H22" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I22" s="136">
-        <v>0</v>
-      </c>
-      <c r="J22" s="135" t="str">
+      <c r="I22" s="131">
+        <v>0</v>
+      </c>
+      <c r="J22" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP18MOIS_Quote</v>
+      </c>
+      <c r="K22" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP18MOIS_Quote</v>
-      </c>
-      <c r="K22" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_18MOIS</v>
       </c>
-      <c r="L22" s="133" t="str">
+      <c r="L22" s="128" t="str">
         <f>_xll.qlOISRateHelper(K22,B22,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_18MOIS#0000</v>
-      </c>
-      <c r="M22" s="132" t="str">
+        <v>GBP_YCONRH_18MOIS#0008</v>
+      </c>
+      <c r="M22" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="131"/>
-      <c r="P22" s="126">
+      <c r="N22" s="126"/>
+      <c r="P22" s="121">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q22" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q22" s="121">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42163</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="141"/>
-      <c r="B23" s="139">
-        <v>0</v>
-      </c>
-      <c r="C23" s="138" t="s">
+      <c r="A23" s="136"/>
+      <c r="B23" s="134">
+        <v>0</v>
+      </c>
+      <c r="C23" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D23" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>21M</v>
       </c>
-      <c r="E23" s="138" t="s">
+      <c r="E23" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="137" t="s">
+      <c r="F23" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="137" t="str">
+      <c r="H23" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I23" s="136">
-        <v>0</v>
-      </c>
-      <c r="J23" s="135" t="str">
+      <c r="I23" s="131">
+        <v>0</v>
+      </c>
+      <c r="J23" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP21MOIS_Quote</v>
+      </c>
+      <c r="K23" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP21MOIS_Quote</v>
-      </c>
-      <c r="K23" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_21MOIS</v>
       </c>
-      <c r="L23" s="133" t="str">
+      <c r="L23" s="128" t="str">
         <f>_xll.qlOISRateHelper(K23,B23,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_21MOIS#0000</v>
-      </c>
-      <c r="M23" s="132" t="str">
+        <v>GBP_YCONRH_21MOIS#0008</v>
+      </c>
+      <c r="M23" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="131"/>
-      <c r="P23" s="126">
+      <c r="N23" s="126"/>
+      <c r="P23" s="121">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q23" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q23" s="121">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42254</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="141"/>
-      <c r="B24" s="139">
-        <v>0</v>
-      </c>
-      <c r="C24" s="138" t="s">
+      <c r="A24" s="136"/>
+      <c r="B24" s="134">
+        <v>0</v>
+      </c>
+      <c r="C24" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D24" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>2Y</v>
       </c>
-      <c r="E24" s="138" t="s">
+      <c r="E24" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="137" t="s">
+      <c r="F24" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="137" t="str">
+      <c r="H24" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I24" s="136">
-        <v>0</v>
-      </c>
-      <c r="J24" s="135" t="str">
+      <c r="I24" s="131">
+        <v>0</v>
+      </c>
+      <c r="J24" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP2YOIS_Quote</v>
+      </c>
+      <c r="K24" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP2YOIS_Quote</v>
-      </c>
-      <c r="K24" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_2YOIS</v>
       </c>
-      <c r="L24" s="133" t="str">
+      <c r="L24" s="128" t="str">
         <f>_xll.qlOISRateHelper(K24,B24,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_2YOIS#0000</v>
-      </c>
-      <c r="M24" s="132" t="str">
+        <v>GBP_YCONRH_2YOIS#0008</v>
+      </c>
+      <c r="M24" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="131"/>
-      <c r="P24" s="126">
+      <c r="N24" s="126"/>
+      <c r="P24" s="121">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q24" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q24" s="121">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42345</v>
+        <v>42347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="141"/>
-      <c r="B25" s="139">
-        <v>0</v>
-      </c>
-      <c r="C25" s="138" t="s">
+      <c r="A25" s="136"/>
+      <c r="B25" s="134">
+        <v>0</v>
+      </c>
+      <c r="C25" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D25" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>3Y</v>
       </c>
-      <c r="E25" s="138" t="s">
+      <c r="E25" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="137" t="s">
+      <c r="F25" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="137" t="str">
+      <c r="H25" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I25" s="136">
-        <v>0</v>
-      </c>
-      <c r="J25" s="135" t="str">
+      <c r="I25" s="131">
+        <v>0</v>
+      </c>
+      <c r="J25" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP3YOIS_Quote</v>
+      </c>
+      <c r="K25" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP3YOIS_Quote</v>
-      </c>
-      <c r="K25" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_3YOIS</v>
       </c>
-      <c r="L25" s="133" t="str">
+      <c r="L25" s="128" t="str">
         <f>_xll.qlOISRateHelper(K25,B25,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_3YOIS#0000</v>
-      </c>
-      <c r="M25" s="132" t="str">
+        <v>GBP_YCONRH_3YOIS#0008</v>
+      </c>
+      <c r="M25" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="131"/>
-      <c r="P25" s="126">
+      <c r="N25" s="126"/>
+      <c r="P25" s="121">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q25" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q25" s="121">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42710</v>
+        <v>42713</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="141"/>
-      <c r="B26" s="139">
-        <v>0</v>
-      </c>
-      <c r="C26" s="138" t="s">
+      <c r="A26" s="136"/>
+      <c r="B26" s="134">
+        <v>0</v>
+      </c>
+      <c r="C26" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D26" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>4Y</v>
       </c>
-      <c r="E26" s="138" t="s">
+      <c r="E26" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="137" t="s">
+      <c r="F26" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="137" t="str">
+      <c r="H26" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I26" s="136">
-        <v>0</v>
-      </c>
-      <c r="J26" s="135" t="str">
+      <c r="I26" s="131">
+        <v>0</v>
+      </c>
+      <c r="J26" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP4YOIS_Quote</v>
+      </c>
+      <c r="K26" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP4YOIS_Quote</v>
-      </c>
-      <c r="K26" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_4YOIS</v>
       </c>
-      <c r="L26" s="133" t="str">
+      <c r="L26" s="128" t="str">
         <f>_xll.qlOISRateHelper(K26,B26,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_4YOIS#0000</v>
-      </c>
-      <c r="M26" s="132" t="str">
+        <v>GBP_YCONRH_4YOIS#0008</v>
+      </c>
+      <c r="M26" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="131"/>
-      <c r="P26" s="126">
+      <c r="N26" s="126"/>
+      <c r="P26" s="121">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q26" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q26" s="121">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>43075</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="141"/>
-      <c r="B27" s="139">
-        <v>0</v>
-      </c>
-      <c r="C27" s="138" t="s">
+      <c r="A27" s="136"/>
+      <c r="B27" s="134">
+        <v>0</v>
+      </c>
+      <c r="C27" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D27" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>5Y</v>
       </c>
-      <c r="E27" s="138" t="s">
+      <c r="E27" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="137" t="s">
+      <c r="F27" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="137" t="str">
+      <c r="H27" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I27" s="136">
-        <v>0</v>
-      </c>
-      <c r="J27" s="135" t="str">
+      <c r="I27" s="131">
+        <v>0</v>
+      </c>
+      <c r="J27" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP5YOIS_Quote</v>
+      </c>
+      <c r="K27" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP5YOIS_Quote</v>
-      </c>
-      <c r="K27" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_5YOIS</v>
       </c>
-      <c r="L27" s="133" t="str">
+      <c r="L27" s="128" t="str">
         <f>_xll.qlOISRateHelper(K27,B27,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_5YOIS#0000</v>
-      </c>
-      <c r="M27" s="132" t="str">
+        <v>GBP_YCONRH_5YOIS#0008</v>
+      </c>
+      <c r="M27" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="131"/>
-      <c r="P27" s="126">
+      <c r="N27" s="126"/>
+      <c r="P27" s="121">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q27" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q27" s="121">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>43440</v>
+        <v>43444</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="141"/>
-      <c r="B28" s="139">
-        <v>0</v>
-      </c>
-      <c r="C28" s="138" t="s">
+      <c r="A28" s="136"/>
+      <c r="B28" s="134">
+        <v>0</v>
+      </c>
+      <c r="C28" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D28" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>6Y</v>
       </c>
-      <c r="E28" s="138" t="s">
+      <c r="E28" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="137" t="s">
+      <c r="F28" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="137" t="str">
+      <c r="H28" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I28" s="136">
-        <v>0</v>
-      </c>
-      <c r="J28" s="135" t="str">
+      <c r="I28" s="131">
+        <v>0</v>
+      </c>
+      <c r="J28" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP6YOIS_Quote</v>
+      </c>
+      <c r="K28" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP6YOIS_Quote</v>
-      </c>
-      <c r="K28" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_6YOIS</v>
       </c>
-      <c r="L28" s="133" t="str">
+      <c r="L28" s="128" t="str">
         <f>_xll.qlOISRateHelper(K28,B28,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_6YOIS#0000</v>
-      </c>
-      <c r="M28" s="132" t="str">
+        <v>GBP_YCONRH_6YOIS#0008</v>
+      </c>
+      <c r="M28" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="131"/>
-      <c r="P28" s="126">
+      <c r="N28" s="126"/>
+      <c r="P28" s="121">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q28" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q28" s="121">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>43805</v>
+        <v>43808</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="141"/>
-      <c r="B29" s="139">
-        <v>0</v>
-      </c>
-      <c r="C29" s="138" t="s">
+      <c r="A29" s="136"/>
+      <c r="B29" s="134">
+        <v>0</v>
+      </c>
+      <c r="C29" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D29" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>7Y</v>
       </c>
-      <c r="E29" s="138" t="s">
+      <c r="E29" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="137" t="s">
+      <c r="F29" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="137" t="str">
+      <c r="H29" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I29" s="136">
-        <v>0</v>
-      </c>
-      <c r="J29" s="135" t="str">
+      <c r="I29" s="131">
+        <v>0</v>
+      </c>
+      <c r="J29" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP7YOIS_Quote</v>
+      </c>
+      <c r="K29" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP7YOIS_Quote</v>
-      </c>
-      <c r="K29" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_7YOIS</v>
       </c>
-      <c r="L29" s="133" t="str">
+      <c r="L29" s="128" t="str">
         <f>_xll.qlOISRateHelper(K29,B29,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_7YOIS#0000</v>
-      </c>
-      <c r="M29" s="132" t="str">
+        <v>GBP_YCONRH_7YOIS#0008</v>
+      </c>
+      <c r="M29" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="N29" s="131"/>
-      <c r="P29" s="126">
+      <c r="N29" s="126"/>
+      <c r="P29" s="121">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q29" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q29" s="121">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>44172</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="141"/>
-      <c r="B30" s="139">
-        <v>0</v>
-      </c>
-      <c r="C30" s="138" t="s">
+      <c r="A30" s="136"/>
+      <c r="B30" s="134">
+        <v>0</v>
+      </c>
+      <c r="C30" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D30" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>8Y</v>
       </c>
-      <c r="E30" s="138" t="s">
+      <c r="E30" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="137" t="s">
+      <c r="F30" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="137" t="str">
+      <c r="H30" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I30" s="136">
-        <v>0</v>
-      </c>
-      <c r="J30" s="135" t="str">
+      <c r="I30" s="131">
+        <v>0</v>
+      </c>
+      <c r="J30" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP8YOIS_Quote</v>
+      </c>
+      <c r="K30" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP8YOIS_Quote</v>
-      </c>
-      <c r="K30" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_8YOIS</v>
       </c>
-      <c r="L30" s="133" t="str">
+      <c r="L30" s="128" t="str">
         <f>_xll.qlOISRateHelper(K30,B30,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_8YOIS#0000</v>
-      </c>
-      <c r="M30" s="132" t="str">
+        <v>GBP_YCONRH_8YOIS#0008</v>
+      </c>
+      <c r="M30" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="N30" s="131"/>
-      <c r="P30" s="126">
+      <c r="N30" s="126"/>
+      <c r="P30" s="121">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q30" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q30" s="121">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>44536</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="141"/>
-      <c r="B31" s="139">
-        <v>0</v>
-      </c>
-      <c r="C31" s="138" t="s">
+      <c r="A31" s="136"/>
+      <c r="B31" s="134">
+        <v>0</v>
+      </c>
+      <c r="C31" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D31" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>9Y</v>
       </c>
-      <c r="E31" s="138" t="s">
+      <c r="E31" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="137" t="s">
+      <c r="F31" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" s="137" t="str">
+      <c r="H31" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I31" s="136">
-        <v>0</v>
-      </c>
-      <c r="J31" s="135" t="str">
+      <c r="I31" s="131">
+        <v>0</v>
+      </c>
+      <c r="J31" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP9YOIS_Quote</v>
+      </c>
+      <c r="K31" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP9YOIS_Quote</v>
-      </c>
-      <c r="K31" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_9YOIS</v>
       </c>
-      <c r="L31" s="133" t="str">
+      <c r="L31" s="128" t="str">
         <f>_xll.qlOISRateHelper(K31,B31,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_9YOIS#0000</v>
-      </c>
-      <c r="M31" s="132" t="str">
+        <v>GBP_YCONRH_9YOIS#0008</v>
+      </c>
+      <c r="M31" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="N31" s="131"/>
-      <c r="P31" s="126">
+      <c r="N31" s="126"/>
+      <c r="P31" s="121">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q31" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q31" s="121">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>44901</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="141"/>
-      <c r="B32" s="139">
-        <v>0</v>
-      </c>
-      <c r="C32" s="138" t="s">
+      <c r="A32" s="136"/>
+      <c r="B32" s="134">
+        <v>0</v>
+      </c>
+      <c r="C32" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D32" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>10Y</v>
       </c>
-      <c r="E32" s="138" t="s">
+      <c r="E32" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="137" t="s">
+      <c r="F32" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="137" t="str">
+      <c r="H32" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I32" s="136">
-        <v>0</v>
-      </c>
-      <c r="J32" s="135" t="str">
+      <c r="I32" s="131">
+        <v>0</v>
+      </c>
+      <c r="J32" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP10YOIS_Quote</v>
+      </c>
+      <c r="K32" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP10YOIS_Quote</v>
-      </c>
-      <c r="K32" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_10YOIS</v>
       </c>
-      <c r="L32" s="133" t="str">
+      <c r="L32" s="128" t="str">
         <f>_xll.qlOISRateHelper(K32,B32,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_10YOIS#0000</v>
-      </c>
-      <c r="M32" s="132" t="str">
+        <v>GBP_YCONRH_10YOIS#0008</v>
+      </c>
+      <c r="M32" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="N32" s="131"/>
-      <c r="P32" s="126">
+      <c r="N32" s="126"/>
+      <c r="P32" s="121">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q32" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q32" s="121">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>45266</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="141"/>
-      <c r="B33" s="139">
-        <v>0</v>
-      </c>
-      <c r="C33" s="138" t="s">
+      <c r="A33" s="136"/>
+      <c r="B33" s="134">
+        <v>0</v>
+      </c>
+      <c r="C33" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D33" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>11Y</v>
       </c>
-      <c r="E33" s="138" t="s">
+      <c r="E33" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="137" t="s">
+      <c r="F33" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" s="137" t="str">
+      <c r="H33" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I33" s="136">
-        <v>0</v>
-      </c>
-      <c r="J33" s="135" t="str">
+      <c r="I33" s="131">
+        <v>0</v>
+      </c>
+      <c r="J33" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP11YOIS_Quote</v>
+      </c>
+      <c r="K33" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP11YOIS_Quote</v>
-      </c>
-      <c r="K33" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_11YOIS</v>
       </c>
-      <c r="L33" s="133" t="str">
+      <c r="L33" s="128" t="str">
         <f>_xll.qlOISRateHelper(K33,B33,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_11YOIS#0000</v>
-      </c>
-      <c r="M33" s="132" t="str">
+        <v>GBP_YCONRH_11YOIS#0008</v>
+      </c>
+      <c r="M33" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="N33" s="131"/>
-      <c r="P33" s="126">
+      <c r="N33" s="126"/>
+      <c r="P33" s="121">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q33" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q33" s="121">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>45632</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="141"/>
-      <c r="B34" s="139">
-        <v>0</v>
-      </c>
-      <c r="C34" s="138" t="s">
+      <c r="A34" s="136"/>
+      <c r="B34" s="134">
+        <v>0</v>
+      </c>
+      <c r="C34" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D34" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>12Y</v>
       </c>
-      <c r="E34" s="138" t="s">
+      <c r="E34" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="137" t="s">
+      <c r="F34" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H34" s="137" t="str">
+      <c r="H34" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I34" s="136">
-        <v>0</v>
-      </c>
-      <c r="J34" s="135" t="str">
+      <c r="I34" s="131">
+        <v>0</v>
+      </c>
+      <c r="J34" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP12YOIS_Quote</v>
+      </c>
+      <c r="K34" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP12YOIS_Quote</v>
-      </c>
-      <c r="K34" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_12YOIS</v>
       </c>
-      <c r="L34" s="133" t="str">
+      <c r="L34" s="128" t="str">
         <f>_xll.qlOISRateHelper(K34,B34,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_12YOIS#0000</v>
-      </c>
-      <c r="M34" s="132" t="str">
+        <v>GBP_YCONRH_12YOIS#0008</v>
+      </c>
+      <c r="M34" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="N34" s="131"/>
-      <c r="P34" s="126">
+      <c r="N34" s="126"/>
+      <c r="P34" s="121">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q34" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q34" s="121">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>45999</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="141"/>
-      <c r="B35" s="139">
-        <v>0</v>
-      </c>
-      <c r="C35" s="138" t="s">
+      <c r="A35" s="136"/>
+      <c r="B35" s="134">
+        <v>0</v>
+      </c>
+      <c r="C35" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D35" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>15Y</v>
       </c>
-      <c r="E35" s="138" t="s">
+      <c r="E35" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="137" t="s">
+      <c r="F35" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" s="137" t="str">
+      <c r="H35" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I35" s="136">
-        <v>0</v>
-      </c>
-      <c r="J35" s="135" t="str">
+      <c r="I35" s="131">
+        <v>0</v>
+      </c>
+      <c r="J35" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP15YOIS_Quote</v>
+      </c>
+      <c r="K35" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP15YOIS_Quote</v>
-      </c>
-      <c r="K35" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_15YOIS</v>
       </c>
-      <c r="L35" s="133" t="str">
+      <c r="L35" s="128" t="str">
         <f>_xll.qlOISRateHelper(K35,B35,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_15YOIS#0000</v>
-      </c>
-      <c r="M35" s="132" t="str">
+        <v>GBP_YCONRH_15YOIS#0008</v>
+      </c>
+      <c r="M35" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="N35" s="131"/>
-      <c r="P35" s="126">
+      <c r="N35" s="126"/>
+      <c r="P35" s="121">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q35" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q35" s="121">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>47093</v>
+        <v>47098</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="141"/>
-      <c r="B36" s="139">
-        <v>0</v>
-      </c>
-      <c r="C36" s="138" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="134">
+        <v>0</v>
+      </c>
+      <c r="C36" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D36" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>20Y</v>
       </c>
-      <c r="E36" s="138" t="s">
+      <c r="E36" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="137" t="s">
+      <c r="F36" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H36" s="137" t="str">
+      <c r="H36" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I36" s="136">
-        <v>0</v>
-      </c>
-      <c r="J36" s="135" t="str">
+      <c r="I36" s="131">
+        <v>0</v>
+      </c>
+      <c r="J36" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP20YOIS_Quote</v>
+      </c>
+      <c r="K36" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP20YOIS_Quote</v>
-      </c>
-      <c r="K36" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_20YOIS</v>
       </c>
-      <c r="L36" s="133" t="str">
+      <c r="L36" s="128" t="str">
         <f>_xll.qlOISRateHelper(K36,B36,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_20YOIS#0000</v>
-      </c>
-      <c r="M36" s="132" t="str">
+        <v>GBP_YCONRH_20YOIS#0008</v>
+      </c>
+      <c r="M36" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="N36" s="131"/>
-      <c r="P36" s="126">
+      <c r="N36" s="126"/>
+      <c r="P36" s="121">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q36" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q36" s="121">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>48919</v>
+        <v>48922</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="141"/>
-      <c r="B37" s="139">
-        <v>0</v>
-      </c>
-      <c r="C37" s="138" t="s">
+      <c r="A37" s="136"/>
+      <c r="B37" s="134">
+        <v>0</v>
+      </c>
+      <c r="C37" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D37" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>25Y</v>
       </c>
-      <c r="E37" s="138" t="s">
+      <c r="E37" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="137" t="s">
+      <c r="F37" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G37" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H37" s="137" t="str">
+      <c r="H37" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I37" s="136">
-        <v>0</v>
-      </c>
-      <c r="J37" s="135" t="str">
+      <c r="I37" s="131">
+        <v>0</v>
+      </c>
+      <c r="J37" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP25YOIS_Quote</v>
+      </c>
+      <c r="K37" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP25YOIS_Quote</v>
-      </c>
-      <c r="K37" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_25YOIS</v>
       </c>
-      <c r="L37" s="133" t="str">
+      <c r="L37" s="128" t="str">
         <f>_xll.qlOISRateHelper(K37,B37,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_25YOIS#0000</v>
-      </c>
-      <c r="M37" s="132" t="str">
+        <v>GBP_YCONRH_25YOIS#0008</v>
+      </c>
+      <c r="M37" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="N37" s="131"/>
-      <c r="P37" s="126">
+      <c r="N37" s="126"/>
+      <c r="P37" s="121">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q37" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q37" s="121">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>50745</v>
+        <v>50748</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="141"/>
-      <c r="B38" s="139">
-        <v>0</v>
-      </c>
-      <c r="C38" s="138" t="s">
+      <c r="A38" s="136"/>
+      <c r="B38" s="134">
+        <v>0</v>
+      </c>
+      <c r="C38" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="138" t="str">
-        <f t="shared" si="3"/>
+      <c r="D38" s="133" t="str">
+        <f t="shared" si="2"/>
         <v>30Y</v>
       </c>
-      <c r="E38" s="138" t="s">
+      <c r="E38" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="137" t="s">
+      <c r="F38" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="H38" s="137" t="str">
+      <c r="H38" s="132" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I38" s="136">
-        <v>0</v>
-      </c>
-      <c r="J38" s="135" t="str">
+      <c r="I38" s="131">
+        <v>0</v>
+      </c>
+      <c r="J38" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>GBP30YOIS_Quote</v>
+      </c>
+      <c r="K38" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>GBP30YOIS_Quote</v>
-      </c>
-      <c r="K38" s="135" t="str">
-        <f t="shared" si="2"/>
         <v>GBP_YCONRH_30YOIS</v>
       </c>
-      <c r="L38" s="133" t="str">
+      <c r="L38" s="128" t="str">
         <f>_xll.qlOISRateHelper(K38,B38,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_30YOIS#0000</v>
-      </c>
-      <c r="M38" s="132" t="str">
+        <v>GBP_YCONRH_30YOIS#0008</v>
+      </c>
+      <c r="M38" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="N38" s="131"/>
-      <c r="P38" s="126">
+      <c r="N38" s="126"/>
+      <c r="P38" s="121">
         <f>_xll.qlRateHelperEarliestDate(L38)</f>
-        <v>41614</v>
-      </c>
-      <c r="Q38" s="126">
+        <v>41617</v>
+      </c>
+      <c r="Q38" s="121">
         <f>_xll.qlRateHelperLatestDate($L38)</f>
-        <v>52572</v>
+        <v>52574</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="141"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="74"/>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
@@ -6488,1870 +6505,1870 @@
       <c r="F39" s="77"/>
       <c r="G39" s="77"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="142"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="131"/>
-      <c r="P39" s="126"/>
-      <c r="Q39" s="126"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="126"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="121"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="141"/>
-      <c r="B40" s="140">
+      <c r="A40" s="136"/>
+      <c r="B40" s="135">
         <v>40556</v>
       </c>
-      <c r="C40" s="139" t="s">
+      <c r="C40" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="138" t="str">
+      <c r="D40" s="133" t="str">
         <f t="shared" ref="D40:D63" si="4">UPPER(TEXT(B40,"MMMYY"))</f>
         <v>JAN11</v>
       </c>
-      <c r="E40" s="138" t="s">
+      <c r="E40" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="137" t="s">
+      <c r="F40" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="137" t="str">
+      <c r="G40" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="132" t="str">
         <f t="shared" ref="H40:H74" si="5">MoneyMarketDayCounter</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I40" s="136">
-        <v>0</v>
-      </c>
-      <c r="J40" s="135" t="str">
+      <c r="I40" s="131">
+        <v>0</v>
+      </c>
+      <c r="J40" s="130" t="str">
         <f t="shared" ref="J40:J74" si="6">Currency&amp;$C40&amp;$D40&amp;E40&amp;QuoteSuffix</f>
         <v>GBPMPCJAN11OIS_Quote</v>
       </c>
-      <c r="K40" s="134" t="str">
+      <c r="K40" s="129" t="str">
         <f t="shared" ref="K40:K74" si="7">$K$2&amp;"_"&amp;$C40&amp;$D40&amp;E40</f>
         <v>GBP_YCONRH_MPCJAN11OIS</v>
       </c>
-      <c r="L40" s="133" t="str">
+      <c r="L40" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K40,B40,B41,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJAN11OIS#0000</v>
-      </c>
-      <c r="M40" s="132" t="str">
+        <v>GBP_YCONRH_MPCJAN11OIS#0008</v>
+      </c>
+      <c r="M40" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="N40" s="131"/>
-      <c r="P40" s="126">
+      <c r="N40" s="126"/>
+      <c r="P40" s="121">
         <f>_xll.qlRateHelperEarliestDate(L40)</f>
         <v>40556</v>
       </c>
-      <c r="Q40" s="126">
+      <c r="Q40" s="121">
         <f>_xll.qlRateHelperLatestDate($L40)</f>
         <v>40584</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="141"/>
-      <c r="B41" s="140">
+      <c r="A41" s="136"/>
+      <c r="B41" s="135">
         <v>40584</v>
       </c>
-      <c r="C41" s="139" t="s">
+      <c r="C41" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="138" t="str">
+      <c r="D41" s="133" t="str">
         <f t="shared" si="4"/>
         <v>FEB11</v>
       </c>
-      <c r="E41" s="138" t="s">
+      <c r="E41" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F41" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="137" t="s">
+      <c r="F41" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H41" s="137" t="str">
+      <c r="G41" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H41" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I41" s="136">
-        <v>0</v>
-      </c>
-      <c r="J41" s="135" t="str">
+      <c r="I41" s="131">
+        <v>0</v>
+      </c>
+      <c r="J41" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCFEB11OIS_Quote</v>
       </c>
-      <c r="K41" s="134" t="str">
+      <c r="K41" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCFEB11OIS</v>
       </c>
-      <c r="L41" s="133" t="str">
+      <c r="L41" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K41,B41,B42,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCFEB11OIS#0000</v>
-      </c>
-      <c r="M41" s="132" t="str">
+        <v>GBP_YCONRH_MPCFEB11OIS#0008</v>
+      </c>
+      <c r="M41" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="N41" s="131"/>
-      <c r="P41" s="126">
+      <c r="N41" s="126"/>
+      <c r="P41" s="121">
         <f>_xll.qlRateHelperEarliestDate(L41)</f>
         <v>40584</v>
       </c>
-      <c r="Q41" s="126">
+      <c r="Q41" s="121">
         <f>_xll.qlRateHelperLatestDate($L41)</f>
         <v>40612</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="141"/>
-      <c r="B42" s="140">
+      <c r="A42" s="136"/>
+      <c r="B42" s="135">
         <v>40612</v>
       </c>
-      <c r="C42" s="139" t="s">
+      <c r="C42" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="138" t="str">
+      <c r="D42" s="133" t="str">
         <f t="shared" si="4"/>
         <v>MAR11</v>
       </c>
-      <c r="E42" s="138" t="s">
+      <c r="E42" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="137" t="s">
+      <c r="F42" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="137" t="str">
+      <c r="G42" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I42" s="136">
-        <v>0</v>
-      </c>
-      <c r="J42" s="135" t="str">
+      <c r="I42" s="131">
+        <v>0</v>
+      </c>
+      <c r="J42" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCMAR11OIS_Quote</v>
       </c>
-      <c r="K42" s="134" t="str">
+      <c r="K42" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCMAR11OIS</v>
       </c>
-      <c r="L42" s="133" t="str">
+      <c r="L42" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K42,B42,B43,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCMAR11OIS#0000</v>
-      </c>
-      <c r="M42" s="132" t="str">
+        <v>GBP_YCONRH_MPCMAR11OIS#0008</v>
+      </c>
+      <c r="M42" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
-      <c r="N42" s="131"/>
-      <c r="P42" s="126">
+      <c r="N42" s="126"/>
+      <c r="P42" s="121">
         <f>_xll.qlRateHelperEarliestDate(L42)</f>
         <v>40612</v>
       </c>
-      <c r="Q42" s="126">
+      <c r="Q42" s="121">
         <f>_xll.qlRateHelperLatestDate($L42)</f>
         <v>40640</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="141"/>
-      <c r="B43" s="140">
+      <c r="A43" s="136"/>
+      <c r="B43" s="135">
         <v>40640</v>
       </c>
-      <c r="C43" s="139" t="s">
+      <c r="C43" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="138" t="str">
+      <c r="D43" s="133" t="str">
         <f t="shared" si="4"/>
         <v>APR11</v>
       </c>
-      <c r="E43" s="138" t="s">
+      <c r="E43" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="137" t="s">
+      <c r="F43" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="137" t="str">
+      <c r="G43" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I43" s="136">
-        <v>0</v>
-      </c>
-      <c r="J43" s="135" t="str">
+      <c r="I43" s="131">
+        <v>0</v>
+      </c>
+      <c r="J43" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCAPR11OIS_Quote</v>
       </c>
-      <c r="K43" s="134" t="str">
+      <c r="K43" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCAPR11OIS</v>
       </c>
-      <c r="L43" s="133" t="str">
+      <c r="L43" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K43,B43,B44,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCAPR11OIS#0000</v>
-      </c>
-      <c r="M43" s="132" t="str">
+        <v>GBP_YCONRH_MPCAPR11OIS#0008</v>
+      </c>
+      <c r="M43" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
         <v/>
       </c>
-      <c r="N43" s="131"/>
-      <c r="P43" s="126">
+      <c r="N43" s="126"/>
+      <c r="P43" s="121">
         <f>_xll.qlRateHelperEarliestDate(L43)</f>
         <v>40640</v>
       </c>
-      <c r="Q43" s="126">
+      <c r="Q43" s="121">
         <f>_xll.qlRateHelperLatestDate($L43)</f>
         <v>40668</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="141"/>
-      <c r="B44" s="140">
+      <c r="A44" s="136"/>
+      <c r="B44" s="135">
         <v>40668</v>
       </c>
-      <c r="C44" s="139" t="s">
+      <c r="C44" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="138" t="str">
+      <c r="D44" s="133" t="str">
         <f t="shared" si="4"/>
         <v>MAY11</v>
       </c>
-      <c r="E44" s="138" t="s">
+      <c r="E44" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="137" t="s">
+      <c r="F44" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H44" s="137" t="str">
+      <c r="G44" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I44" s="136">
-        <v>0</v>
-      </c>
-      <c r="J44" s="135" t="str">
+      <c r="I44" s="131">
+        <v>0</v>
+      </c>
+      <c r="J44" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCMAY11OIS_Quote</v>
       </c>
-      <c r="K44" s="134" t="str">
+      <c r="K44" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCMAY11OIS</v>
       </c>
-      <c r="L44" s="133" t="str">
+      <c r="L44" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K44,B44,B45,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCMAY11OIS#0000</v>
-      </c>
-      <c r="M44" s="132" t="str">
+        <v>GBP_YCONRH_MPCMAY11OIS#0008</v>
+      </c>
+      <c r="M44" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
         <v/>
       </c>
-      <c r="N44" s="131"/>
-      <c r="P44" s="126">
+      <c r="N44" s="126"/>
+      <c r="P44" s="121">
         <f>_xll.qlRateHelperEarliestDate(L44)</f>
         <v>40668</v>
       </c>
-      <c r="Q44" s="126">
+      <c r="Q44" s="121">
         <f>_xll.qlRateHelperLatestDate($L44)</f>
         <v>40703</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="141"/>
-      <c r="B45" s="140">
+      <c r="A45" s="136"/>
+      <c r="B45" s="135">
         <v>40703</v>
       </c>
-      <c r="C45" s="139" t="s">
+      <c r="C45" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="138" t="str">
+      <c r="D45" s="133" t="str">
         <f t="shared" si="4"/>
         <v>JUN11</v>
       </c>
-      <c r="E45" s="138" t="s">
+      <c r="E45" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" s="137" t="s">
+      <c r="F45" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="137" t="str">
+      <c r="G45" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I45" s="136">
-        <v>0</v>
-      </c>
-      <c r="J45" s="135" t="str">
+      <c r="I45" s="131">
+        <v>0</v>
+      </c>
+      <c r="J45" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJUN11OIS_Quote</v>
       </c>
-      <c r="K45" s="134" t="str">
+      <c r="K45" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCJUN11OIS</v>
       </c>
-      <c r="L45" s="133" t="str">
+      <c r="L45" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K45,B45,B46,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJUN11OIS#0000</v>
-      </c>
-      <c r="M45" s="132" t="str">
+        <v>GBP_YCONRH_MPCJUN11OIS#0008</v>
+      </c>
+      <c r="M45" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
         <v/>
       </c>
-      <c r="N45" s="131"/>
-      <c r="P45" s="126">
+      <c r="N45" s="126"/>
+      <c r="P45" s="121">
         <f>_xll.qlRateHelperEarliestDate(L45)</f>
         <v>40703</v>
       </c>
-      <c r="Q45" s="126">
+      <c r="Q45" s="121">
         <f>_xll.qlRateHelperLatestDate($L45)</f>
         <v>40731</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="141"/>
-      <c r="B46" s="140">
+      <c r="A46" s="136"/>
+      <c r="B46" s="135">
         <v>40731</v>
       </c>
-      <c r="C46" s="139" t="s">
+      <c r="C46" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="138" t="str">
+      <c r="D46" s="133" t="str">
         <f t="shared" si="4"/>
         <v>JUL11</v>
       </c>
-      <c r="E46" s="138" t="s">
+      <c r="E46" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="137" t="s">
+      <c r="F46" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H46" s="137" t="str">
+      <c r="G46" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I46" s="136">
-        <v>0</v>
-      </c>
-      <c r="J46" s="135" t="str">
+      <c r="I46" s="131">
+        <v>0</v>
+      </c>
+      <c r="J46" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJUL11OIS_Quote</v>
       </c>
-      <c r="K46" s="134" t="str">
+      <c r="K46" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCJUL11OIS</v>
       </c>
-      <c r="L46" s="133" t="str">
+      <c r="L46" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K46,B46,B47,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJUL11OIS#0000</v>
-      </c>
-      <c r="M46" s="132" t="str">
+        <v>GBP_YCONRH_MPCJUL11OIS#0008</v>
+      </c>
+      <c r="M46" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
         <v/>
       </c>
-      <c r="N46" s="131"/>
-      <c r="P46" s="126">
+      <c r="N46" s="126"/>
+      <c r="P46" s="121">
         <f>_xll.qlRateHelperEarliestDate(L46)</f>
         <v>40731</v>
       </c>
-      <c r="Q46" s="126">
+      <c r="Q46" s="121">
         <f>_xll.qlRateHelperLatestDate($L46)</f>
         <v>40759</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="141"/>
-      <c r="B47" s="140">
+      <c r="A47" s="136"/>
+      <c r="B47" s="135">
         <v>40759</v>
       </c>
-      <c r="C47" s="139" t="s">
+      <c r="C47" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="138" t="str">
+      <c r="D47" s="133" t="str">
         <f t="shared" si="4"/>
         <v>AUG11</v>
       </c>
-      <c r="E47" s="138" t="s">
+      <c r="E47" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G47" s="137" t="s">
+      <c r="F47" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H47" s="137" t="str">
+      <c r="G47" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I47" s="136">
-        <v>0</v>
-      </c>
-      <c r="J47" s="135" t="str">
+      <c r="I47" s="131">
+        <v>0</v>
+      </c>
+      <c r="J47" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCAUG11OIS_Quote</v>
       </c>
-      <c r="K47" s="134" t="str">
+      <c r="K47" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCAUG11OIS</v>
       </c>
-      <c r="L47" s="133" t="str">
+      <c r="L47" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K47,B47,B48,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCAUG11OIS#0000</v>
-      </c>
-      <c r="M47" s="132" t="str">
+        <v>GBP_YCONRH_MPCAUG11OIS#0008</v>
+      </c>
+      <c r="M47" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
         <v/>
       </c>
-      <c r="N47" s="131"/>
-      <c r="P47" s="126">
+      <c r="N47" s="126"/>
+      <c r="P47" s="121">
         <f>_xll.qlRateHelperEarliestDate(L47)</f>
         <v>40759</v>
       </c>
-      <c r="Q47" s="126">
+      <c r="Q47" s="121">
         <f>_xll.qlRateHelperLatestDate($L47)</f>
         <v>40794</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="141"/>
-      <c r="B48" s="140">
+      <c r="A48" s="136"/>
+      <c r="B48" s="135">
         <v>40794</v>
       </c>
-      <c r="C48" s="139" t="s">
+      <c r="C48" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="138" t="str">
+      <c r="D48" s="133" t="str">
         <f t="shared" si="4"/>
         <v>SEP11</v>
       </c>
-      <c r="E48" s="138" t="s">
+      <c r="E48" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" s="137" t="s">
+      <c r="F48" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H48" s="137" t="str">
+      <c r="G48" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I48" s="136">
-        <v>0</v>
-      </c>
-      <c r="J48" s="135" t="str">
+      <c r="I48" s="131">
+        <v>0</v>
+      </c>
+      <c r="J48" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCSEP11OIS_Quote</v>
       </c>
-      <c r="K48" s="134" t="str">
+      <c r="K48" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCSEP11OIS</v>
       </c>
-      <c r="L48" s="133" t="str">
+      <c r="L48" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K48,B48,B49,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCSEP11OIS#0000</v>
-      </c>
-      <c r="M48" s="132" t="str">
+        <v>GBP_YCONRH_MPCSEP11OIS#0008</v>
+      </c>
+      <c r="M48" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
         <v/>
       </c>
-      <c r="N48" s="131"/>
-      <c r="P48" s="126">
+      <c r="N48" s="126"/>
+      <c r="P48" s="121">
         <f>_xll.qlRateHelperEarliestDate(L48)</f>
         <v>40794</v>
       </c>
-      <c r="Q48" s="126">
+      <c r="Q48" s="121">
         <f>_xll.qlRateHelperLatestDate($L48)</f>
         <v>40822</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="141"/>
-      <c r="B49" s="140">
+      <c r="A49" s="136"/>
+      <c r="B49" s="135">
         <v>40822</v>
       </c>
-      <c r="C49" s="139" t="s">
+      <c r="C49" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="138" t="str">
+      <c r="D49" s="133" t="str">
         <f t="shared" si="4"/>
         <v>OCT11</v>
       </c>
-      <c r="E49" s="138" t="s">
+      <c r="E49" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="137" t="s">
+      <c r="F49" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H49" s="137" t="str">
+      <c r="G49" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I49" s="136">
-        <v>0</v>
-      </c>
-      <c r="J49" s="135" t="str">
+      <c r="I49" s="131">
+        <v>0</v>
+      </c>
+      <c r="J49" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOCT11OIS_Quote</v>
       </c>
-      <c r="K49" s="134" t="str">
+      <c r="K49" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOCT11OIS</v>
       </c>
-      <c r="L49" s="133" t="str">
+      <c r="L49" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K49,B49,B50,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCOCT11OIS#0000</v>
-      </c>
-      <c r="M49" s="132" t="str">
+        <v>GBP_YCONRH_MPCOCT11OIS#0008</v>
+      </c>
+      <c r="M49" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
         <v/>
       </c>
-      <c r="N49" s="131"/>
-      <c r="P49" s="126">
+      <c r="N49" s="126"/>
+      <c r="P49" s="121">
         <f>_xll.qlRateHelperEarliestDate(L49)</f>
         <v>40822</v>
       </c>
-      <c r="Q49" s="126">
+      <c r="Q49" s="121">
         <f>_xll.qlRateHelperLatestDate($L49)</f>
         <v>40857</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="141"/>
-      <c r="B50" s="140">
+      <c r="A50" s="136"/>
+      <c r="B50" s="135">
         <v>40857</v>
       </c>
-      <c r="C50" s="139" t="s">
+      <c r="C50" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="138" t="str">
+      <c r="D50" s="133" t="str">
         <f t="shared" si="4"/>
         <v>NOV11</v>
       </c>
-      <c r="E50" s="138" t="s">
+      <c r="E50" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G50" s="137" t="s">
+      <c r="F50" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H50" s="137" t="str">
+      <c r="G50" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H50" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I50" s="136">
-        <v>0</v>
-      </c>
-      <c r="J50" s="135" t="str">
+      <c r="I50" s="131">
+        <v>0</v>
+      </c>
+      <c r="J50" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCNOV11OIS_Quote</v>
       </c>
-      <c r="K50" s="134" t="str">
+      <c r="K50" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCNOV11OIS</v>
       </c>
-      <c r="L50" s="133" t="str">
+      <c r="L50" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K50,B50,B51,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCNOV11OIS#0000</v>
-      </c>
-      <c r="M50" s="132" t="str">
+        <v>GBP_YCONRH_MPCNOV11OIS#0008</v>
+      </c>
+      <c r="M50" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
         <v/>
       </c>
-      <c r="N50" s="131"/>
-      <c r="P50" s="126">
+      <c r="N50" s="126"/>
+      <c r="P50" s="121">
         <f>_xll.qlRateHelperEarliestDate(L50)</f>
         <v>40857</v>
       </c>
-      <c r="Q50" s="126">
+      <c r="Q50" s="121">
         <f>_xll.qlRateHelperLatestDate($L50)</f>
         <v>40885</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="141"/>
-      <c r="B51" s="140">
+      <c r="A51" s="136"/>
+      <c r="B51" s="135">
         <v>40885</v>
       </c>
-      <c r="C51" s="139" t="s">
+      <c r="C51" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="138" t="str">
+      <c r="D51" s="133" t="str">
         <f t="shared" si="4"/>
         <v>DEC11</v>
       </c>
-      <c r="E51" s="138" t="s">
+      <c r="E51" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G51" s="137" t="s">
+      <c r="F51" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H51" s="137" t="str">
+      <c r="G51" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I51" s="136">
-        <v>0</v>
-      </c>
-      <c r="J51" s="135" t="str">
+      <c r="I51" s="131">
+        <v>0</v>
+      </c>
+      <c r="J51" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCDEC11OIS_Quote</v>
       </c>
-      <c r="K51" s="134" t="str">
+      <c r="K51" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCDEC11OIS</v>
       </c>
-      <c r="L51" s="133" t="str">
+      <c r="L51" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K51,B51,B52,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCDEC11OIS#0000</v>
-      </c>
-      <c r="M51" s="132" t="str">
+        <v>GBP_YCONRH_MPCDEC11OIS#0008</v>
+      </c>
+      <c r="M51" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
         <v/>
       </c>
-      <c r="N51" s="131"/>
-      <c r="P51" s="126">
+      <c r="N51" s="126"/>
+      <c r="P51" s="121">
         <f>_xll.qlRateHelperEarliestDate(L51)</f>
         <v>40885</v>
       </c>
-      <c r="Q51" s="126">
+      <c r="Q51" s="121">
         <f>_xll.qlRateHelperLatestDate($L51)</f>
         <v>40913</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="141"/>
-      <c r="B52" s="140">
+      <c r="A52" s="136"/>
+      <c r="B52" s="135">
         <v>40913</v>
       </c>
-      <c r="C52" s="139" t="s">
+      <c r="C52" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D52" s="138" t="str">
+      <c r="D52" s="133" t="str">
         <f t="shared" si="4"/>
         <v>JAN12</v>
       </c>
-      <c r="E52" s="138" t="s">
+      <c r="E52" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="137" t="s">
+      <c r="F52" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H52" s="137" t="str">
+      <c r="G52" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I52" s="136">
-        <v>0</v>
-      </c>
-      <c r="J52" s="135" t="str">
+      <c r="I52" s="131">
+        <v>0</v>
+      </c>
+      <c r="J52" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJAN12OIS_Quote</v>
       </c>
-      <c r="K52" s="134" t="str">
+      <c r="K52" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCJAN12OIS</v>
       </c>
-      <c r="L52" s="133" t="str">
+      <c r="L52" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K52,B52,B53,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJAN12OIS#0000</v>
-      </c>
-      <c r="M52" s="132" t="str">
+        <v>GBP_YCONRH_MPCJAN12OIS#0008</v>
+      </c>
+      <c r="M52" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
         <v/>
       </c>
-      <c r="N52" s="131"/>
-      <c r="P52" s="126">
+      <c r="N52" s="126"/>
+      <c r="P52" s="121">
         <f>_xll.qlRateHelperEarliestDate(L52)</f>
         <v>40913</v>
       </c>
-      <c r="Q52" s="126">
+      <c r="Q52" s="121">
         <f>_xll.qlRateHelperLatestDate($L52)</f>
         <v>40948</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="141"/>
-      <c r="B53" s="140">
+      <c r="A53" s="136"/>
+      <c r="B53" s="135">
         <v>40948</v>
       </c>
-      <c r="C53" s="139" t="s">
+      <c r="C53" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="138" t="str">
+      <c r="D53" s="133" t="str">
         <f t="shared" si="4"/>
         <v>FEB12</v>
       </c>
-      <c r="E53" s="138" t="s">
+      <c r="E53" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="137" t="s">
+      <c r="F53" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H53" s="137" t="str">
+      <c r="G53" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I53" s="136">
-        <v>0</v>
-      </c>
-      <c r="J53" s="135" t="str">
+      <c r="I53" s="131">
+        <v>0</v>
+      </c>
+      <c r="J53" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCFEB12OIS_Quote</v>
       </c>
-      <c r="K53" s="134" t="str">
+      <c r="K53" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCFEB12OIS</v>
       </c>
-      <c r="L53" s="133" t="str">
+      <c r="L53" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K53,B53,B54,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCFEB12OIS#0000</v>
-      </c>
-      <c r="M53" s="132" t="str">
+        <v>GBP_YCONRH_MPCFEB12OIS#0008</v>
+      </c>
+      <c r="M53" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
         <v/>
       </c>
-      <c r="N53" s="131"/>
-      <c r="P53" s="126">
+      <c r="N53" s="126"/>
+      <c r="P53" s="121">
         <f>_xll.qlRateHelperEarliestDate(L53)</f>
         <v>40948</v>
       </c>
-      <c r="Q53" s="126">
+      <c r="Q53" s="121">
         <f>_xll.qlRateHelperLatestDate($L53)</f>
         <v>40976</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="141"/>
-      <c r="B54" s="140">
+      <c r="A54" s="136"/>
+      <c r="B54" s="135">
         <v>40976</v>
       </c>
-      <c r="C54" s="139" t="s">
+      <c r="C54" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="138" t="str">
+      <c r="D54" s="133" t="str">
         <f t="shared" si="4"/>
         <v>MAR12</v>
       </c>
-      <c r="E54" s="138" t="s">
+      <c r="E54" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G54" s="137" t="s">
+      <c r="F54" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H54" s="137" t="str">
+      <c r="G54" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I54" s="136">
-        <v>0</v>
-      </c>
-      <c r="J54" s="135" t="str">
+      <c r="I54" s="131">
+        <v>0</v>
+      </c>
+      <c r="J54" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCMAR12OIS_Quote</v>
       </c>
-      <c r="K54" s="134" t="str">
+      <c r="K54" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCMAR12OIS</v>
       </c>
-      <c r="L54" s="133" t="str">
+      <c r="L54" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K54,B54,B55,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCMAR12OIS#0000</v>
-      </c>
-      <c r="M54" s="132" t="str">
+        <v>GBP_YCONRH_MPCMAR12OIS#0008</v>
+      </c>
+      <c r="M54" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
         <v/>
       </c>
-      <c r="N54" s="131"/>
-      <c r="P54" s="126">
+      <c r="N54" s="126"/>
+      <c r="P54" s="121">
         <f>_xll.qlRateHelperEarliestDate(L54)</f>
         <v>40976</v>
       </c>
-      <c r="Q54" s="126">
+      <c r="Q54" s="121">
         <f>_xll.qlRateHelperLatestDate($L54)</f>
         <v>41004</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="141"/>
-      <c r="B55" s="140">
+      <c r="A55" s="136"/>
+      <c r="B55" s="135">
         <v>41004</v>
       </c>
-      <c r="C55" s="139" t="s">
+      <c r="C55" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="138" t="str">
+      <c r="D55" s="133" t="str">
         <f t="shared" si="4"/>
         <v>APR12</v>
       </c>
-      <c r="E55" s="138" t="s">
+      <c r="E55" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="137" t="s">
+      <c r="F55" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H55" s="137" t="str">
+      <c r="G55" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I55" s="136">
-        <v>0</v>
-      </c>
-      <c r="J55" s="135" t="str">
+      <c r="I55" s="131">
+        <v>0</v>
+      </c>
+      <c r="J55" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCAPR12OIS_Quote</v>
       </c>
-      <c r="K55" s="134" t="str">
+      <c r="K55" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCAPR12OIS</v>
       </c>
-      <c r="L55" s="133" t="str">
+      <c r="L55" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K55,B55,B56,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCAPR12OIS#0000</v>
-      </c>
-      <c r="M55" s="132" t="str">
+        <v>GBP_YCONRH_MPCAPR12OIS#0008</v>
+      </c>
+      <c r="M55" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
         <v/>
       </c>
-      <c r="N55" s="131"/>
-      <c r="P55" s="126">
+      <c r="N55" s="126"/>
+      <c r="P55" s="121">
         <f>_xll.qlRateHelperEarliestDate(L55)</f>
         <v>41004</v>
       </c>
-      <c r="Q55" s="126">
+      <c r="Q55" s="121">
         <f>_xll.qlRateHelperLatestDate($L55)</f>
         <v>41039</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="141"/>
-      <c r="B56" s="140">
+      <c r="A56" s="136"/>
+      <c r="B56" s="135">
         <v>41039</v>
       </c>
-      <c r="C56" s="139" t="s">
+      <c r="C56" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="138" t="str">
+      <c r="D56" s="133" t="str">
         <f t="shared" si="4"/>
         <v>MAY12</v>
       </c>
-      <c r="E56" s="138" t="s">
+      <c r="E56" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="137" t="s">
+      <c r="F56" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H56" s="137" t="str">
+      <c r="G56" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I56" s="136">
-        <v>0</v>
-      </c>
-      <c r="J56" s="135" t="str">
+      <c r="I56" s="131">
+        <v>0</v>
+      </c>
+      <c r="J56" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCMAY12OIS_Quote</v>
       </c>
-      <c r="K56" s="134" t="str">
+      <c r="K56" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCMAY12OIS</v>
       </c>
-      <c r="L56" s="133" t="str">
+      <c r="L56" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K56,B56,B57,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCMAY12OIS#0000</v>
-      </c>
-      <c r="M56" s="132" t="str">
+        <v>GBP_YCONRH_MPCMAY12OIS#0008</v>
+      </c>
+      <c r="M56" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
         <v/>
       </c>
-      <c r="N56" s="131"/>
-      <c r="P56" s="126">
+      <c r="N56" s="126"/>
+      <c r="P56" s="121">
         <f>_xll.qlRateHelperEarliestDate(L56)</f>
         <v>41039</v>
       </c>
-      <c r="Q56" s="126">
+      <c r="Q56" s="121">
         <f>_xll.qlRateHelperLatestDate($L56)</f>
         <v>41067</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="141"/>
-      <c r="B57" s="140">
+      <c r="A57" s="136"/>
+      <c r="B57" s="135">
         <v>41067</v>
       </c>
-      <c r="C57" s="139" t="s">
+      <c r="C57" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="138" t="str">
+      <c r="D57" s="133" t="str">
         <f t="shared" si="4"/>
         <v>JUN12</v>
       </c>
-      <c r="E57" s="138" t="s">
+      <c r="E57" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F57" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" s="137" t="s">
+      <c r="F57" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H57" s="137" t="str">
+      <c r="G57" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I57" s="136">
-        <v>0</v>
-      </c>
-      <c r="J57" s="135" t="str">
+      <c r="I57" s="131">
+        <v>0</v>
+      </c>
+      <c r="J57" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJUN12OIS_Quote</v>
       </c>
-      <c r="K57" s="134" t="str">
+      <c r="K57" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCJUN12OIS</v>
       </c>
-      <c r="L57" s="133" t="str">
+      <c r="L57" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K57,B57,B58,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJUN12OIS#0000</v>
-      </c>
-      <c r="M57" s="132" t="str">
+        <v>GBP_YCONRH_MPCJUN12OIS#0008</v>
+      </c>
+      <c r="M57" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
         <v/>
       </c>
-      <c r="N57" s="131"/>
-      <c r="P57" s="126">
+      <c r="N57" s="126"/>
+      <c r="P57" s="121">
         <f>_xll.qlRateHelperEarliestDate(L57)</f>
         <v>41067</v>
       </c>
-      <c r="Q57" s="126">
+      <c r="Q57" s="121">
         <f>_xll.qlRateHelperLatestDate($L57)</f>
         <v>41095</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="141"/>
-      <c r="B58" s="140">
+      <c r="A58" s="136"/>
+      <c r="B58" s="135">
         <v>41095</v>
       </c>
-      <c r="C58" s="139" t="s">
+      <c r="C58" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="138" t="str">
+      <c r="D58" s="133" t="str">
         <f t="shared" si="4"/>
         <v>JUL12</v>
       </c>
-      <c r="E58" s="138" t="s">
+      <c r="E58" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" s="137" t="s">
+      <c r="F58" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H58" s="137" t="str">
+      <c r="G58" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I58" s="136">
-        <v>0</v>
-      </c>
-      <c r="J58" s="135" t="str">
+      <c r="I58" s="131">
+        <v>0</v>
+      </c>
+      <c r="J58" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCJUL12OIS_Quote</v>
       </c>
-      <c r="K58" s="134" t="str">
+      <c r="K58" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCJUL12OIS</v>
       </c>
-      <c r="L58" s="133" t="str">
+      <c r="L58" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K58,B58,B59,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCJUL12OIS#0000</v>
-      </c>
-      <c r="M58" s="132" t="str">
+        <v>GBP_YCONRH_MPCJUL12OIS#0008</v>
+      </c>
+      <c r="M58" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
         <v/>
       </c>
-      <c r="N58" s="131"/>
-      <c r="P58" s="126">
+      <c r="N58" s="126"/>
+      <c r="P58" s="121">
         <f>_xll.qlRateHelperEarliestDate(L58)</f>
         <v>41095</v>
       </c>
-      <c r="Q58" s="126">
+      <c r="Q58" s="121">
         <f>_xll.qlRateHelperLatestDate($L58)</f>
         <v>41123</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="141"/>
-      <c r="B59" s="140">
+      <c r="A59" s="136"/>
+      <c r="B59" s="135">
         <v>41123</v>
       </c>
-      <c r="C59" s="139" t="s">
+      <c r="C59" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="138" t="str">
+      <c r="D59" s="133" t="str">
         <f t="shared" si="4"/>
         <v>AUG12</v>
       </c>
-      <c r="E59" s="138" t="s">
+      <c r="E59" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G59" s="137" t="s">
+      <c r="F59" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H59" s="137" t="str">
+      <c r="G59" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H59" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I59" s="136">
-        <v>0</v>
-      </c>
-      <c r="J59" s="135" t="str">
+      <c r="I59" s="131">
+        <v>0</v>
+      </c>
+      <c r="J59" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCAUG12OIS_Quote</v>
       </c>
-      <c r="K59" s="134" t="str">
+      <c r="K59" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCAUG12OIS</v>
       </c>
-      <c r="L59" s="133" t="str">
+      <c r="L59" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K59,B59,B60,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCAUG12OIS#0000</v>
-      </c>
-      <c r="M59" s="132" t="str">
+        <v>GBP_YCONRH_MPCAUG12OIS#0008</v>
+      </c>
+      <c r="M59" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
         <v/>
       </c>
-      <c r="N59" s="131"/>
-      <c r="P59" s="126">
+      <c r="N59" s="126"/>
+      <c r="P59" s="121">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
         <v>41123</v>
       </c>
-      <c r="Q59" s="126">
+      <c r="Q59" s="121">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
         <v>41158</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="141"/>
-      <c r="B60" s="140">
+      <c r="A60" s="136"/>
+      <c r="B60" s="135">
         <v>41158</v>
       </c>
-      <c r="C60" s="139" t="s">
+      <c r="C60" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="138" t="str">
+      <c r="D60" s="133" t="str">
         <f t="shared" si="4"/>
         <v>SEP12</v>
       </c>
-      <c r="E60" s="138" t="s">
+      <c r="E60" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="137" t="s">
+      <c r="F60" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H60" s="137" t="str">
+      <c r="G60" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H60" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I60" s="136">
-        <v>0</v>
-      </c>
-      <c r="J60" s="135" t="str">
+      <c r="I60" s="131">
+        <v>0</v>
+      </c>
+      <c r="J60" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCSEP12OIS_Quote</v>
       </c>
-      <c r="K60" s="134" t="str">
+      <c r="K60" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCSEP12OIS</v>
       </c>
-      <c r="L60" s="133" t="str">
+      <c r="L60" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K60,B60,B61,J60,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCSEP12OIS#0000</v>
-      </c>
-      <c r="M60" s="132" t="str">
+        <v>GBP_YCONRH_MPCSEP12OIS#0008</v>
+      </c>
+      <c r="M60" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L60)</f>
         <v/>
       </c>
-      <c r="N60" s="131"/>
-      <c r="P60" s="126">
+      <c r="N60" s="126"/>
+      <c r="P60" s="121">
         <f>_xll.qlRateHelperEarliestDate(L60)</f>
         <v>41158</v>
       </c>
-      <c r="Q60" s="126">
+      <c r="Q60" s="121">
         <f>_xll.qlRateHelperLatestDate($L60)</f>
         <v>41186</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="141"/>
-      <c r="B61" s="140">
+      <c r="A61" s="136"/>
+      <c r="B61" s="135">
         <v>41186</v>
       </c>
-      <c r="C61" s="139" t="s">
+      <c r="C61" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="138" t="str">
+      <c r="D61" s="133" t="str">
         <f t="shared" si="4"/>
         <v>OCT12</v>
       </c>
-      <c r="E61" s="138" t="s">
+      <c r="E61" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F61" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G61" s="137" t="s">
+      <c r="F61" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H61" s="137" t="str">
+      <c r="G61" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I61" s="136">
-        <v>0</v>
-      </c>
-      <c r="J61" s="135" t="str">
+      <c r="I61" s="131">
+        <v>0</v>
+      </c>
+      <c r="J61" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOCT12OIS_Quote</v>
       </c>
-      <c r="K61" s="134" t="str">
+      <c r="K61" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOCT12OIS</v>
       </c>
-      <c r="L61" s="133" t="str">
+      <c r="L61" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCOCT12OIS#0000</v>
-      </c>
-      <c r="M61" s="132" t="str">
+        <v>GBP_YCONRH_MPCOCT12OIS#0008</v>
+      </c>
+      <c r="M61" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L61)</f>
         <v/>
       </c>
-      <c r="N61" s="131"/>
-      <c r="P61" s="126">
+      <c r="N61" s="126"/>
+      <c r="P61" s="121">
         <f>_xll.qlRateHelperEarliestDate(L61)</f>
         <v>41186</v>
       </c>
-      <c r="Q61" s="126">
+      <c r="Q61" s="121">
         <f>_xll.qlRateHelperLatestDate($L61)</f>
         <v>41221</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="141"/>
-      <c r="B62" s="140">
+      <c r="A62" s="136"/>
+      <c r="B62" s="135">
         <v>41221</v>
       </c>
-      <c r="C62" s="139" t="s">
+      <c r="C62" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="138" t="str">
+      <c r="D62" s="133" t="str">
         <f t="shared" si="4"/>
         <v>NOV12</v>
       </c>
-      <c r="E62" s="138" t="s">
+      <c r="E62" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="137" t="s">
+      <c r="F62" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H62" s="137" t="str">
+      <c r="G62" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I62" s="136">
-        <v>0</v>
-      </c>
-      <c r="J62" s="135" t="str">
+      <c r="I62" s="131">
+        <v>0</v>
+      </c>
+      <c r="J62" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCNOV12OIS_Quote</v>
       </c>
-      <c r="K62" s="134" t="str">
+      <c r="K62" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCNOV12OIS</v>
       </c>
-      <c r="L62" s="133" t="str">
+      <c r="L62" s="128" t="str">
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_MPCNOV12OIS#0000</v>
-      </c>
-      <c r="M62" s="132" t="str">
+        <v>GBP_YCONRH_MPCNOV12OIS#0008</v>
+      </c>
+      <c r="M62" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L62)</f>
         <v/>
       </c>
-      <c r="N62" s="131"/>
-      <c r="P62" s="126">
+      <c r="N62" s="126"/>
+      <c r="P62" s="121">
         <f>_xll.qlRateHelperEarliestDate(L62)</f>
         <v>41221</v>
       </c>
-      <c r="Q62" s="126">
+      <c r="Q62" s="121">
         <f>_xll.qlRateHelperLatestDate($L62)</f>
         <v>41249</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="141"/>
-      <c r="B63" s="140">
+      <c r="A63" s="136"/>
+      <c r="B63" s="135">
         <v>41249</v>
       </c>
-      <c r="C63" s="139" t="s">
+      <c r="C63" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="138" t="str">
+      <c r="D63" s="133" t="str">
         <f t="shared" si="4"/>
         <v>DEC12</v>
       </c>
-      <c r="E63" s="138" t="s">
+      <c r="E63" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F63" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G63" s="137" t="s">
+      <c r="F63" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H63" s="137" t="str">
+      <c r="G63" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H63" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I63" s="136">
-        <v>0</v>
-      </c>
-      <c r="J63" s="135" t="str">
+      <c r="I63" s="131">
+        <v>0</v>
+      </c>
+      <c r="J63" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCDEC12OIS_Quote</v>
       </c>
-      <c r="K63" s="134" t="str">
+      <c r="K63" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCDEC12OIS</v>
       </c>
-      <c r="L63" s="133" t="e">
+      <c r="L63" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="132" t="str">
+      <c r="M63" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N63" s="131"/>
-      <c r="P63" s="126" t="e">
+      <c r="N63" s="126"/>
+      <c r="P63" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q63" s="126" t="e">
+      <c r="Q63" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L63)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="141"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="139" t="s">
+      <c r="A64" s="136"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="138"/>
-      <c r="E64" s="138" t="s">
+      <c r="D64" s="133"/>
+      <c r="E64" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F64" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G64" s="137" t="s">
+      <c r="F64" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H64" s="137" t="str">
+      <c r="G64" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H64" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I64" s="136">
-        <v>0</v>
-      </c>
-      <c r="J64" s="135" t="str">
+      <c r="I64" s="131">
+        <v>0</v>
+      </c>
+      <c r="J64" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K64" s="134" t="str">
+      <c r="K64" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L64" s="133" t="e">
+      <c r="L64" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="132" t="str">
+      <c r="M64" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N64" s="131"/>
-      <c r="P64" s="126" t="e">
+      <c r="N64" s="126"/>
+      <c r="P64" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q64" s="126" t="e">
+      <c r="Q64" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L64)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="141"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="139" t="s">
+      <c r="A65" s="136"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="138"/>
-      <c r="E65" s="138" t="s">
+      <c r="D65" s="133"/>
+      <c r="E65" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G65" s="137" t="s">
+      <c r="F65" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H65" s="137" t="str">
+      <c r="G65" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I65" s="136">
-        <v>0</v>
-      </c>
-      <c r="J65" s="135" t="str">
+      <c r="I65" s="131">
+        <v>0</v>
+      </c>
+      <c r="J65" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K65" s="134" t="str">
+      <c r="K65" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L65" s="133" t="e">
+      <c r="L65" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="132" t="str">
+      <c r="M65" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N65" s="131"/>
-      <c r="P65" s="126" t="e">
+      <c r="N65" s="126"/>
+      <c r="P65" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q65" s="126" t="e">
+      <c r="Q65" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L65)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="141"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="139" t="s">
+      <c r="A66" s="136"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="138"/>
-      <c r="E66" s="138" t="s">
+      <c r="D66" s="133"/>
+      <c r="E66" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F66" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="137" t="s">
+      <c r="F66" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H66" s="137" t="str">
+      <c r="G66" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I66" s="136">
-        <v>0</v>
-      </c>
-      <c r="J66" s="135" t="str">
+      <c r="I66" s="131">
+        <v>0</v>
+      </c>
+      <c r="J66" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K66" s="134" t="str">
+      <c r="K66" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L66" s="133" t="e">
+      <c r="L66" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="132" t="str">
+      <c r="M66" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N66" s="131"/>
-      <c r="P66" s="126" t="e">
+      <c r="N66" s="126"/>
+      <c r="P66" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q66" s="126" t="e">
+      <c r="Q66" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L66)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="141"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="139" t="s">
+      <c r="A67" s="136"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="138"/>
-      <c r="E67" s="138" t="s">
+      <c r="D67" s="133"/>
+      <c r="E67" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F67" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G67" s="137" t="s">
+      <c r="F67" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H67" s="137" t="str">
+      <c r="G67" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H67" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I67" s="136">
-        <v>0</v>
-      </c>
-      <c r="J67" s="135" t="str">
+      <c r="I67" s="131">
+        <v>0</v>
+      </c>
+      <c r="J67" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K67" s="134" t="str">
+      <c r="K67" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L67" s="133" t="e">
+      <c r="L67" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="132" t="str">
+      <c r="M67" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N67" s="131"/>
-      <c r="P67" s="126" t="e">
+      <c r="N67" s="126"/>
+      <c r="P67" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q67" s="126" t="e">
+      <c r="Q67" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L67)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="141"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="139" t="s">
+      <c r="A68" s="136"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138" t="s">
+      <c r="D68" s="133"/>
+      <c r="E68" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F68" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" s="137" t="s">
+      <c r="F68" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H68" s="137" t="str">
+      <c r="G68" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H68" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I68" s="136">
-        <v>0</v>
-      </c>
-      <c r="J68" s="135" t="str">
+      <c r="I68" s="131">
+        <v>0</v>
+      </c>
+      <c r="J68" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K68" s="134" t="str">
+      <c r="K68" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L68" s="133" t="e">
+      <c r="L68" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="132" t="str">
+      <c r="M68" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N68" s="131"/>
-      <c r="P68" s="126" t="e">
+      <c r="N68" s="126"/>
+      <c r="P68" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q68" s="126" t="e">
+      <c r="Q68" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L68)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="141"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="139" t="s">
+      <c r="A69" s="136"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D69" s="138"/>
-      <c r="E69" s="138" t="s">
+      <c r="D69" s="133"/>
+      <c r="E69" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G69" s="137" t="s">
+      <c r="F69" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H69" s="137" t="str">
+      <c r="G69" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H69" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I69" s="136">
-        <v>0</v>
-      </c>
-      <c r="J69" s="135" t="str">
+      <c r="I69" s="131">
+        <v>0</v>
+      </c>
+      <c r="J69" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K69" s="134" t="str">
+      <c r="K69" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L69" s="133" t="e">
+      <c r="L69" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="132" t="str">
+      <c r="M69" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N69" s="131"/>
-      <c r="P69" s="126" t="e">
+      <c r="N69" s="126"/>
+      <c r="P69" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q69" s="126" t="e">
+      <c r="Q69" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L69)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="141"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="139" t="s">
+      <c r="A70" s="136"/>
+      <c r="B70" s="135"/>
+      <c r="C70" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="138"/>
-      <c r="E70" s="138" t="s">
+      <c r="D70" s="133"/>
+      <c r="E70" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F70" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G70" s="137" t="s">
+      <c r="F70" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H70" s="137" t="str">
+      <c r="G70" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H70" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I70" s="136">
-        <v>0</v>
-      </c>
-      <c r="J70" s="135" t="str">
+      <c r="I70" s="131">
+        <v>0</v>
+      </c>
+      <c r="J70" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K70" s="134" t="str">
+      <c r="K70" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L70" s="133" t="e">
+      <c r="L70" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="132" t="str">
+      <c r="M70" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N70" s="131"/>
-      <c r="P70" s="126" t="e">
+      <c r="N70" s="126"/>
+      <c r="P70" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q70" s="126" t="e">
+      <c r="Q70" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L70)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="141"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="139" t="s">
+      <c r="A71" s="136"/>
+      <c r="B71" s="135"/>
+      <c r="C71" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="138"/>
-      <c r="E71" s="138" t="s">
+      <c r="D71" s="133"/>
+      <c r="E71" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F71" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G71" s="137" t="s">
+      <c r="F71" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H71" s="137" t="str">
+      <c r="G71" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H71" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I71" s="136">
-        <v>0</v>
-      </c>
-      <c r="J71" s="135" t="str">
+      <c r="I71" s="131">
+        <v>0</v>
+      </c>
+      <c r="J71" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K71" s="134" t="str">
+      <c r="K71" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L71" s="133" t="e">
+      <c r="L71" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="132" t="str">
+      <c r="M71" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N71" s="131"/>
-      <c r="P71" s="126" t="e">
+      <c r="N71" s="126"/>
+      <c r="P71" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q71" s="126" t="e">
+      <c r="Q71" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L71)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="141"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="139" t="s">
+      <c r="A72" s="136"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="138"/>
-      <c r="E72" s="138" t="s">
+      <c r="D72" s="133"/>
+      <c r="E72" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" s="137" t="s">
+      <c r="F72" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H72" s="137" t="str">
+      <c r="G72" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H72" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I72" s="136">
-        <v>0</v>
-      </c>
-      <c r="J72" s="135" t="str">
+      <c r="I72" s="131">
+        <v>0</v>
+      </c>
+      <c r="J72" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K72" s="134" t="str">
+      <c r="K72" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L72" s="133" t="e">
+      <c r="L72" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="132" t="str">
+      <c r="M72" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N72" s="131"/>
-      <c r="P72" s="126" t="e">
+      <c r="N72" s="126"/>
+      <c r="P72" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q72" s="126" t="e">
+      <c r="Q72" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L72)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="141"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="139" t="s">
+      <c r="A73" s="136"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="138"/>
-      <c r="E73" s="138" t="s">
+      <c r="D73" s="133"/>
+      <c r="E73" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F73" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" s="137" t="s">
+      <c r="F73" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H73" s="137" t="str">
+      <c r="G73" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H73" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I73" s="136">
-        <v>0</v>
-      </c>
-      <c r="J73" s="135" t="str">
+      <c r="I73" s="131">
+        <v>0</v>
+      </c>
+      <c r="J73" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K73" s="134" t="str">
+      <c r="K73" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L73" s="133" t="e">
+      <c r="L73" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M73" s="132" t="str">
+      <c r="M73" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N73" s="131"/>
-      <c r="P73" s="126" t="e">
+      <c r="N73" s="126"/>
+      <c r="P73" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q73" s="126" t="e">
+      <c r="Q73" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L73)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="141"/>
-      <c r="B74" s="140"/>
-      <c r="C74" s="139" t="s">
+      <c r="A74" s="136"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="D74" s="138"/>
-      <c r="E74" s="138" t="s">
+      <c r="D74" s="133"/>
+      <c r="E74" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G74" s="137" t="s">
+      <c r="F74" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H74" s="137" t="str">
+      <c r="G74" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="H74" s="132" t="str">
         <f t="shared" si="5"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I74" s="136">
-        <v>0</v>
-      </c>
-      <c r="J74" s="135" t="str">
+      <c r="I74" s="131">
+        <v>0</v>
+      </c>
+      <c r="J74" s="130" t="str">
         <f t="shared" si="6"/>
         <v>GBPMPCOIS_Quote</v>
       </c>
-      <c r="K74" s="134" t="str">
+      <c r="K74" s="129" t="str">
         <f t="shared" si="7"/>
         <v>GBP_YCONRH_MPCOIS</v>
       </c>
-      <c r="L74" s="133" t="e">
+      <c r="L74" s="128" t="e">
         <f>_xll.qlDatedOISRateHelper(K74,B74,#REF!,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M74" s="132" t="str">
+      <c r="M74" s="127" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
         <v>qlDatedOISRateHelper - Error converting parameter 'StartDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
-      <c r="N74" s="131"/>
-      <c r="P74" s="126" t="e">
+      <c r="N74" s="126"/>
+      <c r="P74" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q74" s="126" t="e">
+      <c r="Q74" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L74)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="130"/>
-      <c r="B75" s="129"/>
-      <c r="C75" s="129"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="129"/>
-      <c r="I75" s="129"/>
-      <c r="J75" s="129"/>
-      <c r="K75" s="129"/>
-      <c r="L75" s="128"/>
-      <c r="M75" s="128"/>
-      <c r="N75" s="127"/>
-      <c r="P75" s="126" t="e">
+      <c r="A75" s="125"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="124"/>
+      <c r="J75" s="124"/>
+      <c r="K75" s="124"/>
+      <c r="L75" s="123"/>
+      <c r="M75" s="123"/>
+      <c r="N75" s="122"/>
+      <c r="P75" s="121" t="e">
         <f>_xll.qlRateHelperEarliestDate(L75)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q75" s="126" t="e">
+      <c r="Q75" s="121" t="e">
         <f>_xll.qlRateHelperLatestDate($L75)</f>
         <v>#NUM!</v>
       </c>
@@ -8372,260 +8389,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="103" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="103" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="103" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="103" customWidth="1"/>
-    <col min="7" max="16384" width="8" style="103"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="125" t="str">
-        <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="114" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="160" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="162"/>
-    </row>
-    <row r="3" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="123"/>
-    </row>
-    <row r="4" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="120" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="119"/>
-    </row>
-    <row r="5" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="119"/>
-    </row>
-    <row r="6" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="118"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="108" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="119"/>
-    </row>
-    <row r="7" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="118"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="119"/>
-    </row>
-    <row r="8" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="118"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="122" t="str">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
-      </c>
-      <c r="E8" s="119"/>
-    </row>
-    <row r="9" spans="1:22" s="114" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="118"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="120" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="112" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="119"/>
-    </row>
-    <row r="10" spans="1:22" s="114" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="115"/>
-    </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="160" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
-      <c r="V12" s="103" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="110"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="107"/>
-    </row>
-    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="110"/>
-      <c r="C14" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="107"/>
-      <c r="V14" s="103" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="110"/>
-      <c r="C15" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="107"/>
-    </row>
-    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="110"/>
-      <c r="C16" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="108" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="107"/>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="110"/>
-      <c r="C17" s="109" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="108" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="107"/>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="110"/>
-      <c r="C18" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="107"/>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="110"/>
-      <c r="C19" s="109" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="107"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="108" t="str">
-        <f>PROPER(Currency)&amp;"YC"</f>
-        <v>GbpYC</v>
-      </c>
-      <c r="E20" s="107"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="110"/>
-      <c r="C21" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="108" t="str">
-        <f>PROPER(Currency)&amp;"YCSTD"</f>
-        <v>GbpYCSTD</v>
-      </c>
-      <c r="E21" s="107"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="106"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="104"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B12:E12"/>
-  </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Libor,ibor"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17">
-      <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"EUR,USD,GBP,JPY,CHF"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8646,11 +8415,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="72" t="s">
         <v>34</v>
       </c>
@@ -9139,9 +8908,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="11.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71">
+      <c r="A16" s="71" t="e">
         <f>_xll.qlECBNextDate(_xll.qlSettingsEvaluationDate(Trigger)+2)</f>
-        <v>41619</v>
+        <v>#NUM!</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>120</v>
@@ -9149,21 +8918,21 @@
       <c r="C16" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="89" t="str">
+      <c r="D16" s="89" t="e">
         <f>_xll.qlECBcode(A16)</f>
-        <v>DEC13</v>
-      </c>
-      <c r="E16" s="90" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" s="90" t="e">
         <f t="shared" ref="E16:E27" si="1">RateHelperPrefix&amp;"_"&amp;$B16&amp;$D16&amp;$C16</f>
-        <v>GBP_YCONRH_MPCDEC13OIS</v>
+        <v>#NUM!</v>
       </c>
       <c r="F16" s="91" t="e">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G16" s="91" t="e">
         <f>_xll.qlSwapRateHelperSpread($E16,Trigger)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H16" s="77" t="b">
         <v>0</v>
@@ -9176,11 +8945,11 @@
       </c>
       <c r="K16" s="93" t="e">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L16" s="94" t="e">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M16" s="95"/>
     </row>
@@ -9958,9 +9727,9 @@
         <f t="shared" ref="E35:E58" si="3">RateHelperPrefix&amp;"_"&amp;$B35&amp;$C35&amp;$D35</f>
         <v>GBP_YCONRH_SWOIS</v>
       </c>
-      <c r="F35" s="91" t="e">
+      <c r="F35" s="91">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.15E-3</v>
       </c>
       <c r="G35" s="91" t="e">
         <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
@@ -9977,11 +9746,11 @@
       </c>
       <c r="K35" s="93">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L35" s="94">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41621</v>
+        <v>41624</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -9996,9 +9765,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_2WOIS</v>
       </c>
-      <c r="F36" s="76" t="e">
+      <c r="F36" s="76">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.1625000000000004E-3</v>
       </c>
       <c r="G36" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
@@ -10015,11 +9784,11 @@
       </c>
       <c r="K36" s="78">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L36" s="79">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41628</v>
+        <v>41631</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -10053,11 +9822,11 @@
       </c>
       <c r="K37" s="78">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L37" s="79">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41635</v>
+        <v>41638</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -10072,9 +9841,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_1MOIS</v>
       </c>
-      <c r="F38" s="76" t="e">
+      <c r="F38" s="76">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.1625000000000004E-3</v>
       </c>
       <c r="G38" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
@@ -10091,11 +9860,11 @@
       </c>
       <c r="K38" s="78">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L38" s="79">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41645</v>
+        <v>41648</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -10110,9 +9879,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_2MOIS</v>
       </c>
-      <c r="F39" s="76" t="e">
+      <c r="F39" s="76">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.1250000000000002E-3</v>
       </c>
       <c r="G39" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E39,Trigger)</f>
@@ -10129,11 +9898,11 @@
       </c>
       <c r="K39" s="78">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L39" s="79">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41676</v>
+        <v>41680</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -10148,9 +9917,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_3MOIS</v>
       </c>
-      <c r="F40" s="76" t="e">
+      <c r="F40" s="76">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.0875E-3</v>
       </c>
       <c r="G40" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
@@ -10167,11 +9936,11 @@
       </c>
       <c r="K40" s="78">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L40" s="79">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41704</v>
+        <v>41708</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -10186,9 +9955,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_4MOIS</v>
       </c>
-      <c r="F41" s="76" t="e">
+      <c r="F41" s="76">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.0375000000000003E-3</v>
       </c>
       <c r="G41" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
@@ -10205,11 +9974,11 @@
       </c>
       <c r="K41" s="78">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L41" s="79">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41736</v>
+        <v>41738</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -10224,9 +9993,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_5MOIS</v>
       </c>
-      <c r="F42" s="76" t="e">
+      <c r="F42" s="76">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G42" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
@@ -10243,11 +10012,11 @@
       </c>
       <c r="K42" s="78">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L42" s="79">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41765</v>
+        <v>41768</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -10262,9 +10031,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_6MOIS</v>
       </c>
-      <c r="F43" s="76" t="e">
+      <c r="F43" s="76">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.9624999999999999E-3</v>
       </c>
       <c r="G43" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
@@ -10281,11 +10050,11 @@
       </c>
       <c r="K43" s="78">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L43" s="79">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41796</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -10300,9 +10069,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_7MOIS</v>
       </c>
-      <c r="F44" s="76" t="e">
+      <c r="F44" s="76">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.9249999999999997E-3</v>
       </c>
       <c r="G44" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
@@ -10319,11 +10088,11 @@
       </c>
       <c r="K44" s="78">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L44" s="79">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41827</v>
+        <v>41829</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -10338,9 +10107,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_8MOIS</v>
       </c>
-      <c r="F45" s="76" t="e">
+      <c r="F45" s="76">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="G45" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
@@ -10357,11 +10126,11 @@
       </c>
       <c r="K45" s="78">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L45" s="79">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>41857</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -10376,9 +10145,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_9MOIS</v>
       </c>
-      <c r="F46" s="76" t="e">
+      <c r="F46" s="76">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.8624999999999996E-3</v>
       </c>
       <c r="G46" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
@@ -10395,11 +10164,11 @@
       </c>
       <c r="K46" s="78">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L46" s="79">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>41890</v>
+        <v>41891</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -10414,9 +10183,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_10MOIS</v>
       </c>
-      <c r="F47" s="76" t="e">
+      <c r="F47" s="76">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.8250000000000003E-3</v>
       </c>
       <c r="G47" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E47,Trigger)</f>
@@ -10433,11 +10202,11 @@
       </c>
       <c r="K47" s="78">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L47" s="79">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>41918</v>
+        <v>41921</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -10452,9 +10221,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_11MOIS</v>
       </c>
-      <c r="F48" s="76" t="e">
+      <c r="F48" s="76">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.8E-3</v>
       </c>
       <c r="G48" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
@@ -10471,11 +10240,11 @@
       </c>
       <c r="K48" s="78">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L48" s="79">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>41949</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -10490,9 +10259,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_1YOIS</v>
       </c>
-      <c r="F49" s="76" t="e">
+      <c r="F49" s="76">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.7750000000000001E-3</v>
       </c>
       <c r="G49" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
@@ -10509,11 +10278,11 @@
       </c>
       <c r="K49" s="78">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L49" s="79">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>41981</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -10528,9 +10297,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_15MOIS</v>
       </c>
-      <c r="F50" s="76" t="e">
+      <c r="F50" s="76">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.7375000000000004E-3</v>
       </c>
       <c r="G50" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
@@ -10547,11 +10316,11 @@
       </c>
       <c r="K50" s="78">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L50" s="79">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42069</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -10566,9 +10335,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_18MOIS</v>
       </c>
-      <c r="F51" s="76" t="e">
+      <c r="F51" s="76">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="G51" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
@@ -10585,11 +10354,11 @@
       </c>
       <c r="K51" s="78">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L51" s="79">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42163</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -10623,11 +10392,11 @@
       </c>
       <c r="K52" s="78">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L52" s="79">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42254</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -10642,9 +10411,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_2YOIS</v>
       </c>
-      <c r="F53" s="76" t="e">
+      <c r="F53" s="76">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.9249999999999997E-3</v>
       </c>
       <c r="G53" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
@@ -10661,11 +10430,11 @@
       </c>
       <c r="K53" s="78">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L53" s="79">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42345</v>
+        <v>42347</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -10680,9 +10449,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_3YOIS</v>
       </c>
-      <c r="F54" s="76" t="e">
+      <c r="F54" s="76">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.8374999999999998E-3</v>
       </c>
       <c r="G54" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
@@ -10699,11 +10468,11 @@
       </c>
       <c r="K54" s="78">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L54" s="79">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42710</v>
+        <v>42713</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -10718,9 +10487,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_4YOIS</v>
       </c>
-      <c r="F55" s="76" t="e">
+      <c r="F55" s="76">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>#NUM!</v>
+        <v>6.4124999999999998E-3</v>
       </c>
       <c r="G55" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
@@ -10737,11 +10506,11 @@
       </c>
       <c r="K55" s="78">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L55" s="79">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>43075</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -10756,9 +10525,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_5YOIS</v>
       </c>
-      <c r="F56" s="76" t="e">
+      <c r="F56" s="76">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>#NUM!</v>
+        <v>8.3499999999999998E-3</v>
       </c>
       <c r="G56" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
@@ -10775,11 +10544,11 @@
       </c>
       <c r="K56" s="78">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L56" s="79">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>43440</v>
+        <v>43444</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -10794,9 +10563,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_6YOIS</v>
       </c>
-      <c r="F57" s="76" t="e">
+      <c r="F57" s="76">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.0387499999999999E-2</v>
       </c>
       <c r="G57" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
@@ -10813,11 +10582,11 @@
       </c>
       <c r="K57" s="78">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L57" s="79">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>43805</v>
+        <v>43808</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -10832,9 +10601,9 @@
         <f t="shared" si="3"/>
         <v>GBP_YCONRH_7YOIS</v>
       </c>
-      <c r="F58" s="76" t="e">
+      <c r="F58" s="76">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="G58" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
@@ -10851,11 +10620,11 @@
       </c>
       <c r="K58" s="78">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L58" s="79">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>44172</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -10870,9 +10639,9 @@
         <f t="shared" ref="E59:E85" si="4">RateHelperPrefix&amp;"_"&amp;$B59&amp;$C59&amp;$D59</f>
         <v>GBP_YCONRH_8YOIS</v>
       </c>
-      <c r="F59" s="76" t="e">
+      <c r="F59" s="76">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.4562499999999999E-2</v>
       </c>
       <c r="G59" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
@@ -10889,11 +10658,11 @@
       </c>
       <c r="K59" s="78">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L59" s="79">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>44536</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -10908,9 +10677,9 @@
         <f t="shared" si="4"/>
         <v>GBP_YCONRH_9YOIS</v>
       </c>
-      <c r="F60" s="76" t="e">
+      <c r="F60" s="76">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.6487500000000002E-2</v>
       </c>
       <c r="G60" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E60,Trigger)</f>
@@ -10927,11 +10696,11 @@
       </c>
       <c r="K60" s="78">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L60" s="79">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>44901</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -10946,9 +10715,9 @@
         <f t="shared" si="4"/>
         <v>GBP_YCONRH_10YOIS</v>
       </c>
-      <c r="F61" s="76" t="e">
+      <c r="F61" s="76">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.82125E-2</v>
       </c>
       <c r="G61" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E61,Trigger)</f>
@@ -10965,11 +10734,11 @@
       </c>
       <c r="K61" s="78">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L61" s="79">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>45266</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -11003,11 +10772,11 @@
       </c>
       <c r="K62" s="78">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L62" s="79">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>45632</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -11022,9 +10791,9 @@
         <f t="shared" si="4"/>
         <v>GBP_YCONRH_12YOIS</v>
       </c>
-      <c r="F63" s="76" t="e">
+      <c r="F63" s="76">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G63" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -11041,11 +10810,11 @@
       </c>
       <c r="K63" s="78">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L63" s="79">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>45999</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -11136,9 +10905,9 @@
         <f t="shared" si="4"/>
         <v>GBP_YCONRH_15YOIS</v>
       </c>
-      <c r="F66" s="76" t="e">
+      <c r="F66" s="76">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.3949999999999999E-2</v>
       </c>
       <c r="G66" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
@@ -11155,11 +10924,11 @@
       </c>
       <c r="K66" s="78">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L66" s="79">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>47093</v>
+        <v>47098</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -11326,9 +11095,9 @@
         <f t="shared" si="4"/>
         <v>GBP_YCONRH_20YOIS</v>
       </c>
-      <c r="F71" s="76" t="e">
+      <c r="F71" s="76">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G71" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -11345,11 +11114,11 @@
       </c>
       <c r="K71" s="78">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L71" s="79">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>48919</v>
+        <v>48922</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -11516,9 +11285,9 @@
         <f t="shared" si="4"/>
         <v>GBP_YCONRH_25YOIS</v>
       </c>
-      <c r="F76" s="76" t="e">
+      <c r="F76" s="76">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="G76" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -11535,11 +11304,11 @@
       </c>
       <c r="K76" s="78">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L76" s="79">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>50745</v>
+        <v>50748</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -11706,9 +11475,9 @@
         <f t="shared" si="4"/>
         <v>GBP_YCONRH_30YOIS</v>
       </c>
-      <c r="F81" s="76" t="e">
+      <c r="F81" s="76">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.9699999999999997E-2</v>
       </c>
       <c r="G81" s="76" t="e">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -11725,11 +11494,11 @@
       </c>
       <c r="K81" s="78">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="L81" s="79">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>52572</v>
+        <v>52574</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -13450,12 +13219,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -13476,10 +13245,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="163"/>
       <c r="D1" s="13" t="s">
         <v>35</v>
       </c>
@@ -13493,9 +13262,9 @@
       <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="69" t="e">
+      <c r="I1" s="69">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -13512,9 +13281,9 @@
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
         <v>GBP_YCONRH_SWOIS</v>
       </c>
-      <c r="E2" s="60" t="e">
+      <c r="E2" s="60">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>#NUM!</v>
+        <v>4.15E-3</v>
       </c>
       <c r="F2" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -13522,16 +13291,16 @@
       </c>
       <c r="G2" s="63">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H2" s="64">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41621</v>
-      </c>
-      <c r="I2" s="69" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="168">
+        <v>41624</v>
+      </c>
+      <c r="I2" s="69">
+        <v>0.99991931206662343</v>
+      </c>
+      <c r="L2" s="152">
         <v>4.1749999999999999E-3</v>
       </c>
     </row>
@@ -13548,9 +13317,9 @@
       <c r="D3" s="62" t="str">
         <v>GBP_YCONRH_2WOIS</v>
       </c>
-      <c r="E3" s="60" t="e">
+      <c r="E3" s="60">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>#NUM!</v>
+        <v>4.1625000000000004E-3</v>
       </c>
       <c r="F3" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -13558,20 +13327,20 @@
       </c>
       <c r="G3" s="63">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H3" s="64">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41628</v>
-      </c>
-      <c r="I3" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41631</v>
+      </c>
+      <c r="I3" s="69">
+        <v>0.99983815119927455</v>
       </c>
       <c r="J3" s="1">
         <f>H3-H2</f>
         <v>7</v>
       </c>
-      <c r="L3" s="168">
+      <c r="L3" s="152">
         <v>4.1749999999999999E-3</v>
       </c>
     </row>
@@ -13588,9 +13357,9 @@
       <c r="D4" s="62" t="str">
         <v>GBP_YCONRH_1MOIS</v>
       </c>
-      <c r="E4" s="60" t="e">
+      <c r="E4" s="60">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>#NUM!</v>
+        <v>4.1625000000000004E-3</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -13598,20 +13367,20 @@
       </c>
       <c r="G4" s="63">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H4" s="64">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41645</v>
-      </c>
-      <c r="I4" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41648</v>
+      </c>
+      <c r="I4" s="69">
+        <v>0.99964169093140687</v>
       </c>
       <c r="J4" s="1">
         <f>H4-H3</f>
         <v>17</v>
       </c>
-      <c r="L4" s="168">
+      <c r="L4" s="152">
         <v>4.1749999999999999E-3</v>
       </c>
     </row>
@@ -13628,9 +13397,9 @@
       <c r="D5" s="62" t="str">
         <v>GBP_YCONRH_2MOIS</v>
       </c>
-      <c r="E5" s="60" t="e">
+      <c r="E5" s="60">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>#NUM!</v>
+        <v>4.1250000000000002E-3</v>
       </c>
       <c r="F5" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -13638,20 +13407,20 @@
       </c>
       <c r="G5" s="63">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H5" s="64">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41676</v>
-      </c>
-      <c r="I5" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41680</v>
+      </c>
+      <c r="I5" s="69">
+        <v>0.99927864572761527</v>
       </c>
       <c r="J5" s="1">
         <f>H5-H4</f>
-        <v>31</v>
-      </c>
-      <c r="L5" s="168">
+        <v>32</v>
+      </c>
+      <c r="L5" s="152">
         <v>4.1250000000000002E-3</v>
       </c>
     </row>
@@ -13669,9 +13438,9 @@
       <c r="D6" s="62" t="str">
         <v>GBP_YCONRH_3MOIS</v>
       </c>
-      <c r="E6" s="60" t="e">
+      <c r="E6" s="60">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>#NUM!</v>
+        <v>4.0875E-3</v>
       </c>
       <c r="F6" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -13679,27 +13448,27 @@
       </c>
       <c r="G6" s="63">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H6" s="64">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41704</v>
-      </c>
-      <c r="I6" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41708</v>
+      </c>
+      <c r="I6" s="69">
+        <v>0.99896783729394611</v>
       </c>
       <c r="J6" s="1">
         <f>H6-H5</f>
         <v>28</v>
       </c>
-      <c r="L6" s="168">
+      <c r="L6" s="152">
         <v>4.0749999999999996E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_RateHelpersSelected#0000</v>
+        <v>GBP_YCONRH_RateHelpersSelected#0008</v>
       </c>
       <c r="B7" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -13711,9 +13480,9 @@
       <c r="D7" s="62" t="str">
         <v>GBP_YCONRH_4MOIS</v>
       </c>
-      <c r="E7" s="60" t="e">
+      <c r="E7" s="60">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>#NUM!</v>
+        <v>4.0375000000000003E-3</v>
       </c>
       <c r="F7" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -13721,20 +13490,20 @@
       </c>
       <c r="G7" s="63">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H7" s="64">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41736</v>
-      </c>
-      <c r="I7" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41738</v>
+      </c>
+      <c r="I7" s="69">
+        <v>0.99864479047409371</v>
       </c>
       <c r="J7" s="1">
         <f>H7-H6</f>
-        <v>32</v>
-      </c>
-      <c r="L7" s="168">
+        <v>30</v>
+      </c>
+      <c r="L7" s="152">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -13745,9 +13514,9 @@
       <c r="D8" s="62" t="str">
         <v>GBP_YCONRH_5MOIS</v>
       </c>
-      <c r="E8" s="60" t="e">
+      <c r="E8" s="60">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>#NUM!</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F8" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -13755,20 +13524,20 @@
       </c>
       <c r="G8" s="63">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H8" s="64">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41765</v>
-      </c>
-      <c r="I8" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41768</v>
+      </c>
+      <c r="I8" s="69">
+        <v>0.99832503244556359</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ref="J8:J36" si="0">H8-H7</f>
-        <v>29</v>
-      </c>
-      <c r="L8" s="168">
+        <v>30</v>
+      </c>
+      <c r="L8" s="152">
         <v>3.9500000000000004E-3</v>
       </c>
     </row>
@@ -13779,9 +13548,9 @@
       <c r="D9" s="62" t="str">
         <v>GBP_YCONRH_6MOIS</v>
       </c>
-      <c r="E9" s="60" t="e">
+      <c r="E9" s="60">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>#NUM!</v>
+        <v>3.9624999999999999E-3</v>
       </c>
       <c r="F9" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -13789,20 +13558,20 @@
       </c>
       <c r="G9" s="63">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H9" s="64">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41796</v>
-      </c>
-      <c r="I9" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41799</v>
+      </c>
+      <c r="I9" s="69">
+        <v>0.99800074115416149</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="L9" s="168">
+      <c r="L9" s="152">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -13813,9 +13582,9 @@
       <c r="D10" s="62" t="str">
         <v>GBP_YCONRH_7MOIS</v>
       </c>
-      <c r="E10" s="60" t="e">
+      <c r="E10" s="60">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>#NUM!</v>
+        <v>3.9249999999999997E-3</v>
       </c>
       <c r="F10" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -13823,20 +13592,20 @@
       </c>
       <c r="G10" s="63">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H10" s="64">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41827</v>
-      </c>
-      <c r="I10" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41829</v>
+      </c>
+      <c r="I10" s="69">
+        <v>0.99769394130954547</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L10" s="168">
+        <v>30</v>
+      </c>
+      <c r="L10" s="152">
         <v>3.8249999999999998E-3</v>
       </c>
     </row>
@@ -13847,9 +13616,9 @@
       <c r="D11" s="62" t="str">
         <v>GBP_YCONRH_8MOIS</v>
       </c>
-      <c r="E11" s="60" t="e">
+      <c r="E11" s="60">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>#NUM!</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="F11" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -13857,20 +13626,20 @@
       </c>
       <c r="G11" s="63">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H11" s="64">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41857</v>
-      </c>
-      <c r="I11" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41862</v>
+      </c>
+      <c r="I11" s="69">
+        <v>0.99735285928597839</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L11" s="168">
+        <v>33</v>
+      </c>
+      <c r="L11" s="152">
         <v>3.7499999999999999E-3</v>
       </c>
     </row>
@@ -13881,9 +13650,9 @@
       <c r="D12" s="62" t="str">
         <v>GBP_YCONRH_9MOIS</v>
       </c>
-      <c r="E12" s="60" t="e">
+      <c r="E12" s="60">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>#NUM!</v>
+        <v>3.8624999999999996E-3</v>
       </c>
       <c r="F12" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -13891,20 +13660,20 @@
       </c>
       <c r="G12" s="63">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H12" s="64">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41890</v>
-      </c>
-      <c r="I12" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41891</v>
+      </c>
+      <c r="I12" s="69">
+        <v>0.99706882537606634</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L12" s="168">
+        <v>29</v>
+      </c>
+      <c r="L12" s="152">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
@@ -13915,9 +13684,9 @@
       <c r="D13" s="62" t="str">
         <v>GBP_YCONRH_10MOIS</v>
       </c>
-      <c r="E13" s="60" t="e">
+      <c r="E13" s="60">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>#NUM!</v>
+        <v>3.8250000000000003E-3</v>
       </c>
       <c r="F13" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -13925,20 +13694,20 @@
       </c>
       <c r="G13" s="63">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H13" s="64">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41918</v>
-      </c>
-      <c r="I13" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41921</v>
+      </c>
+      <c r="I13" s="69">
+        <v>0.99678039931022799</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L13" s="168">
+        <v>30</v>
+      </c>
+      <c r="L13" s="152">
         <v>3.65E-3</v>
       </c>
     </row>
@@ -13949,9 +13718,9 @@
       <c r="D14" s="62" t="str">
         <v>GBP_YCONRH_11MOIS</v>
       </c>
-      <c r="E14" s="60" t="e">
+      <c r="E14" s="60">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>#NUM!</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F14" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -13959,20 +13728,20 @@
       </c>
       <c r="G14" s="63">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H14" s="64">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41949</v>
-      </c>
-      <c r="I14" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41953</v>
+      </c>
+      <c r="I14" s="69">
+        <v>0.99646586772247758</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L14" s="168">
+        <v>32</v>
+      </c>
+      <c r="L14" s="152">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -13983,9 +13752,9 @@
       <c r="D15" s="62" t="str">
         <v>GBP_YCONRH_1YOIS</v>
       </c>
-      <c r="E15" s="60" t="e">
+      <c r="E15" s="60">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>#NUM!</v>
+        <v>3.7750000000000001E-3</v>
       </c>
       <c r="F15" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -13993,20 +13762,20 @@
       </c>
       <c r="G15" s="63">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H15" s="64">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>41981</v>
-      </c>
-      <c r="I15" s="69" t="e">
-        <v>#NUM!</v>
+        <v>41982</v>
+      </c>
+      <c r="I15" s="69">
+        <v>0.99618716281399355</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L15" s="168">
+        <v>29</v>
+      </c>
+      <c r="L15" s="152">
         <v>3.5750000000000001E-3</v>
       </c>
     </row>
@@ -14017,9 +13786,9 @@
       <c r="D16" s="62" t="str">
         <v>GBP_YCONRH_15MOIS</v>
       </c>
-      <c r="E16" s="60" t="e">
+      <c r="E16" s="60">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>#NUM!</v>
+        <v>3.7375000000000004E-3</v>
       </c>
       <c r="F16" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -14027,20 +13796,20 @@
       </c>
       <c r="G16" s="63">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H16" s="64">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42069</v>
-      </c>
-      <c r="I16" s="69" t="e">
-        <v>#NUM!</v>
+        <v>42072</v>
+      </c>
+      <c r="I16" s="69">
+        <v>0.9952950598585244</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="L16" s="168">
+        <v>90</v>
+      </c>
+      <c r="L16" s="152">
         <v>3.4749999999999998E-3</v>
       </c>
     </row>
@@ -14051,9 +13820,9 @@
       <c r="D17" s="62" t="str">
         <v>GBP_YCONRH_18MOIS</v>
       </c>
-      <c r="E17" s="60" t="e">
+      <c r="E17" s="60">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>#NUM!</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="F17" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -14061,20 +13830,20 @@
       </c>
       <c r="G17" s="63">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H17" s="64">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42163</v>
-      </c>
-      <c r="I17" s="69" t="e">
-        <v>#NUM!</v>
+        <v>42164</v>
+      </c>
+      <c r="I17" s="69">
+        <v>0.99432733448642052</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="L17" s="168">
+        <v>92</v>
+      </c>
+      <c r="L17" s="152">
         <v>3.4499999999999999E-3</v>
       </c>
     </row>
@@ -14085,9 +13854,9 @@
       <c r="D18" s="62" t="str">
         <v>GBP_YCONRH_2YOIS</v>
       </c>
-      <c r="E18" s="60" t="e">
+      <c r="E18" s="60">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>#NUM!</v>
+        <v>3.9249999999999997E-3</v>
       </c>
       <c r="F18" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -14095,20 +13864,20 @@
       </c>
       <c r="G18" s="63">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H18" s="64">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42345</v>
-      </c>
-      <c r="I18" s="69" t="e">
-        <v>#NUM!</v>
+        <v>42347</v>
+      </c>
+      <c r="I18" s="69">
+        <v>0.99208763283586499</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
-      <c r="L18" s="168">
+        <v>183</v>
+      </c>
+      <c r="L18" s="152">
         <v>3.4749999999999998E-3</v>
       </c>
     </row>
@@ -14119,9 +13888,9 @@
       <c r="D19" s="62" t="str">
         <v>GBP_YCONRH_3YOIS</v>
       </c>
-      <c r="E19" s="60" t="e">
+      <c r="E19" s="60">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>#NUM!</v>
+        <v>4.8374999999999998E-3</v>
       </c>
       <c r="F19" s="60" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -14129,20 +13898,20 @@
       </c>
       <c r="G19" s="63">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="H19" s="64">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42710</v>
-      </c>
-      <c r="I19" s="69" t="e">
-        <v>#NUM!</v>
+        <v>42713</v>
+      </c>
+      <c r="I19" s="69">
+        <v>0.98540180421485701</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="L19" s="168">
+        <v>366</v>
+      </c>
+      <c r="L19" s="152">
         <v>4.0499999999999998E-3</v>
       </c>
     </row>
@@ -14167,7 +13936,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I20" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J20" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14195,7 +13964,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I21" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J21" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14223,7 +13992,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I22" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J22" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14251,7 +14020,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I23" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J23" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14279,7 +14048,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I24" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J24" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14307,7 +14076,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I25" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J25" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14335,7 +14104,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I26" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J26" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14363,7 +14132,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I27" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J27" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14391,7 +14160,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I28" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J28" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14419,7 +14188,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J29" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14447,7 +14216,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J30" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14475,7 +14244,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J31" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14503,7 +14272,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J32" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14531,7 +14300,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J33" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14559,7 +14328,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J34" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14587,7 +14356,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J35" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14615,7 +14384,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J36" s="1" t="e">
         <f t="shared" si="0"/>
@@ -14643,7 +14412,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
@@ -14667,7 +14436,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
@@ -14691,7 +14460,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
@@ -14715,7 +14484,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I40" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
@@ -14739,7 +14508,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I41" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
@@ -14763,7 +14532,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I42" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
@@ -14787,7 +14556,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" s="69" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
@@ -14811,7 +14580,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
@@ -14835,7 +14604,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I45" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
@@ -14859,7 +14628,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I46" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
@@ -14883,7 +14652,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I47" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
@@ -14907,7 +14676,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
@@ -14931,7 +14700,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
@@ -14955,7 +14724,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
@@ -14979,7 +14748,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I51" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
@@ -15003,7 +14772,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I52" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
@@ -15027,7 +14796,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
@@ -15051,7 +14820,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
@@ -15075,7 +14844,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
@@ -15099,7 +14868,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
@@ -15123,7 +14892,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
@@ -15147,7 +14916,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
@@ -15171,7 +14940,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
@@ -15195,7 +14964,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
@@ -15219,7 +14988,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
@@ -15243,7 +15012,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
@@ -15267,7 +15036,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
@@ -15291,7 +15060,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
@@ -15315,7 +15084,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
@@ -15339,7 +15108,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
@@ -15363,7 +15132,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
@@ -15387,7 +15156,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
@@ -15411,7 +15180,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
@@ -15435,7 +15204,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
@@ -15459,7 +15228,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
@@ -15483,7 +15252,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
@@ -15507,7 +15276,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.2">
@@ -15531,7 +15300,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
@@ -15555,7 +15324,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
@@ -15579,7 +15348,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
@@ -15603,7 +15372,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.2">
@@ -15627,7 +15396,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.2">
@@ -15651,7 +15420,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.2">
@@ -15675,7 +15444,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
@@ -15699,7 +15468,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
@@ -15723,7 +15492,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
@@ -15747,7 +15516,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.2">
@@ -15771,7 +15540,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.2">
@@ -15795,7 +15564,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.2">
@@ -15819,7 +15588,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
@@ -15843,7 +15612,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
@@ -15867,7 +15636,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
@@ -15891,7 +15660,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.2">
@@ -15915,7 +15684,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.2">
@@ -15939,7 +15708,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.2">
@@ -15963,7 +15732,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
@@ -15987,7 +15756,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
@@ -16011,7 +15780,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
@@ -16035,7 +15804,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
@@ -16059,7 +15828,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.2">
@@ -16083,7 +15852,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.2">
@@ -16107,7 +15876,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
@@ -16131,7 +15900,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
@@ -16155,7 +15924,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
@@ -16179,7 +15948,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.2">
@@ -16203,7 +15972,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.2">
@@ -16227,7 +15996,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
@@ -16251,7 +16020,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
@@ -16275,7 +16044,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
@@ -16299,7 +16068,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
@@ -16323,7 +16092,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.2">
@@ -16347,7 +16116,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
@@ -16371,7 +16140,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
@@ -16395,7 +16164,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
@@ -16419,7 +16188,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
@@ -16443,7 +16212,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
@@ -16467,7 +16236,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.2">
@@ -16491,7 +16260,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.2">
@@ -16515,7 +16284,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
@@ -16539,7 +16308,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
@@ -16563,7 +16332,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
@@ -16587,7 +16356,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
@@ -16611,7 +16380,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.2">
@@ -16635,7 +16404,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
@@ -16659,7 +16428,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.2">
@@ -16683,7 +16452,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
@@ -16707,7 +16476,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
@@ -16731,7 +16500,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
@@ -16755,7 +16524,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -16779,7 +16548,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
@@ -2416,7 +2416,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="32">
-        <v>41653.022858796299</v>
+        <v>41654.098877314813</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
@@ -3070,7 +3070,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="52">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="D27" s="53">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C27)</f>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D28" s="26">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C28)</f>
-        <v>0.98537545185379416</v>
+        <v>0.98538862785813952</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
@@ -5927,11 +5927,11 @@
       </c>
       <c r="K35" s="93">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L35" s="94">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41660</v>
+        <v>41661</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -5965,11 +5965,11 @@
       </c>
       <c r="K36" s="78">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L36" s="79">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41667</v>
+        <v>41668</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -6003,11 +6003,11 @@
       </c>
       <c r="K37" s="78">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L37" s="79">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41674</v>
+        <v>41675</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -6041,11 +6041,11 @@
       </c>
       <c r="K38" s="78">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L38" s="79">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -6079,11 +6079,11 @@
       </c>
       <c r="K39" s="78">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L39" s="79">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -6117,11 +6117,11 @@
       </c>
       <c r="K40" s="78">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L40" s="79">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41743</v>
+        <v>41744</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -6155,11 +6155,11 @@
       </c>
       <c r="K41" s="78">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L41" s="79">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="K42" s="78">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L42" s="79">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
@@ -6231,11 +6231,11 @@
       </c>
       <c r="K43" s="78">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L43" s="79">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -6269,11 +6269,11 @@
       </c>
       <c r="K44" s="78">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L44" s="79">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41865</v>
+        <v>41866</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="K45" s="78">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L45" s="79">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
@@ -6345,11 +6345,11 @@
       </c>
       <c r="K46" s="78">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L46" s="79">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -6383,11 +6383,11 @@
       </c>
       <c r="K47" s="78">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L47" s="79">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>41957</v>
+        <v>41960</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="K48" s="78">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L48" s="79">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
@@ -6459,11 +6459,11 @@
       </c>
       <c r="K49" s="78">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L49" s="79">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42018</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -6497,11 +6497,11 @@
       </c>
       <c r="K50" s="78">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L50" s="79">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42108</v>
+        <v>42109</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="K51" s="78">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L51" s="79">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42199</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -6573,11 +6573,11 @@
       </c>
       <c r="K52" s="78">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L52" s="79">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42291</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -6611,11 +6611,11 @@
       </c>
       <c r="K53" s="78">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L53" s="79">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="K54" s="78">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L54" s="79">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="K55" s="78">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L55" s="79">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
@@ -6725,11 +6725,11 @@
       </c>
       <c r="K56" s="78">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L56" s="79">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>43479</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -6763,11 +6763,11 @@
       </c>
       <c r="K57" s="78">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L57" s="79">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>43844</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -6801,11 +6801,11 @@
       </c>
       <c r="K58" s="78">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L58" s="79">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>44210</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -6839,11 +6839,11 @@
       </c>
       <c r="K59" s="78">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L59" s="79">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>44575</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="K60" s="78">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L60" s="79">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K61" s="78">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L61" s="79">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
@@ -6953,11 +6953,11 @@
       </c>
       <c r="K62" s="78">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L62" s="79">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -6991,11 +6991,11 @@
       </c>
       <c r="K63" s="78">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L63" s="79">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>46036</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="K66" s="78">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L66" s="79">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="K71" s="78">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L71" s="79">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
@@ -7485,11 +7485,11 @@
       </c>
       <c r="K76" s="78">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L76" s="79">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>50784</v>
+        <v>50787</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -7675,11 +7675,11 @@
       </c>
       <c r="K81" s="78">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L81" s="79">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>52610</v>
+        <v>52611</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -9413,7 +9413,7 @@
   <cols>
     <col min="1" max="1" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" bestFit="1" customWidth="1"/>
@@ -9421,11 +9421,11 @@
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="162" t="s">
         <v>36</v>
       </c>
@@ -9448,16 +9448,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="12">
         <v>8</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>122</v>
-      </c>
+      <c r="C2" s="102"/>
       <c r="D2" s="62" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
         <v>GBP_YCONRH_SWOIS</v>
@@ -9472,29 +9470,30 @@
       </c>
       <c r="G2" s="63">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H2" s="64">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="I2" s="69">
         <v>0.99991931206662343</v>
       </c>
-      <c r="L2" s="152">
+      <c r="L2" s="152" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="152">
         <v>4.1749999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="102" t="s">
-        <v>123</v>
-      </c>
+      <c r="C3" s="102"/>
       <c r="D3" s="62" t="str">
         <v>GBP_YCONRH_2WOIS</v>
       </c>
@@ -9508,11 +9507,11 @@
       </c>
       <c r="G3" s="63">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H3" s="64">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="I3" s="69">
         <v>0.99983815119927455</v>
@@ -9521,20 +9520,21 @@
         <f>H3-H2</f>
         <v>7</v>
       </c>
-      <c r="L3" s="152">
+      <c r="L3" s="152" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="152">
         <v>4.1749999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="102" t="s">
-        <v>124</v>
-      </c>
+      <c r="C4" s="102"/>
       <c r="D4" s="62" t="str">
         <v>GBP_YCONRH_1MOIS</v>
       </c>
@@ -9548,33 +9548,34 @@
       </c>
       <c r="G4" s="63">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H4" s="64">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="I4" s="69">
-        <v>0.99964169093140687</v>
+        <v>0.99961858303441109</v>
       </c>
       <c r="J4" s="1">
         <f>H4-H3</f>
-        <v>17</v>
-      </c>
-      <c r="L4" s="152">
+        <v>19</v>
+      </c>
+      <c r="L4" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="152">
         <v>4.1749999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="102" t="s">
-        <v>125</v>
-      </c>
+      <c r="C5" s="102"/>
       <c r="D5" s="62" t="str">
         <v>GBP_YCONRH_2MOIS</v>
       </c>
@@ -9588,24 +9589,27 @@
       </c>
       <c r="G5" s="63">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H5" s="64">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="I5" s="69">
-        <v>0.99932441505690417</v>
+        <v>0.99930152986818577</v>
       </c>
       <c r="J5" s="1">
         <f>H5-H4</f>
         <v>28</v>
       </c>
-      <c r="L5" s="152">
+      <c r="L5" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="152">
         <v>4.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -9613,9 +9617,7 @@
         <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
         <v/>
       </c>
-      <c r="C6" s="102" t="s">
-        <v>126</v>
-      </c>
+      <c r="C6" s="102"/>
       <c r="D6" s="62" t="str">
         <v>GBP_YCONRH_3MOIS</v>
       </c>
@@ -9629,24 +9631,27 @@
       </c>
       <c r="G6" s="63">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H6" s="64">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="I6" s="69">
-        <v>0.99897916816253385</v>
+        <v>0.99897916816253407</v>
       </c>
       <c r="J6" s="1">
         <f>H6-H5</f>
-        <v>31</v>
-      </c>
-      <c r="L6" s="152">
+        <v>29</v>
+      </c>
+      <c r="L6" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="152">
         <v>4.0749999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
         <v>GBP_YCONRH_RateHelpersSelected#0000</v>
@@ -9655,9 +9660,7 @@
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>127</v>
-      </c>
+      <c r="C7" s="102"/>
       <c r="D7" s="62" t="str">
         <v>GBP_YCONRH_4MOIS</v>
       </c>
@@ -9671,27 +9674,28 @@
       </c>
       <c r="G7" s="63">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H7" s="64">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="I7" s="69">
-        <v>0.99865597549964014</v>
+        <v>0.99865597549964003</v>
       </c>
       <c r="J7" s="1">
         <f>H7-H6</f>
         <v>30</v>
       </c>
-      <c r="L7" s="152">
+      <c r="L7" s="152" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="152">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="102" t="s">
-        <v>128</v>
-      </c>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="102"/>
       <c r="D8" s="62" t="str">
         <v>GBP_YCONRH_5MOIS</v>
       </c>
@@ -9705,27 +9709,28 @@
       </c>
       <c r="G8" s="63">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H8" s="64">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
         <v>41806</v>
       </c>
       <c r="I8" s="69">
-        <v>0.99830288509533804</v>
+        <v>0.99831395864761729</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ref="J8:J36" si="0">H8-H7</f>
-        <v>33</v>
-      </c>
-      <c r="L8" s="152">
+        <v>32</v>
+      </c>
+      <c r="L8" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="152">
         <v>3.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="102" t="s">
-        <v>129</v>
-      </c>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="102"/>
       <c r="D9" s="62" t="str">
         <v>GBP_YCONRH_6MOIS</v>
       </c>
@@ -9739,27 +9744,28 @@
       </c>
       <c r="G9" s="63">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H9" s="64">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
       <c r="I9" s="69">
         <v>0.99801170425156804</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L9" s="152">
+        <v>29</v>
+      </c>
+      <c r="L9" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="152">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="102" t="s">
-        <v>130</v>
-      </c>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="102"/>
       <c r="D10" s="62" t="str">
         <v>GBP_YCONRH_7MOIS</v>
       </c>
@@ -9773,11 +9779,11 @@
       </c>
       <c r="G10" s="63">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H10" s="64">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41865</v>
+        <v>41866</v>
       </c>
       <c r="I10" s="69">
         <v>0.99769394130954536</v>
@@ -9786,14 +9792,15 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="L10" s="152">
+      <c r="L10" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="152">
         <v>3.8249999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="102" t="s">
-        <v>131</v>
-      </c>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="102"/>
       <c r="D11" s="62" t="str">
         <v>GBP_YCONRH_8MOIS</v>
       </c>
@@ -9807,27 +9814,28 @@
       </c>
       <c r="G11" s="63">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H11" s="64">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
         <v>41897</v>
       </c>
       <c r="I11" s="69">
-        <v>0.99736363545694218</v>
+        <v>0.99737441186077658</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L11" s="152">
+        <v>31</v>
+      </c>
+      <c r="L11" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="152">
         <v>3.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="102" t="s">
-        <v>132</v>
-      </c>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="102"/>
       <c r="D12" s="62" t="str">
         <v>GBP_YCONRH_9MOIS</v>
       </c>
@@ -9841,27 +9849,28 @@
       </c>
       <c r="G12" s="63">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H12" s="64">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I12" s="69">
         <v>0.9970794918509005</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="L12" s="152">
+        <v>30</v>
+      </c>
+      <c r="L12" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" s="152">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="102" t="s">
-        <v>133</v>
-      </c>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="102"/>
       <c r="D13" s="62" t="str">
         <v>GBP_YCONRH_10MOIS</v>
       </c>
@@ -9875,27 +9884,28 @@
       </c>
       <c r="G13" s="63">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H13" s="64">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41957</v>
+        <v>41960</v>
       </c>
       <c r="I13" s="69">
-        <v>0.9967803993102281</v>
+        <v>0.99675928637018885</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L13" s="152">
+        <v>33</v>
+      </c>
+      <c r="L13" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="152">
         <v>3.65E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="102" t="s">
-        <v>134</v>
-      </c>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="102"/>
       <c r="D14" s="62" t="str">
         <v>GBP_YCONRH_11MOIS</v>
       </c>
@@ -9909,27 +9919,28 @@
       </c>
       <c r="G14" s="63">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H14" s="64">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>41988</v>
       </c>
       <c r="I14" s="69">
-        <v>0.99647634891065762</v>
+        <v>0.99648683031932972</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L14" s="152">
+        <v>28</v>
+      </c>
+      <c r="L14" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" s="152">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="102" t="s">
-        <v>135</v>
-      </c>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="102"/>
       <c r="D15" s="62" t="str">
         <v>GBP_YCONRH_1YOIS</v>
       </c>
@@ -9943,27 +9954,28 @@
       </c>
       <c r="G15" s="63">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H15" s="64">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42018</v>
+        <v>42019</v>
       </c>
       <c r="I15" s="69">
         <v>0.99618716281399344</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L15" s="152">
+        <v>31</v>
+      </c>
+      <c r="L15" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="152">
         <v>3.5750000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="102" t="s">
-        <v>136</v>
-      </c>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="102"/>
       <c r="D16" s="62" t="str">
         <v>GBP_YCONRH_15MOIS</v>
       </c>
@@ -9977,11 +9989,11 @@
       </c>
       <c r="G16" s="63">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H16" s="64">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42108</v>
+        <v>42109</v>
       </c>
       <c r="I16" s="69">
         <v>0.99529505985852451</v>
@@ -9990,14 +10002,15 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L16" s="152">
+      <c r="L16" s="152" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" s="152">
         <v>3.4749999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="102" t="s">
-        <v>137</v>
-      </c>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="102"/>
       <c r="D17" s="62" t="str">
         <v>GBP_YCONRH_18MOIS</v>
       </c>
@@ -10011,11 +10024,11 @@
       </c>
       <c r="G17" s="63">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H17" s="64">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42199</v>
+        <v>42200</v>
       </c>
       <c r="I17" s="69">
         <v>0.99433767257122396</v>
@@ -10024,14 +10037,15 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="L17" s="152">
+      <c r="L17" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="152">
         <v>3.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="102" t="s">
-        <v>138</v>
-      </c>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="102"/>
       <c r="D18" s="62" t="str">
         <v>GBP_YCONRH_2YOIS</v>
       </c>
@@ -10045,11 +10059,11 @@
       </c>
       <c r="G18" s="63">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H18" s="64">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
       <c r="I18" s="69">
         <v>0.99208763283586621</v>
@@ -10058,14 +10072,15 @@
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="L18" s="152">
+      <c r="L18" s="152" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="152">
         <v>3.4749999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="102" t="s">
-        <v>139</v>
-      </c>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C19" s="102"/>
       <c r="D19" s="62" t="str">
         <v>GBP_YCONRH_3YOIS</v>
       </c>
@@ -10079,24 +10094,27 @@
       </c>
       <c r="G19" s="63">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H19" s="64">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
         <v>42751</v>
       </c>
       <c r="I19" s="69">
-        <v>0.98537545185379416</v>
+        <v>0.98538862785813952</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>368</v>
-      </c>
-      <c r="L19" s="152">
+        <v>367</v>
+      </c>
+      <c r="L19" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" s="152">
         <v>4.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D20" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10124,7 +10142,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D21" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10152,7 +10170,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D22" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10180,7 +10198,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D23" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10208,7 +10226,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D24" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10236,7 +10254,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D25" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10264,7 +10282,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D26" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10292,7 +10310,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D27" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10320,7 +10338,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D28" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10348,7 +10366,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D29" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10376,7 +10394,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D30" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10404,7 +10422,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D31" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -10432,7 +10450,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D32" s="62" t="e">
         <v>#N/A</v>
       </c>
@@ -12942,11 +12960,11 @@
       <c r="N6" s="126"/>
       <c r="P6" s="121">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q6" s="121">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41660</v>
+        <v>41661</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -12996,11 +13014,11 @@
       <c r="N7" s="126"/>
       <c r="P7" s="121">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q7" s="121">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41667</v>
+        <v>41668</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -13050,11 +13068,11 @@
       <c r="N8" s="126"/>
       <c r="P8" s="121">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q8" s="121">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41674</v>
+        <v>41675</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -13104,11 +13122,11 @@
       <c r="N9" s="126"/>
       <c r="P9" s="121">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q9" s="121">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -13158,11 +13176,11 @@
       <c r="N10" s="126"/>
       <c r="P10" s="121">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q10" s="121">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -13212,11 +13230,11 @@
       <c r="N11" s="126"/>
       <c r="P11" s="121">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q11" s="121">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41743</v>
+        <v>41744</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -13266,11 +13284,11 @@
       <c r="N12" s="126"/>
       <c r="P12" s="121">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q12" s="121">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -13320,7 +13338,7 @@
       <c r="N13" s="126"/>
       <c r="P13" s="121">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q13" s="121">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
@@ -13374,11 +13392,11 @@
       <c r="N14" s="126"/>
       <c r="P14" s="121">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q14" s="121">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -13428,11 +13446,11 @@
       <c r="N15" s="126"/>
       <c r="P15" s="121">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q15" s="121">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41865</v>
+        <v>41866</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -13482,7 +13500,7 @@
       <c r="N16" s="126"/>
       <c r="P16" s="121">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q16" s="121">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
@@ -13536,11 +13554,11 @@
       <c r="N17" s="126"/>
       <c r="P17" s="121">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q17" s="121">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -13590,11 +13608,11 @@
       <c r="N18" s="126"/>
       <c r="P18" s="121">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q18" s="121">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41957</v>
+        <v>41960</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -13644,7 +13662,7 @@
       <c r="N19" s="126"/>
       <c r="P19" s="121">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q19" s="121">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
@@ -13698,11 +13716,11 @@
       <c r="N20" s="126"/>
       <c r="P20" s="121">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q20" s="121">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42018</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -13752,11 +13770,11 @@
       <c r="N21" s="126"/>
       <c r="P21" s="121">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q21" s="121">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42108</v>
+        <v>42109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -13806,11 +13824,11 @@
       <c r="N22" s="126"/>
       <c r="P22" s="121">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q22" s="121">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42199</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -13860,11 +13878,11 @@
       <c r="N23" s="126"/>
       <c r="P23" s="121">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q23" s="121">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42291</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -13914,11 +13932,11 @@
       <c r="N24" s="126"/>
       <c r="P24" s="121">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q24" s="121">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -13968,7 +13986,7 @@
       <c r="N25" s="126"/>
       <c r="P25" s="121">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q25" s="121">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
@@ -14022,7 +14040,7 @@
       <c r="N26" s="126"/>
       <c r="P26" s="121">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q26" s="121">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
@@ -14076,11 +14094,11 @@
       <c r="N27" s="126"/>
       <c r="P27" s="121">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q27" s="121">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>43479</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -14130,11 +14148,11 @@
       <c r="N28" s="126"/>
       <c r="P28" s="121">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q28" s="121">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>43844</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -14184,11 +14202,11 @@
       <c r="N29" s="126"/>
       <c r="P29" s="121">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q29" s="121">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>44210</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -14238,11 +14256,11 @@
       <c r="N30" s="126"/>
       <c r="P30" s="121">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q30" s="121">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>44575</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -14292,7 +14310,7 @@
       <c r="N31" s="126"/>
       <c r="P31" s="121">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q31" s="121">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
@@ -14346,7 +14364,7 @@
       <c r="N32" s="126"/>
       <c r="P32" s="121">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q32" s="121">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
@@ -14400,11 +14418,11 @@
       <c r="N33" s="126"/>
       <c r="P33" s="121">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q33" s="121">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -14454,11 +14472,11 @@
       <c r="N34" s="126"/>
       <c r="P34" s="121">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q34" s="121">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>46036</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -14508,7 +14526,7 @@
       <c r="N35" s="126"/>
       <c r="P35" s="121">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q35" s="121">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
@@ -14562,7 +14580,7 @@
       <c r="N36" s="126"/>
       <c r="P36" s="121">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q36" s="121">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
@@ -14616,11 +14634,11 @@
       <c r="N37" s="126"/>
       <c r="P37" s="121">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q37" s="121">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>50784</v>
+        <v>50787</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -14670,11 +14688,11 @@
       <c r="N38" s="126"/>
       <c r="P38" s="121">
         <f>_xll.qlRateHelperEarliestDate(L38)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="Q38" s="121">
         <f>_xll.qlRateHelperLatestDate($L38)</f>
-        <v>52610</v>
+        <v>52611</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCONBootstrapping.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="8370"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15225" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
     <sheet name="RateHelpers" sheetId="2" r:id="rId2"/>
     <sheet name="Selected" sheetId="4" r:id="rId3"/>
-    <sheet name="ON_Swaps" sheetId="6" r:id="rId4"/>
+    <sheet name="ON_Deposits" sheetId="7" r:id="rId4"/>
+    <sheet name="ON_Swaps" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$23</definedName>
@@ -21,7 +22,7 @@
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
     <definedName name="Discounting">'General Settings'!$M$14</definedName>
     <definedName name="Discounting2">'General Settings'!$M$15</definedName>
-    <definedName name="DiscountingCurve" localSheetId="3">ON_Swaps!$L$2</definedName>
+    <definedName name="DiscountingCurve" localSheetId="4">ON_Swaps!$L$2</definedName>
     <definedName name="FamilyName">'General Settings'!$M$11</definedName>
     <definedName name="FileOverwrite">'General Settings'!$M$6</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="151">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -660,12 +661,21 @@
   <si>
     <t>Actual/365 (Fixed)</t>
   </si>
+  <si>
+    <t>GBP_YCRH_Deposits</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yy"/>
@@ -679,8 +689,9 @@
     <numFmt numFmtId="174" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="175" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -797,8 +808,20 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,6 +879,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1352,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1335,8 +1364,9 @@
     </xf>
     <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,11 +1726,58 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="3"/>
     <cellStyle name="Migliaia_AZIONI" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Normal_SwaptionATMVols" xfId="1"/>
     <cellStyle name="Normale_AZIONI" xfId="5"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -2008,8 +2085,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2513,7 +2590,7 @@
       </c>
       <c r="D14" s="31" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCON#0009</v>
+        <v>_GBPYCON#0005</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
@@ -3037,7 +3114,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="46">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="D27" s="47">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C27)</f>
@@ -3078,11 +3155,11 @@
       <c r="B28" s="16"/>
       <c r="C28" s="48">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>52726</v>
+        <v>52730</v>
       </c>
       <c r="D28" s="24">
         <f>_xll.qlYieldTSDiscount(YieldCurve,C28)</f>
-        <v>0.39012155202935633</v>
+        <v>0.39870857449369967</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
@@ -4616,7 +4693,7 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4677,9 +4754,9 @@
         <f t="shared" ref="E2:E15" si="0">RateHelperPrefix&amp;"_"&amp;$B2&amp;$C2&amp;$D2</f>
         <v>GBP_YCONRH_OND</v>
       </c>
-      <c r="F2" s="69" t="e">
+      <c r="F2" s="69">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.6500000000000005E-3</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70" t="b">
@@ -4691,13 +4768,13 @@
       <c r="J2" s="70">
         <v>1</v>
       </c>
-      <c r="K2" s="71" t="e">
+      <c r="K2" s="71">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="72" t="e">
+        <v>41772</v>
+      </c>
+      <c r="L2" s="72">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41773</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5968,11 +6045,11 @@
       </c>
       <c r="K35" s="86">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L35" s="87">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41775</v>
+        <v>41779</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -6006,11 +6083,11 @@
       </c>
       <c r="K36" s="71">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L36" s="72">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41782</v>
+        <v>41786</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -6044,11 +6121,11 @@
       </c>
       <c r="K37" s="71">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L37" s="72">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41789</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -6082,11 +6159,11 @@
       </c>
       <c r="K38" s="71">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L38" s="72">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -6103,7 +6180,7 @@
       </c>
       <c r="F39" s="69">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>4.2374999999999999E-3</v>
+        <v>4.2249999999999996E-3</v>
       </c>
       <c r="G39" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E39,Trigger)</f>
@@ -6120,11 +6197,11 @@
       </c>
       <c r="K39" s="71">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L39" s="72">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -6141,7 +6218,7 @@
       </c>
       <c r="F40" s="69">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>4.2500000000000003E-3</v>
+        <v>4.2374999999999999E-3</v>
       </c>
       <c r="G40" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
@@ -6158,11 +6235,11 @@
       </c>
       <c r="K40" s="71">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L40" s="72">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -6179,7 +6256,7 @@
       </c>
       <c r="F41" s="69">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>4.3125000000000004E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="G41" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
@@ -6196,11 +6273,11 @@
       </c>
       <c r="K41" s="71">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L41" s="72">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41891</v>
+        <v>41897</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -6217,7 +6294,7 @@
       </c>
       <c r="F42" s="69">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>4.3625000000000001E-3</v>
+        <v>4.3374999999999993E-3</v>
       </c>
       <c r="G42" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
@@ -6234,11 +6311,11 @@
       </c>
       <c r="K42" s="71">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L42" s="72">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41921</v>
+        <v>41925</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -6255,7 +6332,7 @@
       </c>
       <c r="F43" s="69">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>4.4374999999999996E-3</v>
+        <v>4.4250000000000001E-3</v>
       </c>
       <c r="G43" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
@@ -6272,11 +6349,11 @@
       </c>
       <c r="K43" s="71">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L43" s="72">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -6310,11 +6387,11 @@
       </c>
       <c r="K44" s="71">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L44" s="72">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41982</v>
+        <v>41988</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -6331,7 +6408,7 @@
       </c>
       <c r="F45" s="69">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>4.725E-3</v>
+        <v>4.7375000000000004E-3</v>
       </c>
       <c r="G45" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
@@ -6348,11 +6425,11 @@
       </c>
       <c r="K45" s="71">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L45" s="72">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42013</v>
+        <v>42017</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -6369,7 +6446,7 @@
       </c>
       <c r="F46" s="69">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.9249999999999997E-3</v>
       </c>
       <c r="G46" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
@@ -6386,11 +6463,11 @@
       </c>
       <c r="K46" s="71">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L46" s="72">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>42044</v>
+        <v>42048</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -6407,7 +6484,7 @@
       </c>
       <c r="F47" s="69">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>5.1124999999999999E-3</v>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="G47" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E47,Trigger)</f>
@@ -6424,11 +6501,11 @@
       </c>
       <c r="K47" s="71">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L47" s="72">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>42072</v>
+        <v>42076</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -6445,7 +6522,7 @@
       </c>
       <c r="F48" s="69">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>5.3500000000000006E-3</v>
+        <v>5.3875000000000008E-3</v>
       </c>
       <c r="G48" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
@@ -6462,11 +6539,11 @@
       </c>
       <c r="K48" s="71">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L48" s="72">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>42103</v>
+        <v>42107</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -6483,7 +6560,7 @@
       </c>
       <c r="F49" s="69">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>5.5874999999999996E-3</v>
+        <v>5.6375000000000001E-3</v>
       </c>
       <c r="G49" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
@@ -6500,11 +6577,11 @@
       </c>
       <c r="K49" s="71">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L49" s="72">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -6521,7 +6598,7 @@
       </c>
       <c r="F50" s="69">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>6.425000000000001E-3</v>
+        <v>6.4749999999999999E-3</v>
       </c>
       <c r="G50" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
@@ -6538,11 +6615,11 @@
       </c>
       <c r="K50" s="71">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L50" s="72">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42226</v>
+        <v>42229</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -6559,7 +6636,7 @@
       </c>
       <c r="F51" s="69">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>7.3375000000000003E-3</v>
+        <v>7.4124999999999998E-3</v>
       </c>
       <c r="G51" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
@@ -6576,11 +6653,11 @@
       </c>
       <c r="K51" s="71">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L51" s="72">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42317</v>
+        <v>42321</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -6614,11 +6691,11 @@
       </c>
       <c r="K52" s="71">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L52" s="72">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42409</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -6635,7 +6712,7 @@
       </c>
       <c r="F53" s="69">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>9.2999999999999992E-3</v>
+        <v>9.362500000000001E-3</v>
       </c>
       <c r="G53" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
@@ -6652,11 +6729,11 @@
       </c>
       <c r="K53" s="71">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L53" s="72">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42499</v>
+        <v>42503</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -6673,7 +6750,7 @@
       </c>
       <c r="F54" s="69">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>1.295E-2</v>
+        <v>1.2987500000000001E-2</v>
       </c>
       <c r="G54" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
@@ -6690,11 +6767,11 @@
       </c>
       <c r="K54" s="71">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L54" s="72">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42864</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -6711,7 +6788,7 @@
       </c>
       <c r="F55" s="69">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>1.5762499999999999E-2</v>
+        <v>1.575E-2</v>
       </c>
       <c r="G55" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
@@ -6728,11 +6805,11 @@
       </c>
       <c r="K55" s="71">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L55" s="72">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>43229</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -6749,7 +6826,7 @@
       </c>
       <c r="F56" s="69">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>1.7875000000000002E-2</v>
+        <v>1.7837499999999999E-2</v>
       </c>
       <c r="G56" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
@@ -6766,11 +6843,11 @@
       </c>
       <c r="K56" s="71">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L56" s="72">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>43594</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -6787,7 +6864,7 @@
       </c>
       <c r="F57" s="69">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>1.9500000000000003E-2</v>
+        <v>1.94375E-2</v>
       </c>
       <c r="G57" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
@@ -6804,11 +6881,11 @@
       </c>
       <c r="K57" s="71">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L57" s="72">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>43962</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -6825,7 +6902,7 @@
       </c>
       <c r="F58" s="69">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>2.0837500000000002E-2</v>
+        <v>2.07625E-2</v>
       </c>
       <c r="G58" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
@@ -6842,11 +6919,11 @@
       </c>
       <c r="K58" s="71">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L58" s="72">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>44326</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -6863,7 +6940,7 @@
       </c>
       <c r="F59" s="69">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>2.2000000000000002E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="G59" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
@@ -6880,11 +6957,11 @@
       </c>
       <c r="K59" s="71">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L59" s="72">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>44690</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -6901,7 +6978,7 @@
       </c>
       <c r="F60" s="69">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>2.3012500000000002E-2</v>
+        <v>2.2887500000000002E-2</v>
       </c>
       <c r="G60" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E60,Trigger)</f>
@@ -6918,11 +6995,11 @@
       </c>
       <c r="K60" s="71">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L60" s="72">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>45055</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -6939,7 +7016,7 @@
       </c>
       <c r="F61" s="69">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>2.3937499999999997E-2</v>
+        <v>2.3762499999999999E-2</v>
       </c>
       <c r="G61" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E61,Trigger)</f>
@@ -6956,11 +7033,11 @@
       </c>
       <c r="K61" s="71">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L61" s="72">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>45421</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -6994,11 +7071,11 @@
       </c>
       <c r="K62" s="71">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L62" s="72">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>45786</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -7015,7 +7092,7 @@
       </c>
       <c r="F63" s="69">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>2.5549999999999996E-2</v>
+        <v>2.5324999999999997E-2</v>
       </c>
       <c r="G63" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -7032,11 +7109,11 @@
       </c>
       <c r="K63" s="71">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L63" s="72">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>46153</v>
+        <v>46155</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -7129,7 +7206,7 @@
       </c>
       <c r="F66" s="69">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>2.7337500000000001E-2</v>
+        <v>2.7137500000000002E-2</v>
       </c>
       <c r="G66" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
@@ -7146,11 +7223,11 @@
       </c>
       <c r="K66" s="71">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L66" s="72">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>47247</v>
+        <v>47252</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -7319,7 +7396,7 @@
       </c>
       <c r="F71" s="69">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>2.9074999999999997E-2</v>
+        <v>2.8875000000000001E-2</v>
       </c>
       <c r="G71" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -7336,11 +7413,11 @@
       </c>
       <c r="K71" s="71">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L71" s="72">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>49073</v>
+        <v>49079</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -7509,7 +7586,7 @@
       </c>
       <c r="F76" s="69">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>2.9812500000000002E-2</v>
+        <v>2.9575000000000001E-2</v>
       </c>
       <c r="G76" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -7526,11 +7603,11 @@
       </c>
       <c r="K76" s="71">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L76" s="72">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>50899</v>
+        <v>50903</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -7699,7 +7776,7 @@
       </c>
       <c r="F81" s="69">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>3.01125E-2</v>
+        <v>2.98625E-2</v>
       </c>
       <c r="G81" s="69" t="e">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -7716,11 +7793,11 @@
       </c>
       <c r="K81" s="71">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L81" s="72">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>52726</v>
+        <v>52730</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -9446,8 +9523,8 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9508,14 +9585,14 @@
       </c>
       <c r="G2" s="56">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H2" s="57">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="I2" s="62">
-        <v>0.99991785397074651</v>
+        <v>0.99992039812639089</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9539,14 +9616,14 @@
       </c>
       <c r="G3" s="56">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H3" s="57">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41782</v>
+        <v>41786</v>
       </c>
       <c r="I3" s="62">
-        <v>0.99983572143632526</v>
+        <v>0.9998393903067081</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9570,14 +9647,14 @@
       </c>
       <c r="G4" s="56">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H4" s="57">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
       <c r="I4" s="62">
-        <v>0.99963631287200461</v>
+        <v>0.99964271166500585</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9593,7 +9670,7 @@
       </c>
       <c r="E5" s="53">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.2374999999999999E-3</v>
+        <v>4.2249999999999996E-3</v>
       </c>
       <c r="F5" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9601,14 +9678,14 @@
       </c>
       <c r="G5" s="56">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H5" s="57">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
       <c r="I5" s="62">
-        <v>0.99928249435064631</v>
+        <v>0.99928426150577931</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9625,7 +9702,7 @@
       </c>
       <c r="E6" s="53">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>4.2500000000000003E-3</v>
+        <v>4.2374999999999999E-3</v>
       </c>
       <c r="F6" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9633,20 +9710,20 @@
       </c>
       <c r="G6" s="56">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H6" s="57">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
       <c r="I6" s="62">
-        <v>0.99889150789602987</v>
+        <v>0.99893447495027499</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_RateHelpersSelected#0009</v>
+        <v>GBP_YCONRH_RateHelpersSelected#0005</v>
       </c>
       <c r="B7" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9658,7 +9735,7 @@
       </c>
       <c r="E7" s="53">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>4.3125000000000004E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="F7" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9666,14 +9743,14 @@
       </c>
       <c r="G7" s="56">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H7" s="57">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41891</v>
+        <v>41897</v>
       </c>
       <c r="I7" s="62">
-        <v>0.99852873032391321</v>
+        <v>0.99853097961745274</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9683,7 +9760,7 @@
       </c>
       <c r="E8" s="53">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>4.3625000000000001E-3</v>
+        <v>4.3374999999999993E-3</v>
       </c>
       <c r="F8" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9691,14 +9768,14 @@
       </c>
       <c r="G8" s="56">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H8" s="57">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41921</v>
+        <v>41925</v>
       </c>
       <c r="I8" s="62">
-        <v>0.99814936868612048</v>
+        <v>0.99818653136355773</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -9708,7 +9785,7 @@
       </c>
       <c r="E9" s="53">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>4.4374999999999996E-3</v>
+        <v>4.4250000000000001E-3</v>
       </c>
       <c r="F9" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9716,14 +9793,14 @@
       </c>
       <c r="G9" s="56">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H9" s="57">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
       <c r="I9" s="62">
-        <v>0.99772480636603844</v>
+        <v>0.9977756958639421</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -9741,14 +9818,14 @@
       </c>
       <c r="G10" s="56">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H10" s="57">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41982</v>
+        <v>41988</v>
       </c>
       <c r="I10" s="62">
-        <v>0.99728040249128991</v>
+        <v>0.99729397086625138</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -9758,7 +9835,7 @@
       </c>
       <c r="E11" s="53">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>4.725E-3</v>
+        <v>4.7375000000000004E-3</v>
       </c>
       <c r="F11" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9766,14 +9843,14 @@
       </c>
       <c r="G11" s="56">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H11" s="57">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42013</v>
+        <v>42017</v>
       </c>
       <c r="I11" s="62">
-        <v>0.99679468210037137</v>
+        <v>0.9968315289497266</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -9783,7 +9860,7 @@
       </c>
       <c r="E12" s="53">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.9249999999999997E-3</v>
       </c>
       <c r="F12" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9791,14 +9868,14 @@
       </c>
       <c r="G12" s="56">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H12" s="57">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42044</v>
+        <v>42048</v>
       </c>
       <c r="I12" s="62">
-        <v>0.99625739306007222</v>
+        <v>0.99629112175373036</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -9808,7 +9885,7 @@
       </c>
       <c r="E13" s="53">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>5.1124999999999999E-3</v>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="F13" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9816,14 +9893,14 @@
       </c>
       <c r="G13" s="56">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H13" s="57">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42072</v>
+        <v>42076</v>
       </c>
       <c r="I13" s="62">
-        <v>0.99570133606524491</v>
+        <v>0.99573041758939285</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -9833,7 +9910,7 @@
       </c>
       <c r="E14" s="53">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>5.3500000000000006E-3</v>
+        <v>5.3875000000000008E-3</v>
       </c>
       <c r="F14" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9841,14 +9918,14 @@
       </c>
       <c r="G14" s="56">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H14" s="57">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42103</v>
+        <v>42107</v>
       </c>
       <c r="I14" s="62">
-        <v>0.99504619018235452</v>
+        <v>0.99508104998461955</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -9858,7 +9935,7 @@
       </c>
       <c r="E15" s="53">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>5.5874999999999996E-3</v>
+        <v>5.6375000000000001E-3</v>
       </c>
       <c r="F15" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9866,14 +9943,14 @@
       </c>
       <c r="G15" s="56">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H15" s="57">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
       <c r="I15" s="62">
-        <v>0.99433611647322617</v>
+        <v>0.99439551436151241</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9883,7 +9960,7 @@
       </c>
       <c r="E16" s="53">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>6.425000000000001E-3</v>
+        <v>6.4749999999999999E-3</v>
       </c>
       <c r="F16" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9891,14 +9968,14 @@
       </c>
       <c r="G16" s="56">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H16" s="57">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42226</v>
+        <v>42229</v>
       </c>
       <c r="I16" s="62">
-        <v>0.99187626400306794</v>
+        <v>0.99194380148108863</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
@@ -9908,7 +9985,7 @@
       </c>
       <c r="E17" s="53">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>7.3375000000000003E-3</v>
+        <v>7.4124999999999998E-3</v>
       </c>
       <c r="F17" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9916,14 +9993,14 @@
       </c>
       <c r="G17" s="56">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H17" s="57">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42317</v>
+        <v>42321</v>
       </c>
       <c r="I17" s="62">
-        <v>0.98889387764732173</v>
+        <v>0.98893509635662957</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
@@ -9933,7 +10010,7 @@
       </c>
       <c r="E18" s="53">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>9.2999999999999992E-3</v>
+        <v>9.362500000000001E-3</v>
       </c>
       <c r="F18" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9941,14 +10018,14 @@
       </c>
       <c r="G18" s="56">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H18" s="57">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42499</v>
+        <v>42503</v>
       </c>
       <c r="I18" s="62">
-        <v>0.98134495131024957</v>
+        <v>0.98147713582593343</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
@@ -9958,7 +10035,7 @@
       </c>
       <c r="E19" s="53">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.295E-2</v>
+        <v>1.2987500000000001E-2</v>
       </c>
       <c r="F19" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -9966,14 +10043,14 @@
       </c>
       <c r="G19" s="56">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H19" s="57">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42864</v>
+        <v>42870</v>
       </c>
       <c r="I19" s="62">
-        <v>0.96140029384890902</v>
+        <v>0.96174573514365669</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
@@ -9982,7 +10059,7 @@
       </c>
       <c r="E20" s="53">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5762499999999999E-2</v>
+        <v>1.575E-2</v>
       </c>
       <c r="F20" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -9990,14 +10067,14 @@
       </c>
       <c r="G20" s="56">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H20" s="57">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>43229</v>
+        <v>43234</v>
       </c>
       <c r="I20" s="62">
-        <v>0.93802615961906477</v>
+        <v>0.93886201393871394</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
@@ -10006,7 +10083,7 @@
       </c>
       <c r="E21" s="53">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.7875000000000002E-2</v>
+        <v>1.7837499999999999E-2</v>
       </c>
       <c r="F21" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10014,14 +10091,14 @@
       </c>
       <c r="G21" s="56">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H21" s="57">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="I21" s="62">
-        <v>0.91317075267061254</v>
+        <v>0.91449107312812206</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
@@ -10030,7 +10107,7 @@
       </c>
       <c r="E22" s="53">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.9500000000000003E-2</v>
+        <v>1.94375E-2</v>
       </c>
       <c r="F22" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10038,14 +10115,14 @@
       </c>
       <c r="G22" s="56">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H22" s="57">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="I22" s="62">
-        <v>0.88758466376715217</v>
+        <v>0.88948419189158512</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
@@ -10054,7 +10131,7 @@
       </c>
       <c r="E23" s="53">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.0837500000000002E-2</v>
+        <v>2.07625E-2</v>
       </c>
       <c r="F23" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10062,14 +10139,14 @@
       </c>
       <c r="G23" s="56">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H23" s="57">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="I23" s="62">
-        <v>0.8617185525588964</v>
+        <v>0.8640115028506421</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
@@ -10078,7 +10155,7 @@
       </c>
       <c r="E24" s="53">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.2000000000000002E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="F24" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10086,14 +10163,14 @@
       </c>
       <c r="G24" s="56">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H24" s="57">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44690</v>
+        <v>44694</v>
       </c>
       <c r="I24" s="62">
-        <v>0.8354205252425474</v>
+        <v>0.83820444478956013</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
@@ -10102,7 +10179,7 @@
       </c>
       <c r="E25" s="53">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.3012500000000002E-2</v>
+        <v>2.2887500000000002E-2</v>
       </c>
       <c r="F25" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10110,14 +10187,14 @@
       </c>
       <c r="G25" s="56">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H25" s="57">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>45055</v>
+        <v>45061</v>
       </c>
       <c r="I25" s="62">
-        <v>0.80897111930200716</v>
+        <v>0.81221732010065884</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
@@ -10126,7 +10203,7 @@
       </c>
       <c r="E26" s="53">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.3937499999999997E-2</v>
+        <v>2.3762499999999999E-2</v>
       </c>
       <c r="F26" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10134,14 +10211,14 @@
       </c>
       <c r="G26" s="56">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H26" s="57">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="I26" s="62">
-        <v>0.78225528598644356</v>
+        <v>0.78640255111111901</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
@@ -10150,7 +10227,7 @@
       </c>
       <c r="E27" s="53">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.5549999999999996E-2</v>
+        <v>2.5324999999999997E-2</v>
       </c>
       <c r="F27" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10158,14 +10235,14 @@
       </c>
       <c r="G27" s="56">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H27" s="57">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>46153</v>
+        <v>46155</v>
       </c>
       <c r="I27" s="62">
-        <v>0.72902558233212644</v>
+        <v>0.73449915191751713</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
@@ -10174,7 +10251,7 @@
       </c>
       <c r="E28" s="53">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.7337500000000001E-2</v>
+        <v>2.7137500000000002E-2</v>
       </c>
       <c r="F28" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10182,14 +10259,14 @@
       </c>
       <c r="G28" s="56">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H28" s="57">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>47247</v>
+        <v>47252</v>
       </c>
       <c r="I28" s="62">
-        <v>0.65371523605406789</v>
+        <v>0.65969384594194913</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.2">
@@ -10198,7 +10275,7 @@
       </c>
       <c r="E29" s="53">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.9074999999999997E-2</v>
+        <v>2.8875000000000001E-2</v>
       </c>
       <c r="F29" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10206,14 +10283,14 @@
       </c>
       <c r="G29" s="56">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H29" s="57">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>49073</v>
+        <v>49079</v>
       </c>
       <c r="I29" s="62">
-        <v>0.54517788648460719</v>
+        <v>0.55215650645977499</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.2">
@@ -10222,7 +10299,7 @@
       </c>
       <c r="E30" s="53">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.9812500000000002E-2</v>
+        <v>2.9575000000000001E-2</v>
       </c>
       <c r="F30" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10230,14 +10307,14 @@
       </c>
       <c r="G30" s="56">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H30" s="57">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>50899</v>
+        <v>50903</v>
       </c>
       <c r="I30" s="62">
-        <v>0.45924464584989144</v>
+        <v>0.46744097185457634</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
@@ -10246,7 +10323,7 @@
       </c>
       <c r="E31" s="53">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>3.01125E-2</v>
+        <v>2.98625E-2</v>
       </c>
       <c r="F31" s="53" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10254,14 +10331,14 @@
       </c>
       <c r="G31" s="56">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H31" s="57">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>52726</v>
+        <v>52730</v>
       </c>
       <c r="I31" s="62">
-        <v>0.39012155202935633</v>
+        <v>0.39870857449369967</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
@@ -12563,11 +12640,107 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="169" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="169" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="169" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="169" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="169" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="169" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="169" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="169" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="168" t="str">
+        <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
+        <v>GBP_YCONRH</v>
+      </c>
+      <c r="H1" s="170"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="172" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="173" t="str">
+        <f>$E$1&amp;"_Deposits.xml"</f>
+        <v>GBP_YCONRH_Deposits.xml</v>
+      </c>
+      <c r="F2" s="174" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(#REF!,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="G2" s="175"/>
+      <c r="H2" s="170"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="171"/>
+      <c r="B3" s="176" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="177" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="178" t="str">
+        <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
+        <v>GBPOND_Quote</v>
+      </c>
+      <c r="E3" s="179" t="str">
+        <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
+        <v>GBP_YCONRH_OND</v>
+      </c>
+      <c r="F3" s="180" t="str">
+        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>GBP_YCONRH_OND#0005</v>
+      </c>
+      <c r="G3" s="181" t="str">
+        <f>_xll.ohRangeRetrieveError(F3)</f>
+        <v/>
+      </c>
+      <c r="H3" s="170"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="182"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="184"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12685,7 +12858,7 @@
       </c>
       <c r="L4" s="134" t="str">
         <f>_xll.qlSonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCONRH__LiborON#0023</v>
+        <v>GBP_YCONRH__LiborON#0003</v>
       </c>
       <c r="M4" s="133" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -12746,7 +12919,7 @@
       </c>
       <c r="L6" s="120" t="str">
         <f>_xll.qlOISRateHelper(K6,B6,C6,J6,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_SWOIS#0014</v>
+        <v>GBP_YCONRH_SWOIS#0003</v>
       </c>
       <c r="M6" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -12792,7 +12965,7 @@
       </c>
       <c r="L7" s="120" t="str">
         <f>_xll.qlOISRateHelper(K7,B7,C7,J7,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_2WOIS#0006</v>
+        <v>GBP_YCONRH_2WOIS#0003</v>
       </c>
       <c r="M7" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -12838,7 +13011,7 @@
       </c>
       <c r="L8" s="120" t="str">
         <f>_xll.qlOISRateHelper(K8,B8,C8,J8,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_3WOIS#0006</v>
+        <v>GBP_YCONRH_3WOIS#0003</v>
       </c>
       <c r="M8" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -12884,7 +13057,7 @@
       </c>
       <c r="L9" s="120" t="str">
         <f>_xll.qlOISRateHelper(K9,B9,C9,J9,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_1MOIS#0006</v>
+        <v>GBP_YCONRH_1MOIS#0003</v>
       </c>
       <c r="M9" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -12930,7 +13103,7 @@
       </c>
       <c r="L10" s="120" t="str">
         <f>_xll.qlOISRateHelper(K10,B10,C10,J10,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_2MOIS#0006</v>
+        <v>GBP_YCONRH_2MOIS#0003</v>
       </c>
       <c r="M10" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -12976,7 +13149,7 @@
       </c>
       <c r="L11" s="120" t="str">
         <f>_xll.qlOISRateHelper(K11,B11,C11,J11,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_3MOIS#0006</v>
+        <v>GBP_YCONRH_3MOIS#0003</v>
       </c>
       <c r="M11" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -13022,7 +13195,7 @@
       </c>
       <c r="L12" s="120" t="str">
         <f>_xll.qlOISRateHelper(K12,B12,C12,J12,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_4MOIS#0006</v>
+        <v>GBP_YCONRH_4MOIS#0003</v>
       </c>
       <c r="M12" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -13068,7 +13241,7 @@
       </c>
       <c r="L13" s="120" t="str">
         <f>_xll.qlOISRateHelper(K13,B13,C13,J13,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_5MOIS#0006</v>
+        <v>GBP_YCONRH_5MOIS#0003</v>
       </c>
       <c r="M13" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -13114,7 +13287,7 @@
       </c>
       <c r="L14" s="120" t="str">
         <f>_xll.qlOISRateHelper(K14,B14,C14,J14,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_6MOIS#0006</v>
+        <v>GBP_YCONRH_6MOIS#0003</v>
       </c>
       <c r="M14" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -13160,7 +13333,7 @@
       </c>
       <c r="L15" s="120" t="str">
         <f>_xll.qlOISRateHelper(K15,B15,C15,J15,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_7MOIS#0006</v>
+        <v>GBP_YCONRH_7MOIS#0003</v>
       </c>
       <c r="M15" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -13206,7 +13379,7 @@
       </c>
       <c r="L16" s="120" t="str">
         <f>_xll.qlOISRateHelper(K16,B16,C16,J16,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_8MOIS#0006</v>
+        <v>GBP_YCONRH_8MOIS#0003</v>
       </c>
       <c r="M16" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -13252,7 +13425,7 @@
       </c>
       <c r="L17" s="120" t="str">
         <f>_xll.qlOISRateHelper(K17,B17,C17,J17,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_9MOIS#0006</v>
+        <v>GBP_YCONRH_9MOIS#0003</v>
       </c>
       <c r="M17" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -13298,7 +13471,7 @@
       </c>
       <c r="L18" s="120" t="str">
         <f>_xll.qlOISRateHelper(K18,B18,C18,J18,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_10MOIS#0006</v>
+        <v>GBP_YCONRH_10MOIS#0003</v>
       </c>
       <c r="M18" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -13344,7 +13517,7 @@
       </c>
       <c r="L19" s="120" t="str">
         <f>_xll.qlOISRateHelper(K19,B19,C19,J19,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_11MOIS#0006</v>
+        <v>GBP_YCONRH_11MOIS#0003</v>
       </c>
       <c r="M19" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -13390,7 +13563,7 @@
       </c>
       <c r="L20" s="120" t="str">
         <f>_xll.qlOISRateHelper(K20,B20,C20,J20,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_1YOIS#0006</v>
+        <v>GBP_YCONRH_1YOIS#0003</v>
       </c>
       <c r="M20" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -13436,7 +13609,7 @@
       </c>
       <c r="L21" s="120" t="str">
         <f>_xll.qlOISRateHelper(K21,B21,C21,J21,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_15MOIS#0006</v>
+        <v>GBP_YCONRH_15MOIS#0003</v>
       </c>
       <c r="M21" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -13482,7 +13655,7 @@
       </c>
       <c r="L22" s="120" t="str">
         <f>_xll.qlOISRateHelper(K22,B22,C22,J22,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_18MOIS#0006</v>
+        <v>GBP_YCONRH_18MOIS#0003</v>
       </c>
       <c r="M22" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -13528,7 +13701,7 @@
       </c>
       <c r="L23" s="120" t="str">
         <f>_xll.qlOISRateHelper(K23,B23,C23,J23,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_21MOIS#0006</v>
+        <v>GBP_YCONRH_21MOIS#0003</v>
       </c>
       <c r="M23" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -13574,7 +13747,7 @@
       </c>
       <c r="L24" s="120" t="str">
         <f>_xll.qlOISRateHelper(K24,B24,C24,J24,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_2YOIS#0006</v>
+        <v>GBP_YCONRH_2YOIS#0003</v>
       </c>
       <c r="M24" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -13620,7 +13793,7 @@
       </c>
       <c r="L25" s="120" t="str">
         <f>_xll.qlOISRateHelper(K25,B25,C25,J25,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_3YOIS#0006</v>
+        <v>GBP_YCONRH_3YOIS#0003</v>
       </c>
       <c r="M25" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -13666,7 +13839,7 @@
       </c>
       <c r="L26" s="120" t="str">
         <f>_xll.qlOISRateHelper(K26,B26,C26,J26,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_4YOIS#0006</v>
+        <v>GBP_YCONRH_4YOIS#0003</v>
       </c>
       <c r="M26" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -13712,7 +13885,7 @@
       </c>
       <c r="L27" s="120" t="str">
         <f>_xll.qlOISRateHelper(K27,B27,C27,J27,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_5YOIS#0006</v>
+        <v>GBP_YCONRH_5YOIS#0003</v>
       </c>
       <c r="M27" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -13758,7 +13931,7 @@
       </c>
       <c r="L28" s="120" t="str">
         <f>_xll.qlOISRateHelper(K28,B28,C28,J28,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_6YOIS#0006</v>
+        <v>GBP_YCONRH_6YOIS#0003</v>
       </c>
       <c r="M28" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -13804,7 +13977,7 @@
       </c>
       <c r="L29" s="120" t="str">
         <f>_xll.qlOISRateHelper(K29,B29,C29,J29,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_7YOIS#0006</v>
+        <v>GBP_YCONRH_7YOIS#0003</v>
       </c>
       <c r="M29" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -13850,7 +14023,7 @@
       </c>
       <c r="L30" s="120" t="str">
         <f>_xll.qlOISRateHelper(K30,B30,C30,J30,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_8YOIS#0006</v>
+        <v>GBP_YCONRH_8YOIS#0003</v>
       </c>
       <c r="M30" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -13896,7 +14069,7 @@
       </c>
       <c r="L31" s="120" t="str">
         <f>_xll.qlOISRateHelper(K31,B31,C31,J31,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_9YOIS#0006</v>
+        <v>GBP_YCONRH_9YOIS#0003</v>
       </c>
       <c r="M31" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -13942,7 +14115,7 @@
       </c>
       <c r="L32" s="120" t="str">
         <f>_xll.qlOISRateHelper(K32,B32,C32,J32,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_10YOIS#0006</v>
+        <v>GBP_YCONRH_10YOIS#0003</v>
       </c>
       <c r="M32" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -13988,7 +14161,7 @@
       </c>
       <c r="L33" s="120" t="str">
         <f>_xll.qlOISRateHelper(K33,B33,C33,J33,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_11YOIS#0006</v>
+        <v>GBP_YCONRH_11YOIS#0003</v>
       </c>
       <c r="M33" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -14034,7 +14207,7 @@
       </c>
       <c r="L34" s="120" t="str">
         <f>_xll.qlOISRateHelper(K34,B34,C34,J34,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_12YOIS#0006</v>
+        <v>GBP_YCONRH_12YOIS#0003</v>
       </c>
       <c r="M34" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -14080,7 +14253,7 @@
       </c>
       <c r="L35" s="120" t="str">
         <f>_xll.qlOISRateHelper(K35,B35,C35,J35,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_15YOIS#0006</v>
+        <v>GBP_YCONRH_15YOIS#0003</v>
       </c>
       <c r="M35" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -14126,7 +14299,7 @@
       </c>
       <c r="L36" s="120" t="str">
         <f>_xll.qlOISRateHelper(K36,B36,C36,J36,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_20YOIS#0006</v>
+        <v>GBP_YCONRH_20YOIS#0003</v>
       </c>
       <c r="M36" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -14172,7 +14345,7 @@
       </c>
       <c r="L37" s="120" t="str">
         <f>_xll.qlOISRateHelper(K37,B37,C37,J37,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_25YOIS#0006</v>
+        <v>GBP_YCONRH_25YOIS#0003</v>
       </c>
       <c r="M37" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -14218,7 +14391,7 @@
       </c>
       <c r="L38" s="120" t="str">
         <f>_xll.qlOISRateHelper(K38,B38,C38,J38,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCONRH_30YOIS#0006</v>
+        <v>GBP_YCONRH_30YOIS#0003</v>
       </c>
       <c r="M38" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
